--- a/src/main/resources/许愿墙.xlsx
+++ b/src/main/resources/许愿墙.xlsx
@@ -1,40 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\get_jobs\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB1FEA4-1826-43B6-AA8B-F3FCC3C378BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView xWindow="-28920" yWindow="2205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t xml:space="preserve">  </t>
+    <t>你想找什么样的工作？</t>
+  </si>
+  <si>
+    <t>现在的状态是怎样的？</t>
+  </si>
+  <si>
+    <t>AI攻城狮</t>
+  </si>
+  <si>
+    <t>已找到！</t>
+  </si>
+  <si>
+    <t>未找到</t>
+  </si>
+  <si>
+    <t>逆向开发</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -52,21 +67,14 @@
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF34C724"/>
-        <bgColor/>
       </patternFill>
     </fill>
   </fills>
@@ -117,27 +125,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -150,9 +158,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -190,7 +198,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -296,7 +304,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -438,35 +446,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="22"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="str">
-        <v>你想找什么样的工作？</v>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="3" t="str">
-        <v>现在的状态是怎样的？</v>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -487,12 +495,12 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="str">
-        <v>AI攻城狮</v>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
       </c>
-      <c r="B2" s="2" t="str">
-        <v>已找到！</v>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -513,9 +521,13 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -535,7 +547,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
@@ -557,7 +569,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
@@ -579,7 +591,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
@@ -601,7 +613,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
@@ -623,7 +635,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
@@ -645,7 +657,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
@@ -667,7 +679,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
@@ -689,7 +701,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
@@ -711,7 +723,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
@@ -733,7 +745,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
@@ -755,7 +767,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
@@ -777,7 +789,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
@@ -799,7 +811,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
@@ -821,7 +833,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
@@ -843,7 +855,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
@@ -865,7 +877,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
@@ -887,7 +899,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
@@ -909,7 +921,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
@@ -931,7 +943,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
@@ -953,7 +965,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
@@ -975,7 +987,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
@@ -997,7 +1009,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
@@ -1019,7 +1031,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
@@ -1041,7 +1053,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
@@ -1063,7 +1075,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
@@ -1085,7 +1097,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
@@ -1107,7 +1119,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
@@ -1129,7 +1141,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -1151,7 +1163,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
@@ -1173,7 +1185,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
@@ -1195,7 +1207,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
@@ -1217,7 +1229,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
@@ -1239,7 +1251,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
@@ -1261,7 +1273,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
@@ -1283,7 +1295,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
@@ -1305,7 +1317,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
@@ -1327,7 +1339,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
@@ -1349,7 +1361,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
@@ -1371,7 +1383,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
@@ -1393,7 +1405,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -1415,7 +1427,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -1437,7 +1449,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
@@ -1459,7 +1471,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
@@ -1481,7 +1493,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
@@ -1503,7 +1515,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
@@ -1525,7 +1537,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
@@ -1547,7 +1559,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
@@ -1569,7 +1581,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
@@ -1591,7 +1603,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
@@ -1613,7 +1625,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
@@ -1635,7 +1647,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
@@ -1657,7 +1669,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
@@ -1679,7 +1691,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
@@ -1701,7 +1713,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
@@ -1723,7 +1735,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
@@ -1745,7 +1757,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
@@ -1767,7 +1779,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
@@ -1789,7 +1801,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
@@ -1811,7 +1823,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
@@ -1833,7 +1845,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
@@ -1855,7 +1867,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
@@ -1877,7 +1889,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
@@ -1899,7 +1911,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
@@ -1921,7 +1933,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
@@ -1943,7 +1955,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
@@ -1965,7 +1977,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
@@ -1987,7 +1999,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
@@ -2009,7 +2021,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
@@ -2031,7 +2043,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
@@ -2053,7 +2065,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
@@ -2075,7 +2087,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -2097,7 +2109,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -2119,7 +2131,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -2141,7 +2153,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -2163,7 +2175,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -2185,7 +2197,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -2207,7 +2219,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -2229,7 +2241,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -2251,7 +2263,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -2273,7 +2285,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -2295,7 +2307,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -2317,7 +2329,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -2339,7 +2351,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -2361,7 +2373,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
@@ -2383,7 +2395,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -2405,7 +2417,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -2427,7 +2439,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -2449,7 +2461,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -2471,7 +2483,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -2493,7 +2505,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -2515,7 +2527,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -2537,7 +2549,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -2559,7 +2571,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -2581,7 +2593,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -2603,7 +2615,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -2625,7 +2637,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -2647,7 +2659,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -2669,7 +2681,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -2691,7 +2703,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -2713,7 +2725,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -2735,7 +2747,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -2757,7 +2769,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -2779,7 +2791,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -2801,7 +2813,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -2823,7 +2835,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -2845,7 +2857,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
@@ -2867,7 +2879,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
@@ -2889,7 +2901,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
@@ -2911,7 +2923,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
@@ -2933,7 +2945,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -2955,7 +2967,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -2977,7 +2989,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
@@ -2999,7 +3011,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
@@ -3021,7 +3033,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
@@ -3043,7 +3055,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
@@ -3065,7 +3077,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
@@ -3087,7 +3099,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
@@ -3109,7 +3121,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
@@ -3131,7 +3143,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
@@ -3153,7 +3165,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
@@ -3175,7 +3187,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
@@ -3197,7 +3209,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
@@ -3219,7 +3231,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
@@ -3241,7 +3253,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
@@ -3263,7 +3275,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
@@ -3285,7 +3297,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
@@ -3307,7 +3319,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
@@ -3329,7 +3341,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
@@ -3351,7 +3363,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
@@ -3373,7 +3385,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
@@ -3395,7 +3407,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
@@ -3417,7 +3429,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
@@ -3439,7 +3451,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
@@ -3461,7 +3473,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
@@ -3483,7 +3495,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
@@ -3505,7 +3517,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
@@ -3527,7 +3539,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
@@ -3549,7 +3561,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
@@ -3571,7 +3583,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
@@ -3593,7 +3605,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
@@ -3615,7 +3627,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
@@ -3637,7 +3649,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
@@ -3659,7 +3671,7 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
@@ -3681,7 +3693,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
@@ -3703,7 +3715,7 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
@@ -3725,7 +3737,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
@@ -3747,7 +3759,7 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
@@ -3769,7 +3781,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
@@ -3791,7 +3803,7 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
@@ -3813,7 +3825,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
@@ -3835,7 +3847,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
@@ -3857,7 +3869,7 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
@@ -3879,7 +3891,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
@@ -3901,7 +3913,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
@@ -3923,7 +3935,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
@@ -3945,7 +3957,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
@@ -3967,7 +3979,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
@@ -3989,7 +4001,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
@@ -4011,7 +4023,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
@@ -4033,7 +4045,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
@@ -4055,7 +4067,7 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
@@ -4077,7 +4089,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
@@ -4099,7 +4111,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
@@ -4121,7 +4133,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
@@ -4143,7 +4155,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
@@ -4165,7 +4177,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
@@ -4187,7 +4199,7 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
@@ -4209,7 +4221,7 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
@@ -4231,7 +4243,7 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
@@ -4253,7 +4265,7 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
@@ -4275,7 +4287,7 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
@@ -4297,7 +4309,7 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
@@ -4319,7 +4331,7 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
@@ -4341,7 +4353,7 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
@@ -4363,7 +4375,7 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
@@ -4385,7 +4397,7 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
@@ -4407,7 +4419,7 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
@@ -4429,7 +4441,7 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
@@ -4451,7 +4463,7 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
@@ -4473,7 +4485,7 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
@@ -4495,7 +4507,7 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
@@ -4517,7 +4529,7 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
@@ -4539,7 +4551,7 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
@@ -4561,7 +4573,7 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
@@ -4583,7 +4595,7 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
@@ -4605,7 +4617,7 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
@@ -4627,7 +4639,7 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
@@ -4649,7 +4661,7 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
@@ -4671,7 +4683,7 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
@@ -4693,7 +4705,7 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
@@ -4715,7 +4727,7 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
@@ -4737,7 +4749,7 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
@@ -4759,7 +4771,7 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
@@ -4781,7 +4793,7 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
@@ -4803,7 +4815,7 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
@@ -4825,7 +4837,7 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
@@ -4847,7 +4859,7 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
@@ -4870,6 +4882,6 @@
       <c r="T200" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/许愿墙.xlsx
+++ b/src/main/resources/许愿墙.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\get_jobs\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-8\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB1FEA4-1826-43B6-AA8B-F3FCC3C378BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EEB562-C280-48A5-AFEC-F6896126F10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>你想找什么样的工作？</t>
   </si>
@@ -39,29 +39,41 @@
     <t>已找到！</t>
   </si>
   <si>
-    <t>未找到</t>
+    <t>逆向开发</t>
   </si>
   <si>
-    <t>逆向开发</t>
+    <t>未找到</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络运维</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -460,7 +472,7 @@
   <dimension ref="A1:T200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -523,10 +535,10 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -548,8 +560,12 @@
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -4882,6 +4898,7 @@
       <c r="T200" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/许愿墙.xlsx
+++ b/src/main/resources/许愿墙.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\get_jobs\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ChromeDownload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB1FEA4-1826-43B6-AA8B-F3FCC3C378BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2957E1D-91A7-4275-B822-8C4B2BC009CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1460" yWindow="3040" windowWidth="36550" windowHeight="18010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>你想找什么样的工作？</t>
   </si>
@@ -33,35 +33,38 @@
     <t>现在的状态是怎样的？</t>
   </si>
   <si>
-    <t>AI攻城狮</t>
+    <t>AI产品经理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>已找到！</t>
-  </si>
-  <si>
-    <t>未找到</t>
-  </si>
-  <si>
-    <t>逆向开发</t>
+    <t>规划中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -158,9 +161,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -198,7 +201,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -304,7 +307,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -446,7 +449,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -460,7 +463,7 @@
   <dimension ref="A1:T200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -522,12 +525,8 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -4882,6 +4881,9 @@
       <c r="T200" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <picture r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/许愿墙.xlsx
+++ b/src/main/resources/许愿墙.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\get_jobs\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\get_jobs\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB1FEA4-1826-43B6-AA8B-F3FCC3C378BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C68E06-1371-4496-A73E-E24FCFEF613E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>你想找什么样的工作？</t>
   </si>
@@ -44,24 +44,35 @@
   <si>
     <t>逆向开发</t>
   </si>
+  <si>
+    <t>Java+AI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -158,9 +169,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -198,7 +209,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -304,7 +315,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -446,7 +457,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -460,7 +471,7 @@
   <dimension ref="A1:T200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -548,8 +559,12 @@
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -4882,6 +4897,8 @@
       <c r="T200" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/许愿墙.xlsx
+++ b/src/main/resources/许愿墙.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-8\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EEB562-C280-48A5-AFEC-F6896126F10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18BA73F-CE66-4F9E-BF92-2A30500ECF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,11 +42,11 @@
     <t>逆向开发</t>
   </si>
   <si>
-    <t>未找到</t>
+    <t>网络运维</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>网络运维</t>
+    <t>未找到</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -538,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -561,10 +561,10 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>

--- a/src/main/resources/许愿墙.xlsx
+++ b/src/main/resources/许愿墙.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\get_jobs\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\get_jobs\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB1FEA4-1826-43B6-AA8B-F3FCC3C378BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86BDA26-A1C1-4308-948A-A1CB9B26FFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>你想找什么样的工作？</t>
   </si>
@@ -44,24 +44,35 @@
   <si>
     <t>逆向开发</t>
   </si>
+  <si>
+    <t>Java+AI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -158,9 +169,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -198,7 +209,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -304,7 +315,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -446,7 +457,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -460,7 +471,7 @@
   <dimension ref="A1:T200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -548,8 +559,12 @@
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -4882,6 +4897,8 @@
       <c r="T200" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/许愿墙.xlsx
+++ b/src/main/resources/许愿墙.xlsx
@@ -1,55 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\get_jobs\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB1FEA4-1826-43B6-AA8B-F3FCC3C378BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcMode="auto"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>你想找什么样的工作？</t>
-  </si>
-  <si>
-    <t>现在的状态是怎样的？</t>
-  </si>
-  <si>
-    <t>AI攻城狮</t>
-  </si>
-  <si>
-    <t>已找到！</t>
-  </si>
-  <si>
-    <t>未找到</t>
-  </si>
-  <si>
-    <t>逆向开发</t>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -67,14 +52,21 @@
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF34C724"/>
+        <bgColor/>
       </patternFill>
     </fill>
   </fills>
@@ -125,27 +117,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -158,9 +150,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -198,7 +190,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -304,7 +296,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -446,35 +438,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="false" summaryRight="false"/>
   </sheetPr>
-  <dimension ref="A1:T200"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="3" t="str">
+        <v>你想找什么样的工作？</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
+      <c r="B1" s="3" t="str">
+        <v>现在的状态是怎样的？</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -495,12 +487,12 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
+    <row r="2">
+      <c r="A2" s="2" t="str">
+        <v>AI攻城狮</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+      <c r="B2" s="2" t="str">
+        <v>已找到！</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -521,12 +513,12 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
+    <row r="3">
+      <c r="A3" s="2" t="str">
+        <v>Java+AI</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
+      <c r="B3" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -547,9 +539,13 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+    <row r="4">
+      <c r="A4" s="2" t="str">
+        <v>AI agent开发</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -569,7 +565,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
@@ -591,7 +587,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
@@ -613,7 +609,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
@@ -635,7 +631,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
@@ -657,7 +653,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
@@ -679,7 +675,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
@@ -701,7 +697,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
@@ -723,7 +719,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
@@ -745,7 +741,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
@@ -767,7 +763,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
@@ -789,7 +785,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
@@ -811,7 +807,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
@@ -833,7 +829,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
@@ -855,7 +851,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
@@ -877,7 +873,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
@@ -899,7 +895,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
@@ -921,7 +917,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
@@ -943,7 +939,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
@@ -965,7 +961,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
@@ -987,7 +983,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
@@ -1009,7 +1005,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
@@ -1031,7 +1027,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
@@ -1053,7 +1049,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
@@ -1075,7 +1071,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
@@ -1097,7 +1093,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
@@ -1119,7 +1115,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
@@ -1141,7 +1137,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -1163,7 +1159,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
@@ -1185,7 +1181,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
@@ -1207,7 +1203,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
@@ -1229,7 +1225,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
@@ -1251,7 +1247,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
@@ -1273,7 +1269,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
@@ -1295,7 +1291,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
@@ -1317,7 +1313,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
@@ -1339,7 +1335,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
@@ -1361,7 +1357,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
@@ -1383,7 +1379,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
@@ -1405,7 +1401,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -1427,7 +1423,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -1449,7 +1445,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
@@ -1471,7 +1467,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
@@ -1493,7 +1489,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
@@ -1515,7 +1511,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
@@ -1537,7 +1533,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
@@ -1559,7 +1555,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
@@ -1581,7 +1577,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
@@ -1603,7 +1599,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
@@ -1625,7 +1621,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
@@ -1647,7 +1643,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
@@ -1669,7 +1665,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
@@ -1691,7 +1687,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
@@ -1713,7 +1709,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
@@ -1735,7 +1731,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
@@ -1757,7 +1753,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
@@ -1779,7 +1775,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
@@ -1801,7 +1797,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
@@ -1823,7 +1819,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
@@ -1845,7 +1841,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
@@ -1867,7 +1863,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
@@ -1889,7 +1885,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
@@ -1911,7 +1907,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
@@ -1933,7 +1929,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
@@ -1955,7 +1951,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
@@ -1977,7 +1973,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
@@ -1999,7 +1995,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
@@ -2021,7 +2017,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
@@ -2043,7 +2039,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
@@ -2065,7 +2061,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
@@ -2087,7 +2083,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -2109,7 +2105,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -2131,7 +2127,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -2153,7 +2149,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -2175,7 +2171,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -2197,7 +2193,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -2219,7 +2215,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -2241,7 +2237,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -2263,7 +2259,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -2285,7 +2281,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -2307,7 +2303,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -2329,7 +2325,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -2351,7 +2347,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -2373,7 +2369,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="87">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
@@ -2395,7 +2391,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -2417,7 +2413,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="89">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -2439,7 +2435,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -2461,7 +2457,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -2483,7 +2479,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -2505,7 +2501,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="93">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -2527,7 +2523,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="94">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -2549,7 +2545,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -2571,7 +2567,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="96">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -2593,7 +2589,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="97">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -2615,7 +2611,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="98">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -2637,7 +2633,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="99">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -2659,7 +2655,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="100">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -2681,7 +2677,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="101">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -2703,7 +2699,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="102">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -2725,7 +2721,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="103">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -2747,7 +2743,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="104">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -2769,7 +2765,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="105">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -2791,7 +2787,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="106">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -2813,7 +2809,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="107">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -2835,7 +2831,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="108">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -2857,7 +2853,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="109">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
@@ -2879,7 +2875,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="110">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
@@ -2901,7 +2897,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="111">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
@@ -2923,7 +2919,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="112">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
@@ -2945,7 +2941,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="113">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -2967,7 +2963,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="114">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -2989,7 +2985,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="115">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
@@ -3011,7 +3007,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="116">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
@@ -3033,7 +3029,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="117">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
@@ -3055,7 +3051,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="118">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
@@ -3077,7 +3073,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="119">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
@@ -3099,7 +3095,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="120">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
@@ -3121,7 +3117,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="121">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
@@ -3143,7 +3139,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="122">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
@@ -3165,7 +3161,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="123">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
@@ -3187,7 +3183,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="124">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
@@ -3209,7 +3205,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="125">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
@@ -3231,7 +3227,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="126">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
@@ -3253,7 +3249,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="127">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
@@ -3275,7 +3271,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="128">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
@@ -3297,7 +3293,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="129">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
@@ -3319,7 +3315,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="130">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
@@ -3341,7 +3337,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="131">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
@@ -3363,7 +3359,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="132">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
@@ -3385,7 +3381,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="133">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
@@ -3407,7 +3403,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="134">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
@@ -3429,7 +3425,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="135">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
@@ -3451,7 +3447,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="136">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
@@ -3473,7 +3469,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="137">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
@@ -3495,7 +3491,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="138">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
@@ -3517,7 +3513,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="139">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
@@ -3539,7 +3535,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="140">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
@@ -3561,7 +3557,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="141">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
@@ -3583,7 +3579,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="142">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
@@ -3605,7 +3601,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="143">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
@@ -3627,7 +3623,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="144">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
@@ -3649,7 +3645,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="145">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
@@ -3671,7 +3667,7 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="146">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
@@ -3693,7 +3689,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="147">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
@@ -3715,7 +3711,7 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="148">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
@@ -3737,7 +3733,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="149">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
@@ -3759,7 +3755,7 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="150">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
@@ -3781,7 +3777,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="151">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
@@ -3803,7 +3799,7 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="152">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
@@ -3825,7 +3821,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="153">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
@@ -3847,7 +3843,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="154">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
@@ -3869,7 +3865,7 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="155">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
@@ -3891,7 +3887,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="156">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
@@ -3913,7 +3909,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="157">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
@@ -3935,7 +3931,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="158">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
@@ -3957,7 +3953,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="159">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
@@ -3979,7 +3975,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="160">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
@@ -4001,7 +3997,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="161">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
@@ -4023,7 +4019,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="162">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
@@ -4045,7 +4041,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="163">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
@@ -4067,7 +4063,7 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="164">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
@@ -4089,7 +4085,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="165">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
@@ -4111,7 +4107,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="166">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
@@ -4133,7 +4129,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="167">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
@@ -4155,7 +4151,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="168">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
@@ -4177,7 +4173,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="169">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
@@ -4199,7 +4195,7 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="170">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
@@ -4221,7 +4217,7 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="171">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
@@ -4243,7 +4239,7 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="172">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
@@ -4265,7 +4261,7 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="173">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
@@ -4287,7 +4283,7 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="174">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
@@ -4309,7 +4305,7 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="175">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
@@ -4331,7 +4327,7 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="176">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
@@ -4353,7 +4349,7 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="177">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
@@ -4375,7 +4371,7 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="178">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
@@ -4397,7 +4393,7 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="179">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
@@ -4419,7 +4415,7 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="180">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
@@ -4441,7 +4437,7 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="181">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
@@ -4463,7 +4459,7 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="182">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
@@ -4485,7 +4481,7 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="183">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
@@ -4507,7 +4503,7 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="184">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
@@ -4529,7 +4525,7 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="185">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
@@ -4551,7 +4547,7 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="186">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
@@ -4573,7 +4569,7 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="187">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
@@ -4595,7 +4591,7 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="188">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
@@ -4617,7 +4613,7 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="189">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
@@ -4639,7 +4635,7 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="190">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
@@ -4661,7 +4657,7 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="191">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
@@ -4683,7 +4679,7 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="192">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
@@ -4705,7 +4701,7 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="193">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
@@ -4727,7 +4723,7 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="194">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
@@ -4749,7 +4745,7 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="195">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
@@ -4771,7 +4767,7 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="196">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
@@ -4793,7 +4789,7 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="197">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
@@ -4815,7 +4811,7 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="198">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
@@ -4837,7 +4833,7 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="199">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
@@ -4859,7 +4855,7 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="200">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
@@ -4882,6 +4878,6 @@
       <c r="T200" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/许愿墙.xlsx
+++ b/src/main/resources/许愿墙.xlsx
@@ -1,25 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16800" windowHeight="8664"/>
+    <workbookView xWindow="4245" yWindow="645" windowWidth="28035" windowHeight="15795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>你想找什么样的工作？</t>
   </si>
   <si>
     <t>现在的状态是怎样的？</t>
-  </si>
-  <si>
-    <t>AI攻城狮</t>
   </si>
   <si>
     <t>已找到！</t>
@@ -49,185 +44,52 @@
   <si>
     <t>AI agent开发</t>
   </si>
+  <si>
+    <t>Java实习</t>
+  </si>
+  <si>
+    <t>还没开始找</t>
+  </si>
+  <si>
+    <t>系统架构师</t>
+  </si>
+  <si>
+    <t>AI攻城狮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端攻城狮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,197 +99,10 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF34C724"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -451,320 +126,56 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF1F2329"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF1F2329"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF1F2329"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF1F2329"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -813,7 +224,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -846,9 +257,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -881,6 +309,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1022,31 +467,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:T200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2"/>
@@ -1068,12 +519,12 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1094,12 +545,12 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1120,12 +571,12 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1146,12 +597,12 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1172,9 +623,13 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1194,9 +649,13 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1216,9 +675,9 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1238,9 +697,9 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1260,9 +719,9 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1282,9 +741,9 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1304,9 +763,9 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1326,9 +785,9 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1348,9 +807,9 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1370,9 +829,9 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1392,9 +851,9 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1414,9 +873,9 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1436,9 +895,9 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1458,9 +917,9 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1480,9 +939,9 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1502,9 +961,9 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="1:20">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1524,9 +983,9 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1546,9 +1005,9 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="1:20">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1568,9 +1027,9 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="1:20">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1590,9 +1049,9 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25" spans="1:20">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1612,9 +1071,9 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1634,9 +1093,9 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="1:20">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1656,9 +1115,9 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="1:20">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1678,9 +1137,9 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:20">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1700,9 +1159,9 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row r="30" spans="1:20">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1722,9 +1181,9 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" spans="1:20">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1744,9 +1203,9 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32" spans="1:20">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1766,9 +1225,9 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row r="33" spans="1:20">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1788,9 +1247,9 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
-    <row r="34" spans="1:20">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1810,9 +1269,9 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row r="35" spans="1:20">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1832,9 +1291,9 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36" spans="1:20">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1854,9 +1313,9 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37" spans="1:20">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1876,9 +1335,9 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38" spans="1:20">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1898,9 +1357,9 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row r="39" spans="1:20">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -1920,9 +1379,9 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
     </row>
-    <row r="40" spans="1:20">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -1942,9 +1401,9 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
     </row>
-    <row r="41" spans="1:20">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1964,9 +1423,9 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
     </row>
-    <row r="42" spans="1:20">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -1986,9 +1445,9 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
     </row>
-    <row r="43" spans="1:20">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -2008,9 +1467,9 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
     </row>
-    <row r="44" spans="1:20">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -2030,9 +1489,9 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
     </row>
-    <row r="45" spans="1:20">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -2052,9 +1511,9 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
     </row>
-    <row r="46" spans="1:20">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -2074,9 +1533,9 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
     </row>
-    <row r="47" spans="1:20">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -2096,9 +1555,9 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
     </row>
-    <row r="48" spans="1:20">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -2118,9 +1577,9 @@
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
     </row>
-    <row r="49" spans="1:20">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -2140,9 +1599,9 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="50" spans="1:20">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -2162,9 +1621,9 @@
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
     </row>
-    <row r="51" spans="1:20">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -2184,9 +1643,9 @@
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
     </row>
-    <row r="52" spans="1:20">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -2206,9 +1665,9 @@
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
     </row>
-    <row r="53" spans="1:20">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -2228,9 +1687,9 @@
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
     </row>
-    <row r="54" spans="1:20">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -2250,9 +1709,9 @@
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
     </row>
-    <row r="55" spans="1:20">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -2272,9 +1731,9 @@
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
     </row>
-    <row r="56" spans="1:20">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -2294,9 +1753,9 @@
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
     </row>
-    <row r="57" spans="1:20">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -2316,9 +1775,9 @@
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
     </row>
-    <row r="58" spans="1:20">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -2338,9 +1797,9 @@
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
     </row>
-    <row r="59" spans="1:20">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -2360,9 +1819,9 @@
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
     </row>
-    <row r="60" spans="1:20">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -2382,9 +1841,9 @@
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
     </row>
-    <row r="61" spans="1:20">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -2404,9 +1863,9 @@
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
     </row>
-    <row r="62" spans="1:20">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -2426,9 +1885,9 @@
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
     </row>
-    <row r="63" spans="1:20">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -2448,9 +1907,9 @@
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
     </row>
-    <row r="64" spans="1:20">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -2470,9 +1929,9 @@
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
     </row>
-    <row r="65" spans="1:20">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -2492,9 +1951,9 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
     </row>
-    <row r="66" spans="1:20">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -2514,9 +1973,9 @@
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
     </row>
-    <row r="67" spans="1:20">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -2536,9 +1995,9 @@
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
     </row>
-    <row r="68" spans="1:20">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -2558,9 +2017,9 @@
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
     </row>
-    <row r="69" spans="1:20">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -2580,9 +2039,9 @@
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
     </row>
-    <row r="70" spans="1:20">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -2602,9 +2061,9 @@
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
     </row>
-    <row r="71" spans="1:20">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -2624,9 +2083,9 @@
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
     </row>
-    <row r="72" spans="1:20">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -2646,9 +2105,9 @@
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
     </row>
-    <row r="73" spans="1:20">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -2668,9 +2127,9 @@
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
     </row>
-    <row r="74" spans="1:20">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -2690,9 +2149,9 @@
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
     </row>
-    <row r="75" spans="1:20">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -2712,9 +2171,9 @@
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
     </row>
-    <row r="76" spans="1:20">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -2734,9 +2193,9 @@
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
     </row>
-    <row r="77" spans="1:20">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -2756,9 +2215,9 @@
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
     </row>
-    <row r="78" spans="1:20">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -2778,9 +2237,9 @@
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
     </row>
-    <row r="79" spans="1:20">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -2800,9 +2259,9 @@
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
     </row>
-    <row r="80" spans="1:20">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -2822,9 +2281,9 @@
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
     </row>
-    <row r="81" spans="1:20">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -2844,9 +2303,9 @@
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
     </row>
-    <row r="82" spans="1:20">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -2866,9 +2325,9 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
     </row>
-    <row r="83" spans="1:20">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -2888,9 +2347,9 @@
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
     </row>
-    <row r="84" spans="1:20">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -2910,9 +2369,9 @@
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
     </row>
-    <row r="85" spans="1:20">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -2932,9 +2391,9 @@
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
     </row>
-    <row r="86" spans="1:20">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -2954,9 +2413,9 @@
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
     </row>
-    <row r="87" spans="1:20">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -2976,9 +2435,9 @@
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
     </row>
-    <row r="88" spans="1:20">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -2998,9 +2457,9 @@
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
     </row>
-    <row r="89" spans="1:20">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -3020,9 +2479,9 @@
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
     </row>
-    <row r="90" spans="1:20">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -3042,9 +2501,9 @@
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
     </row>
-    <row r="91" spans="1:20">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -3064,9 +2523,9 @@
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
     </row>
-    <row r="92" spans="1:20">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -3086,9 +2545,9 @@
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
     </row>
-    <row r="93" spans="1:20">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -3108,9 +2567,9 @@
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
     </row>
-    <row r="94" spans="1:20">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -3130,9 +2589,9 @@
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
     </row>
-    <row r="95" spans="1:20">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -3152,9 +2611,9 @@
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
     </row>
-    <row r="96" spans="1:20">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -3174,9 +2633,9 @@
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
     </row>
-    <row r="97" spans="1:20">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -3196,9 +2655,9 @@
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
     </row>
-    <row r="98" spans="1:20">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -3218,9 +2677,9 @@
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
     </row>
-    <row r="99" spans="1:20">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -3240,9 +2699,9 @@
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
     </row>
-    <row r="100" spans="1:20">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -3262,9 +2721,9 @@
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
     </row>
-    <row r="101" spans="1:20">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -3284,9 +2743,9 @@
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
     </row>
-    <row r="102" spans="1:20">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -3306,9 +2765,9 @@
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
     </row>
-    <row r="103" spans="1:20">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -3328,9 +2787,9 @@
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
     </row>
-    <row r="104" spans="1:20">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -3350,9 +2809,9 @@
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
     </row>
-    <row r="105" spans="1:20">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -3372,9 +2831,9 @@
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
     </row>
-    <row r="106" spans="1:20">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -3394,9 +2853,9 @@
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
     </row>
-    <row r="107" spans="1:20">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -3416,9 +2875,9 @@
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
     </row>
-    <row r="108" spans="1:20">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -3438,9 +2897,9 @@
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
     </row>
-    <row r="109" spans="1:20">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -3460,9 +2919,9 @@
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
     </row>
-    <row r="110" spans="1:20">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -3482,9 +2941,9 @@
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
     </row>
-    <row r="111" spans="1:20">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -3504,9 +2963,9 @@
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
     </row>
-    <row r="112" spans="1:20">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -3526,9 +2985,9 @@
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
     </row>
-    <row r="113" spans="1:20">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -3548,9 +3007,9 @@
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
     </row>
-    <row r="114" spans="1:20">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -3570,9 +3029,9 @@
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
     </row>
-    <row r="115" spans="1:20">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -3592,9 +3051,9 @@
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
     </row>
-    <row r="116" spans="1:20">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -3614,9 +3073,9 @@
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
     </row>
-    <row r="117" spans="1:20">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -3636,9 +3095,9 @@
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
     </row>
-    <row r="118" spans="1:20">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -3658,9 +3117,9 @@
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
     </row>
-    <row r="119" spans="1:20">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -3680,9 +3139,9 @@
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
     </row>
-    <row r="120" spans="1:20">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -3702,9 +3161,9 @@
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
     </row>
-    <row r="121" spans="1:20">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -3724,9 +3183,9 @@
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
     </row>
-    <row r="122" spans="1:20">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -3746,9 +3205,9 @@
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
     </row>
-    <row r="123" spans="1:20">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -3768,9 +3227,9 @@
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
     </row>
-    <row r="124" spans="1:20">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -3790,9 +3249,9 @@
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
     </row>
-    <row r="125" spans="1:20">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -3812,9 +3271,9 @@
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
     </row>
-    <row r="126" spans="1:20">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -3834,9 +3293,9 @@
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
     </row>
-    <row r="127" spans="1:20">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -3856,9 +3315,9 @@
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
     </row>
-    <row r="128" spans="1:20">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -3878,9 +3337,9 @@
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
     </row>
-    <row r="129" spans="1:20">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -3900,9 +3359,9 @@
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
     </row>
-    <row r="130" spans="1:20">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -3922,9 +3381,9 @@
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
     </row>
-    <row r="131" spans="1:20">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -3944,9 +3403,9 @@
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
     </row>
-    <row r="132" spans="1:20">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -3966,9 +3425,9 @@
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
     </row>
-    <row r="133" spans="1:20">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -3988,9 +3447,9 @@
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
     </row>
-    <row r="134" spans="1:20">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -4010,9 +3469,9 @@
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
     </row>
-    <row r="135" spans="1:20">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -4032,9 +3491,9 @@
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
     </row>
-    <row r="136" spans="1:20">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -4054,9 +3513,9 @@
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
     </row>
-    <row r="137" spans="1:20">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -4076,9 +3535,9 @@
       <c r="S137" s="2"/>
       <c r="T137" s="2"/>
     </row>
-    <row r="138" spans="1:20">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -4098,9 +3557,9 @@
       <c r="S138" s="2"/>
       <c r="T138" s="2"/>
     </row>
-    <row r="139" spans="1:20">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -4120,9 +3579,9 @@
       <c r="S139" s="2"/>
       <c r="T139" s="2"/>
     </row>
-    <row r="140" spans="1:20">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -4142,9 +3601,9 @@
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
     </row>
-    <row r="141" spans="1:20">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -4164,9 +3623,9 @@
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
     </row>
-    <row r="142" spans="1:20">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -4186,9 +3645,9 @@
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
     </row>
-    <row r="143" spans="1:20">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -4208,9 +3667,9 @@
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
     </row>
-    <row r="144" spans="1:20">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -4230,9 +3689,9 @@
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
     </row>
-    <row r="145" spans="1:20">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -4252,9 +3711,9 @@
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
     </row>
-    <row r="146" spans="1:20">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -4274,9 +3733,9 @@
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
     </row>
-    <row r="147" spans="1:20">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -4296,9 +3755,9 @@
       <c r="S147" s="2"/>
       <c r="T147" s="2"/>
     </row>
-    <row r="148" spans="1:20">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -4318,9 +3777,9 @@
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
     </row>
-    <row r="149" spans="1:20">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -4340,9 +3799,9 @@
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
     </row>
-    <row r="150" spans="1:20">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -4362,9 +3821,9 @@
       <c r="S150" s="2"/>
       <c r="T150" s="2"/>
     </row>
-    <row r="151" spans="1:20">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -4384,9 +3843,9 @@
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
     </row>
-    <row r="152" spans="1:20">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -4406,9 +3865,9 @@
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
     </row>
-    <row r="153" spans="1:20">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -4428,9 +3887,9 @@
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
     </row>
-    <row r="154" spans="1:20">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -4450,9 +3909,9 @@
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
     </row>
-    <row r="155" spans="1:20">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -4472,9 +3931,9 @@
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
     </row>
-    <row r="156" spans="1:20">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -4494,9 +3953,9 @@
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
     </row>
-    <row r="157" spans="1:20">
-      <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -4516,9 +3975,9 @@
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
     </row>
-    <row r="158" spans="1:20">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -4538,9 +3997,9 @@
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
     </row>
-    <row r="159" spans="1:20">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -4560,9 +4019,9 @@
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
     </row>
-    <row r="160" spans="1:20">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -4582,9 +4041,9 @@
       <c r="S160" s="2"/>
       <c r="T160" s="2"/>
     </row>
-    <row r="161" spans="1:20">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -4604,9 +4063,9 @@
       <c r="S161" s="2"/>
       <c r="T161" s="2"/>
     </row>
-    <row r="162" spans="1:20">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -4626,9 +4085,9 @@
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
     </row>
-    <row r="163" spans="1:20">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -4648,9 +4107,9 @@
       <c r="S163" s="2"/>
       <c r="T163" s="2"/>
     </row>
-    <row r="164" spans="1:20">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -4670,9 +4129,9 @@
       <c r="S164" s="2"/>
       <c r="T164" s="2"/>
     </row>
-    <row r="165" spans="1:20">
-      <c r="A165" s="3"/>
-      <c r="B165" s="3"/>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -4692,9 +4151,9 @@
       <c r="S165" s="2"/>
       <c r="T165" s="2"/>
     </row>
-    <row r="166" spans="1:20">
-      <c r="A166" s="3"/>
-      <c r="B166" s="3"/>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -4714,9 +4173,9 @@
       <c r="S166" s="2"/>
       <c r="T166" s="2"/>
     </row>
-    <row r="167" spans="1:20">
-      <c r="A167" s="3"/>
-      <c r="B167" s="3"/>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -4736,9 +4195,9 @@
       <c r="S167" s="2"/>
       <c r="T167" s="2"/>
     </row>
-    <row r="168" spans="1:20">
-      <c r="A168" s="3"/>
-      <c r="B168" s="3"/>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -4758,9 +4217,9 @@
       <c r="S168" s="2"/>
       <c r="T168" s="2"/>
     </row>
-    <row r="169" spans="1:20">
-      <c r="A169" s="3"/>
-      <c r="B169" s="3"/>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -4780,9 +4239,9 @@
       <c r="S169" s="2"/>
       <c r="T169" s="2"/>
     </row>
-    <row r="170" spans="1:20">
-      <c r="A170" s="3"/>
-      <c r="B170" s="3"/>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -4802,9 +4261,9 @@
       <c r="S170" s="2"/>
       <c r="T170" s="2"/>
     </row>
-    <row r="171" spans="1:20">
-      <c r="A171" s="3"/>
-      <c r="B171" s="3"/>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -4824,9 +4283,9 @@
       <c r="S171" s="2"/>
       <c r="T171" s="2"/>
     </row>
-    <row r="172" spans="1:20">
-      <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -4846,9 +4305,9 @@
       <c r="S172" s="2"/>
       <c r="T172" s="2"/>
     </row>
-    <row r="173" spans="1:20">
-      <c r="A173" s="3"/>
-      <c r="B173" s="3"/>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -4868,9 +4327,9 @@
       <c r="S173" s="2"/>
       <c r="T173" s="2"/>
     </row>
-    <row r="174" spans="1:20">
-      <c r="A174" s="3"/>
-      <c r="B174" s="3"/>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -4890,9 +4349,9 @@
       <c r="S174" s="2"/>
       <c r="T174" s="2"/>
     </row>
-    <row r="175" spans="1:20">
-      <c r="A175" s="3"/>
-      <c r="B175" s="3"/>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -4912,9 +4371,9 @@
       <c r="S175" s="2"/>
       <c r="T175" s="2"/>
     </row>
-    <row r="176" spans="1:20">
-      <c r="A176" s="3"/>
-      <c r="B176" s="3"/>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -4934,9 +4393,9 @@
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
     </row>
-    <row r="177" spans="1:20">
-      <c r="A177" s="3"/>
-      <c r="B177" s="3"/>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -4956,9 +4415,9 @@
       <c r="S177" s="2"/>
       <c r="T177" s="2"/>
     </row>
-    <row r="178" spans="1:20">
-      <c r="A178" s="3"/>
-      <c r="B178" s="3"/>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -4978,9 +4437,9 @@
       <c r="S178" s="2"/>
       <c r="T178" s="2"/>
     </row>
-    <row r="179" spans="1:20">
-      <c r="A179" s="3"/>
-      <c r="B179" s="3"/>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -5000,9 +4459,9 @@
       <c r="S179" s="2"/>
       <c r="T179" s="2"/>
     </row>
-    <row r="180" spans="1:20">
-      <c r="A180" s="3"/>
-      <c r="B180" s="3"/>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -5022,9 +4481,9 @@
       <c r="S180" s="2"/>
       <c r="T180" s="2"/>
     </row>
-    <row r="181" spans="1:20">
-      <c r="A181" s="3"/>
-      <c r="B181" s="3"/>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -5044,9 +4503,9 @@
       <c r="S181" s="2"/>
       <c r="T181" s="2"/>
     </row>
-    <row r="182" spans="1:20">
-      <c r="A182" s="3"/>
-      <c r="B182" s="3"/>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -5066,9 +4525,9 @@
       <c r="S182" s="2"/>
       <c r="T182" s="2"/>
     </row>
-    <row r="183" spans="1:20">
-      <c r="A183" s="3"/>
-      <c r="B183" s="3"/>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -5088,9 +4547,9 @@
       <c r="S183" s="2"/>
       <c r="T183" s="2"/>
     </row>
-    <row r="184" spans="1:20">
-      <c r="A184" s="3"/>
-      <c r="B184" s="3"/>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -5110,9 +4569,9 @@
       <c r="S184" s="2"/>
       <c r="T184" s="2"/>
     </row>
-    <row r="185" spans="1:20">
-      <c r="A185" s="3"/>
-      <c r="B185" s="3"/>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -5132,9 +4591,9 @@
       <c r="S185" s="2"/>
       <c r="T185" s="2"/>
     </row>
-    <row r="186" spans="1:20">
-      <c r="A186" s="3"/>
-      <c r="B186" s="3"/>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -5154,9 +4613,9 @@
       <c r="S186" s="2"/>
       <c r="T186" s="2"/>
     </row>
-    <row r="187" spans="1:20">
-      <c r="A187" s="3"/>
-      <c r="B187" s="3"/>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -5176,9 +4635,9 @@
       <c r="S187" s="2"/>
       <c r="T187" s="2"/>
     </row>
-    <row r="188" spans="1:20">
-      <c r="A188" s="3"/>
-      <c r="B188" s="3"/>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -5198,9 +4657,9 @@
       <c r="S188" s="2"/>
       <c r="T188" s="2"/>
     </row>
-    <row r="189" spans="1:20">
-      <c r="A189" s="3"/>
-      <c r="B189" s="3"/>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -5220,9 +4679,9 @@
       <c r="S189" s="2"/>
       <c r="T189" s="2"/>
     </row>
-    <row r="190" spans="1:20">
-      <c r="A190" s="3"/>
-      <c r="B190" s="3"/>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -5242,9 +4701,9 @@
       <c r="S190" s="2"/>
       <c r="T190" s="2"/>
     </row>
-    <row r="191" spans="1:20">
-      <c r="A191" s="3"/>
-      <c r="B191" s="3"/>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -5264,9 +4723,9 @@
       <c r="S191" s="2"/>
       <c r="T191" s="2"/>
     </row>
-    <row r="192" spans="1:20">
-      <c r="A192" s="3"/>
-      <c r="B192" s="3"/>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -5286,9 +4745,9 @@
       <c r="S192" s="2"/>
       <c r="T192" s="2"/>
     </row>
-    <row r="193" spans="1:20">
-      <c r="A193" s="3"/>
-      <c r="B193" s="3"/>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -5308,9 +4767,9 @@
       <c r="S193" s="2"/>
       <c r="T193" s="2"/>
     </row>
-    <row r="194" spans="1:20">
-      <c r="A194" s="3"/>
-      <c r="B194" s="3"/>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -5330,9 +4789,9 @@
       <c r="S194" s="2"/>
       <c r="T194" s="2"/>
     </row>
-    <row r="195" spans="1:20">
-      <c r="A195" s="3"/>
-      <c r="B195" s="3"/>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -5352,9 +4811,9 @@
       <c r="S195" s="2"/>
       <c r="T195" s="2"/>
     </row>
-    <row r="196" spans="1:20">
-      <c r="A196" s="3"/>
-      <c r="B196" s="3"/>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -5374,9 +4833,9 @@
       <c r="S196" s="2"/>
       <c r="T196" s="2"/>
     </row>
-    <row r="197" spans="1:20">
-      <c r="A197" s="3"/>
-      <c r="B197" s="3"/>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -5396,9 +4855,9 @@
       <c r="S197" s="2"/>
       <c r="T197" s="2"/>
     </row>
-    <row r="198" spans="1:20">
-      <c r="A198" s="3"/>
-      <c r="B198" s="3"/>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -5418,9 +4877,9 @@
       <c r="S198" s="2"/>
       <c r="T198" s="2"/>
     </row>
-    <row r="199" spans="1:20">
-      <c r="A199" s="3"/>
-      <c r="B199" s="3"/>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -5440,9 +4899,9 @@
       <c r="S199" s="2"/>
       <c r="T199" s="2"/>
     </row>
-    <row r="200" spans="1:20">
-      <c r="A200" s="3"/>
-      <c r="B200" s="3"/>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -5463,7 +4922,8 @@
       <c r="T200" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup paperSize="264" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/许愿墙.xlsx
+++ b/src/main/resources/许愿墙.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16800" windowHeight="8664"/>
+    <workbookView windowHeight="17260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>你想找什么样的工作？</t>
   </si>
@@ -48,6 +48,24 @@
   </si>
   <si>
     <t>AI agent开发</t>
+  </si>
+  <si>
+    <t>Java实习</t>
+  </si>
+  <si>
+    <t>还没开始找</t>
+  </si>
+  <si>
+    <t>系统架构师</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>前端攻城狮</t>
+  </si>
+  <si>
+    <t>Java</t>
   </si>
 </sst>
 </file>
@@ -1033,10 +1051,10 @@
   <dimension ref="A1:T200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15.2"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
@@ -1148,10 +1166,10 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1173,8 +1191,12 @@
       <c r="T5" s="2"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1195,8 +1217,12 @@
       <c r="T6" s="2"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1217,8 +1243,12 @@
       <c r="T7" s="2"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1239,8 +1269,12 @@
       <c r="T8" s="2"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>

--- a/src/main/resources/许愿墙.xlsx
+++ b/src/main/resources/许愿墙.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16800" windowHeight="8664"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>你想找什么样的工作？</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>AI agent开发</t>
+  </si>
+  <si>
+    <t>AI agent开发+java</t>
+  </si>
+  <si>
+    <t>再找</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1039,7 @@
   <dimension ref="A1:T200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2"/>
@@ -1173,8 +1179,12 @@
       <c r="T5" s="2"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>

--- a/src/main/resources/许愿墙.xlsx
+++ b/src/main/resources/许愿墙.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16800" windowHeight="8664"/>
+    <workbookView windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>你想找什么样的工作？</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>AI agent开发</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>已找到！但是想跳槽</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1039,7 @@
   <dimension ref="A1:T200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2"/>
@@ -1173,8 +1179,12 @@
       <c r="T5" s="2"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>

--- a/src/main/resources/许愿墙.xlsx
+++ b/src/main/resources/许愿墙.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16800" windowHeight="8664"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>你想找什么样的工作？</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>AI agent开发</t>
+  </si>
+  <si>
+    <t>Vue+react+鸿蒙</t>
+  </si>
+  <si>
+    <t>在职想找</t>
   </si>
 </sst>
 </file>
@@ -1033,10 +1039,10 @@
   <dimension ref="A1:T200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
@@ -1173,8 +1179,12 @@
       <c r="T5" s="2"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>

--- a/src/main/resources/许愿墙.xlsx
+++ b/src/main/resources/许愿墙.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28720"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\get_jobs\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48EEF68-F042-46E6-9043-0B89A1E8563B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="16800" windowHeight="8664"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>你想找什么样的工作？</t>
   </si>
@@ -49,18 +55,20 @@
   <si>
     <t>AI agent开发</t>
   </si>
+  <si>
+    <t>Java+AI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在找</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -76,158 +84,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,194 +112,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -450,253 +136,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -709,62 +153,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1022,27 +425,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:T200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1068,7 +472,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1094,7 +498,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1120,7 +524,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1146,12 +550,12 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1172,9 +576,13 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1194,7 +602,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
@@ -1216,7 +624,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
@@ -1238,7 +646,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
@@ -1260,7 +668,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
@@ -1282,7 +690,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
@@ -1304,7 +712,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
@@ -1326,7 +734,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
@@ -1348,7 +756,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
@@ -1370,7 +778,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
@@ -1392,7 +800,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
@@ -1414,7 +822,7 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2"/>
@@ -1436,7 +844,7 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
@@ -1458,7 +866,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
@@ -1480,7 +888,7 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="2"/>
@@ -1502,7 +910,7 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="2"/>
@@ -1524,7 +932,7 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="2"/>
@@ -1546,7 +954,7 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="2"/>
@@ -1568,7 +976,7 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="2"/>
@@ -1590,7 +998,7 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="2"/>
@@ -1612,7 +1020,7 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="2"/>
@@ -1634,7 +1042,7 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="2"/>
@@ -1656,7 +1064,7 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="2"/>
@@ -1678,7 +1086,7 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="2"/>
@@ -1700,7 +1108,7 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="2"/>
@@ -1722,7 +1130,7 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="2"/>
@@ -1744,7 +1152,7 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="2"/>
@@ -1766,7 +1174,7 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="2"/>
@@ -1788,7 +1196,7 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="2"/>
@@ -1810,7 +1218,7 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="2"/>
@@ -1832,7 +1240,7 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="2"/>
@@ -1854,7 +1262,7 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="2"/>
@@ -1876,7 +1284,7 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="2"/>
@@ -1898,7 +1306,7 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="2"/>
@@ -1920,7 +1328,7 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="2"/>
@@ -1942,7 +1350,7 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="2"/>
@@ -1964,7 +1372,7 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="2"/>
@@ -1986,7 +1394,7 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="2"/>
@@ -2008,7 +1416,7 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="2"/>
@@ -2030,7 +1438,7 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="2"/>
@@ -2052,7 +1460,7 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="2"/>
@@ -2074,7 +1482,7 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="2"/>
@@ -2096,7 +1504,7 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="2"/>
@@ -2118,7 +1526,7 @@
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="2"/>
@@ -2140,7 +1548,7 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="2"/>
@@ -2162,7 +1570,7 @@
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="2"/>
@@ -2184,7 +1592,7 @@
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="2"/>
@@ -2206,7 +1614,7 @@
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="2"/>
@@ -2228,7 +1636,7 @@
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="2"/>
@@ -2250,7 +1658,7 @@
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="2"/>
@@ -2272,7 +1680,7 @@
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="2"/>
@@ -2294,7 +1702,7 @@
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="2"/>
@@ -2316,7 +1724,7 @@
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="2"/>
@@ -2338,7 +1746,7 @@
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="2"/>
@@ -2360,7 +1768,7 @@
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="2"/>
@@ -2382,7 +1790,7 @@
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="2"/>
@@ -2404,7 +1812,7 @@
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="2"/>
@@ -2426,7 +1834,7 @@
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="2"/>
@@ -2448,7 +1856,7 @@
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="2"/>
@@ -2470,7 +1878,7 @@
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="2"/>
@@ -2492,7 +1900,7 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="2"/>
@@ -2514,7 +1922,7 @@
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="2"/>
@@ -2536,7 +1944,7 @@
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="2"/>
@@ -2558,7 +1966,7 @@
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="2"/>
@@ -2580,7 +1988,7 @@
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="2"/>
@@ -2602,7 +2010,7 @@
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="2"/>
@@ -2624,7 +2032,7 @@
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="2"/>
@@ -2646,7 +2054,7 @@
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="2"/>
@@ -2668,7 +2076,7 @@
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="2"/>
@@ -2690,7 +2098,7 @@
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="2"/>
@@ -2712,7 +2120,7 @@
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="2"/>
@@ -2734,7 +2142,7 @@
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="2"/>
@@ -2756,7 +2164,7 @@
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="2"/>
@@ -2778,7 +2186,7 @@
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="2"/>
@@ -2800,7 +2208,7 @@
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="2"/>
@@ -2822,7 +2230,7 @@
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="2"/>
@@ -2844,7 +2252,7 @@
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="2"/>
@@ -2866,7 +2274,7 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="2"/>
@@ -2888,7 +2296,7 @@
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="2"/>
@@ -2910,7 +2318,7 @@
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="2"/>
@@ -2932,7 +2340,7 @@
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="2"/>
@@ -2954,7 +2362,7 @@
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="2"/>
@@ -2976,7 +2384,7 @@
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="2"/>
@@ -2998,7 +2406,7 @@
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="2"/>
@@ -3020,7 +2428,7 @@
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="2"/>
@@ -3042,7 +2450,7 @@
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="2"/>
@@ -3064,7 +2472,7 @@
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="2"/>
@@ -3086,7 +2494,7 @@
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="2"/>
@@ -3108,7 +2516,7 @@
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="2"/>
@@ -3130,7 +2538,7 @@
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="2"/>
@@ -3152,7 +2560,7 @@
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
@@ -3174,7 +2582,7 @@
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="2"/>
@@ -3196,7 +2604,7 @@
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="2"/>
@@ -3218,7 +2626,7 @@
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="2"/>
@@ -3240,7 +2648,7 @@
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="2"/>
@@ -3262,7 +2670,7 @@
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="2"/>
@@ -3284,7 +2692,7 @@
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="2"/>
@@ -3306,7 +2714,7 @@
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="2"/>
@@ -3328,7 +2736,7 @@
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="2"/>
@@ -3350,7 +2758,7 @@
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="2"/>
@@ -3372,7 +2780,7 @@
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="2"/>
@@ -3394,7 +2802,7 @@
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="2"/>
@@ -3416,7 +2824,7 @@
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="2"/>
@@ -3438,7 +2846,7 @@
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="2"/>
@@ -3460,7 +2868,7 @@
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="2"/>
@@ -3482,7 +2890,7 @@
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="2"/>
@@ -3504,7 +2912,7 @@
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="2"/>
@@ -3526,7 +2934,7 @@
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
     </row>
-    <row r="113" spans="1:20">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="2"/>
@@ -3548,7 +2956,7 @@
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
     </row>
-    <row r="114" spans="1:20">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="2"/>
@@ -3570,7 +2978,7 @@
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
     </row>
-    <row r="115" spans="1:20">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="2"/>
@@ -3592,7 +3000,7 @@
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
     </row>
-    <row r="116" spans="1:20">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="2"/>
@@ -3614,7 +3022,7 @@
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
     </row>
-    <row r="117" spans="1:20">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="2"/>
@@ -3636,7 +3044,7 @@
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="2"/>
@@ -3658,7 +3066,7 @@
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
     </row>
-    <row r="119" spans="1:20">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="2"/>
@@ -3680,7 +3088,7 @@
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
     </row>
-    <row r="120" spans="1:20">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="2"/>
@@ -3702,7 +3110,7 @@
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
     </row>
-    <row r="121" spans="1:20">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="2"/>
@@ -3724,7 +3132,7 @@
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
     </row>
-    <row r="122" spans="1:20">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="2"/>
@@ -3746,7 +3154,7 @@
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
     </row>
-    <row r="123" spans="1:20">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="2"/>
@@ -3768,7 +3176,7 @@
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
     </row>
-    <row r="124" spans="1:20">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="2"/>
@@ -3790,7 +3198,7 @@
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
     </row>
-    <row r="125" spans="1:20">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="2"/>
@@ -3812,7 +3220,7 @@
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
     </row>
-    <row r="126" spans="1:20">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="2"/>
@@ -3834,7 +3242,7 @@
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
     </row>
-    <row r="127" spans="1:20">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="2"/>
@@ -3856,7 +3264,7 @@
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
     </row>
-    <row r="128" spans="1:20">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="2"/>
@@ -3878,7 +3286,7 @@
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
     </row>
-    <row r="129" spans="1:20">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="2"/>
@@ -3900,7 +3308,7 @@
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
     </row>
-    <row r="130" spans="1:20">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="2"/>
@@ -3922,7 +3330,7 @@
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
     </row>
-    <row r="131" spans="1:20">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="2"/>
@@ -3944,7 +3352,7 @@
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
     </row>
-    <row r="132" spans="1:20">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="2"/>
@@ -3966,7 +3374,7 @@
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
     </row>
-    <row r="133" spans="1:20">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="2"/>
@@ -3988,7 +3396,7 @@
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
     </row>
-    <row r="134" spans="1:20">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="2"/>
@@ -4010,7 +3418,7 @@
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
     </row>
-    <row r="135" spans="1:20">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="2"/>
@@ -4032,7 +3440,7 @@
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
     </row>
-    <row r="136" spans="1:20">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="2"/>
@@ -4054,7 +3462,7 @@
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="2"/>
@@ -4076,7 +3484,7 @@
       <c r="S137" s="2"/>
       <c r="T137" s="2"/>
     </row>
-    <row r="138" spans="1:20">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="2"/>
@@ -4098,7 +3506,7 @@
       <c r="S138" s="2"/>
       <c r="T138" s="2"/>
     </row>
-    <row r="139" spans="1:20">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="2"/>
@@ -4120,7 +3528,7 @@
       <c r="S139" s="2"/>
       <c r="T139" s="2"/>
     </row>
-    <row r="140" spans="1:20">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="2"/>
@@ -4142,7 +3550,7 @@
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
     </row>
-    <row r="141" spans="1:20">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="2"/>
@@ -4164,7 +3572,7 @@
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
     </row>
-    <row r="142" spans="1:20">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="2"/>
@@ -4186,7 +3594,7 @@
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
     </row>
-    <row r="143" spans="1:20">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="2"/>
@@ -4208,7 +3616,7 @@
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
     </row>
-    <row r="144" spans="1:20">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="2"/>
@@ -4230,7 +3638,7 @@
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
     </row>
-    <row r="145" spans="1:20">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="2"/>
@@ -4252,7 +3660,7 @@
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
     </row>
-    <row r="146" spans="1:20">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="2"/>
@@ -4274,7 +3682,7 @@
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
     </row>
-    <row r="147" spans="1:20">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="2"/>
@@ -4296,7 +3704,7 @@
       <c r="S147" s="2"/>
       <c r="T147" s="2"/>
     </row>
-    <row r="148" spans="1:20">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="2"/>
@@ -4318,7 +3726,7 @@
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
     </row>
-    <row r="149" spans="1:20">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="2"/>
@@ -4340,7 +3748,7 @@
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
     </row>
-    <row r="150" spans="1:20">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="2"/>
@@ -4362,7 +3770,7 @@
       <c r="S150" s="2"/>
       <c r="T150" s="2"/>
     </row>
-    <row r="151" spans="1:20">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="2"/>
@@ -4384,7 +3792,7 @@
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
     </row>
-    <row r="152" spans="1:20">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="2"/>
@@ -4406,7 +3814,7 @@
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
     </row>
-    <row r="153" spans="1:20">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="2"/>
@@ -4428,7 +3836,7 @@
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
     </row>
-    <row r="154" spans="1:20">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="2"/>
@@ -4450,7 +3858,7 @@
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
     </row>
-    <row r="155" spans="1:20">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="2"/>
@@ -4472,7 +3880,7 @@
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
     </row>
-    <row r="156" spans="1:20">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="2"/>
@@ -4494,7 +3902,7 @@
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
     </row>
-    <row r="157" spans="1:20">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="2"/>
@@ -4516,7 +3924,7 @@
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
     </row>
-    <row r="158" spans="1:20">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="2"/>
@@ -4538,7 +3946,7 @@
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
     </row>
-    <row r="159" spans="1:20">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="2"/>
@@ -4560,7 +3968,7 @@
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
     </row>
-    <row r="160" spans="1:20">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="2"/>
@@ -4582,7 +3990,7 @@
       <c r="S160" s="2"/>
       <c r="T160" s="2"/>
     </row>
-    <row r="161" spans="1:20">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="2"/>
@@ -4604,7 +4012,7 @@
       <c r="S161" s="2"/>
       <c r="T161" s="2"/>
     </row>
-    <row r="162" spans="1:20">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="2"/>
@@ -4626,7 +4034,7 @@
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
     </row>
-    <row r="163" spans="1:20">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="2"/>
@@ -4648,7 +4056,7 @@
       <c r="S163" s="2"/>
       <c r="T163" s="2"/>
     </row>
-    <row r="164" spans="1:20">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="2"/>
@@ -4670,7 +4078,7 @@
       <c r="S164" s="2"/>
       <c r="T164" s="2"/>
     </row>
-    <row r="165" spans="1:20">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="2"/>
@@ -4692,7 +4100,7 @@
       <c r="S165" s="2"/>
       <c r="T165" s="2"/>
     </row>
-    <row r="166" spans="1:20">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="2"/>
@@ -4714,7 +4122,7 @@
       <c r="S166" s="2"/>
       <c r="T166" s="2"/>
     </row>
-    <row r="167" spans="1:20">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="2"/>
@@ -4736,7 +4144,7 @@
       <c r="S167" s="2"/>
       <c r="T167" s="2"/>
     </row>
-    <row r="168" spans="1:20">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="2"/>
@@ -4758,7 +4166,7 @@
       <c r="S168" s="2"/>
       <c r="T168" s="2"/>
     </row>
-    <row r="169" spans="1:20">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="2"/>
@@ -4780,7 +4188,7 @@
       <c r="S169" s="2"/>
       <c r="T169" s="2"/>
     </row>
-    <row r="170" spans="1:20">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="2"/>
@@ -4802,7 +4210,7 @@
       <c r="S170" s="2"/>
       <c r="T170" s="2"/>
     </row>
-    <row r="171" spans="1:20">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="2"/>
@@ -4824,7 +4232,7 @@
       <c r="S171" s="2"/>
       <c r="T171" s="2"/>
     </row>
-    <row r="172" spans="1:20">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="2"/>
@@ -4846,7 +4254,7 @@
       <c r="S172" s="2"/>
       <c r="T172" s="2"/>
     </row>
-    <row r="173" spans="1:20">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="2"/>
@@ -4868,7 +4276,7 @@
       <c r="S173" s="2"/>
       <c r="T173" s="2"/>
     </row>
-    <row r="174" spans="1:20">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="2"/>
@@ -4890,7 +4298,7 @@
       <c r="S174" s="2"/>
       <c r="T174" s="2"/>
     </row>
-    <row r="175" spans="1:20">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="2"/>
@@ -4912,7 +4320,7 @@
       <c r="S175" s="2"/>
       <c r="T175" s="2"/>
     </row>
-    <row r="176" spans="1:20">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="2"/>
@@ -4934,7 +4342,7 @@
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
     </row>
-    <row r="177" spans="1:20">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="2"/>
@@ -4956,7 +4364,7 @@
       <c r="S177" s="2"/>
       <c r="T177" s="2"/>
     </row>
-    <row r="178" spans="1:20">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="2"/>
@@ -4978,7 +4386,7 @@
       <c r="S178" s="2"/>
       <c r="T178" s="2"/>
     </row>
-    <row r="179" spans="1:20">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="2"/>
@@ -5000,7 +4408,7 @@
       <c r="S179" s="2"/>
       <c r="T179" s="2"/>
     </row>
-    <row r="180" spans="1:20">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="2"/>
@@ -5022,7 +4430,7 @@
       <c r="S180" s="2"/>
       <c r="T180" s="2"/>
     </row>
-    <row r="181" spans="1:20">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="2"/>
@@ -5044,7 +4452,7 @@
       <c r="S181" s="2"/>
       <c r="T181" s="2"/>
     </row>
-    <row r="182" spans="1:20">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="2"/>
@@ -5066,7 +4474,7 @@
       <c r="S182" s="2"/>
       <c r="T182" s="2"/>
     </row>
-    <row r="183" spans="1:20">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="2"/>
@@ -5088,7 +4496,7 @@
       <c r="S183" s="2"/>
       <c r="T183" s="2"/>
     </row>
-    <row r="184" spans="1:20">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="2"/>
@@ -5110,7 +4518,7 @@
       <c r="S184" s="2"/>
       <c r="T184" s="2"/>
     </row>
-    <row r="185" spans="1:20">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="2"/>
@@ -5132,7 +4540,7 @@
       <c r="S185" s="2"/>
       <c r="T185" s="2"/>
     </row>
-    <row r="186" spans="1:20">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="2"/>
@@ -5154,7 +4562,7 @@
       <c r="S186" s="2"/>
       <c r="T186" s="2"/>
     </row>
-    <row r="187" spans="1:20">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="2"/>
@@ -5176,7 +4584,7 @@
       <c r="S187" s="2"/>
       <c r="T187" s="2"/>
     </row>
-    <row r="188" spans="1:20">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="2"/>
@@ -5198,7 +4606,7 @@
       <c r="S188" s="2"/>
       <c r="T188" s="2"/>
     </row>
-    <row r="189" spans="1:20">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="2"/>
@@ -5220,7 +4628,7 @@
       <c r="S189" s="2"/>
       <c r="T189" s="2"/>
     </row>
-    <row r="190" spans="1:20">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="2"/>
@@ -5242,7 +4650,7 @@
       <c r="S190" s="2"/>
       <c r="T190" s="2"/>
     </row>
-    <row r="191" spans="1:20">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="2"/>
@@ -5264,7 +4672,7 @@
       <c r="S191" s="2"/>
       <c r="T191" s="2"/>
     </row>
-    <row r="192" spans="1:20">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="2"/>
@@ -5286,7 +4694,7 @@
       <c r="S192" s="2"/>
       <c r="T192" s="2"/>
     </row>
-    <row r="193" spans="1:20">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="2"/>
@@ -5308,7 +4716,7 @@
       <c r="S193" s="2"/>
       <c r="T193" s="2"/>
     </row>
-    <row r="194" spans="1:20">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="2"/>
@@ -5330,7 +4738,7 @@
       <c r="S194" s="2"/>
       <c r="T194" s="2"/>
     </row>
-    <row r="195" spans="1:20">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="2"/>
@@ -5352,7 +4760,7 @@
       <c r="S195" s="2"/>
       <c r="T195" s="2"/>
     </row>
-    <row r="196" spans="1:20">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="2"/>
@@ -5374,7 +4782,7 @@
       <c r="S196" s="2"/>
       <c r="T196" s="2"/>
     </row>
-    <row r="197" spans="1:20">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="2"/>
@@ -5396,7 +4804,7 @@
       <c r="S197" s="2"/>
       <c r="T197" s="2"/>
     </row>
-    <row r="198" spans="1:20">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="2"/>
@@ -5418,7 +4826,7 @@
       <c r="S198" s="2"/>
       <c r="T198" s="2"/>
     </row>
-    <row r="199" spans="1:20">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="2"/>
@@ -5440,7 +4848,7 @@
       <c r="S199" s="2"/>
       <c r="T199" s="2"/>
     </row>
-    <row r="200" spans="1:20">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="2"/>
@@ -5463,7 +4871,7 @@
       <c r="T200" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/许愿墙.xlsx
+++ b/src/main/resources/许愿墙.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\yjs\workspace\get_jobs\get_jobs\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C380D74-7246-4C7E-BCC4-D13D35F92B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="16800" windowHeight="8664"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>你想找什么样的工作？</t>
   </si>
@@ -49,18 +42,20 @@
   <si>
     <t>AI agent开发</t>
   </si>
+  <si>
+    <t>C++实习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在找</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -76,158 +71,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,194 +98,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -450,253 +122,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -709,62 +139,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1022,27 +411,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:T200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1068,7 +458,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1094,7 +484,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1120,7 +510,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1146,7 +536,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1172,9 +562,13 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1194,7 +588,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
@@ -1216,7 +610,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
@@ -1238,7 +632,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
@@ -1260,7 +654,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
@@ -1282,7 +676,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
@@ -1304,7 +698,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
@@ -1326,7 +720,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
@@ -1348,7 +742,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
@@ -1370,7 +764,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
@@ -1392,7 +786,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
@@ -1414,7 +808,7 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2"/>
@@ -1436,7 +830,7 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
@@ -1458,7 +852,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
@@ -1480,7 +874,7 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="2"/>
@@ -1502,7 +896,7 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="2"/>
@@ -1524,7 +918,7 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="2"/>
@@ -1546,7 +940,7 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="2"/>
@@ -1568,7 +962,7 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="2"/>
@@ -1590,7 +984,7 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="2"/>
@@ -1612,7 +1006,7 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="2"/>
@@ -1634,7 +1028,7 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="2"/>
@@ -1656,7 +1050,7 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="2"/>
@@ -1678,7 +1072,7 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="2"/>
@@ -1700,7 +1094,7 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="2"/>
@@ -1722,7 +1116,7 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="2"/>
@@ -1744,7 +1138,7 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="2"/>
@@ -1766,7 +1160,7 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="2"/>
@@ -1788,7 +1182,7 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="2"/>
@@ -1810,7 +1204,7 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="2"/>
@@ -1832,7 +1226,7 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="2"/>
@@ -1854,7 +1248,7 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="2"/>
@@ -1876,7 +1270,7 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="2"/>
@@ -1898,7 +1292,7 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="2"/>
@@ -1920,7 +1314,7 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="2"/>
@@ -1942,7 +1336,7 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="2"/>
@@ -1964,7 +1358,7 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="2"/>
@@ -1986,7 +1380,7 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="2"/>
@@ -2008,7 +1402,7 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="2"/>
@@ -2030,7 +1424,7 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="2"/>
@@ -2052,7 +1446,7 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="2"/>
@@ -2074,7 +1468,7 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="2"/>
@@ -2096,7 +1490,7 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="2"/>
@@ -2118,7 +1512,7 @@
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="2"/>
@@ -2140,7 +1534,7 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="2"/>
@@ -2162,7 +1556,7 @@
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="2"/>
@@ -2184,7 +1578,7 @@
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="2"/>
@@ -2206,7 +1600,7 @@
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="2"/>
@@ -2228,7 +1622,7 @@
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="2"/>
@@ -2250,7 +1644,7 @@
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="2"/>
@@ -2272,7 +1666,7 @@
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="2"/>
@@ -2294,7 +1688,7 @@
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="2"/>
@@ -2316,7 +1710,7 @@
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="2"/>
@@ -2338,7 +1732,7 @@
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="2"/>
@@ -2360,7 +1754,7 @@
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="2"/>
@@ -2382,7 +1776,7 @@
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="2"/>
@@ -2404,7 +1798,7 @@
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="2"/>
@@ -2426,7 +1820,7 @@
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="2"/>
@@ -2448,7 +1842,7 @@
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="2"/>
@@ -2470,7 +1864,7 @@
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="2"/>
@@ -2492,7 +1886,7 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="2"/>
@@ -2514,7 +1908,7 @@
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="2"/>
@@ -2536,7 +1930,7 @@
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="2"/>
@@ -2558,7 +1952,7 @@
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="2"/>
@@ -2580,7 +1974,7 @@
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="2"/>
@@ -2602,7 +1996,7 @@
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="2"/>
@@ -2624,7 +2018,7 @@
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="2"/>
@@ -2646,7 +2040,7 @@
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="2"/>
@@ -2668,7 +2062,7 @@
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="2"/>
@@ -2690,7 +2084,7 @@
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="2"/>
@@ -2712,7 +2106,7 @@
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="2"/>
@@ -2734,7 +2128,7 @@
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="2"/>
@@ -2756,7 +2150,7 @@
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="2"/>
@@ -2778,7 +2172,7 @@
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="2"/>
@@ -2800,7 +2194,7 @@
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="2"/>
@@ -2822,7 +2216,7 @@
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="2"/>
@@ -2844,7 +2238,7 @@
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="2"/>
@@ -2866,7 +2260,7 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="2"/>
@@ -2888,7 +2282,7 @@
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="2"/>
@@ -2910,7 +2304,7 @@
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="2"/>
@@ -2932,7 +2326,7 @@
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="2"/>
@@ -2954,7 +2348,7 @@
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="2"/>
@@ -2976,7 +2370,7 @@
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="2"/>
@@ -2998,7 +2392,7 @@
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="2"/>
@@ -3020,7 +2414,7 @@
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="2"/>
@@ -3042,7 +2436,7 @@
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="2"/>
@@ -3064,7 +2458,7 @@
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="2"/>
@@ -3086,7 +2480,7 @@
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="2"/>
@@ -3108,7 +2502,7 @@
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="2"/>
@@ -3130,7 +2524,7 @@
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="2"/>
@@ -3152,7 +2546,7 @@
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
@@ -3174,7 +2568,7 @@
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="2"/>
@@ -3196,7 +2590,7 @@
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="2"/>
@@ -3218,7 +2612,7 @@
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="2"/>
@@ -3240,7 +2634,7 @@
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="2"/>
@@ -3262,7 +2656,7 @@
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="2"/>
@@ -3284,7 +2678,7 @@
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="2"/>
@@ -3306,7 +2700,7 @@
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="2"/>
@@ -3328,7 +2722,7 @@
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="2"/>
@@ -3350,7 +2744,7 @@
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="2"/>
@@ -3372,7 +2766,7 @@
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="2"/>
@@ -3394,7 +2788,7 @@
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="2"/>
@@ -3416,7 +2810,7 @@
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="2"/>
@@ -3438,7 +2832,7 @@
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="2"/>
@@ -3460,7 +2854,7 @@
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="2"/>
@@ -3482,7 +2876,7 @@
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="2"/>
@@ -3504,7 +2898,7 @@
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="2"/>
@@ -3526,7 +2920,7 @@
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
     </row>
-    <row r="113" spans="1:20">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="2"/>
@@ -3548,7 +2942,7 @@
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
     </row>
-    <row r="114" spans="1:20">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="2"/>
@@ -3570,7 +2964,7 @@
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
     </row>
-    <row r="115" spans="1:20">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="2"/>
@@ -3592,7 +2986,7 @@
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
     </row>
-    <row r="116" spans="1:20">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="2"/>
@@ -3614,7 +3008,7 @@
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
     </row>
-    <row r="117" spans="1:20">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="2"/>
@@ -3636,7 +3030,7 @@
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="2"/>
@@ -3658,7 +3052,7 @@
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
     </row>
-    <row r="119" spans="1:20">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="2"/>
@@ -3680,7 +3074,7 @@
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
     </row>
-    <row r="120" spans="1:20">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="2"/>
@@ -3702,7 +3096,7 @@
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
     </row>
-    <row r="121" spans="1:20">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="2"/>
@@ -3724,7 +3118,7 @@
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
     </row>
-    <row r="122" spans="1:20">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="2"/>
@@ -3746,7 +3140,7 @@
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
     </row>
-    <row r="123" spans="1:20">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="2"/>
@@ -3768,7 +3162,7 @@
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
     </row>
-    <row r="124" spans="1:20">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="2"/>
@@ -3790,7 +3184,7 @@
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
     </row>
-    <row r="125" spans="1:20">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="2"/>
@@ -3812,7 +3206,7 @@
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
     </row>
-    <row r="126" spans="1:20">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="2"/>
@@ -3834,7 +3228,7 @@
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
     </row>
-    <row r="127" spans="1:20">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="2"/>
@@ -3856,7 +3250,7 @@
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
     </row>
-    <row r="128" spans="1:20">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="2"/>
@@ -3878,7 +3272,7 @@
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
     </row>
-    <row r="129" spans="1:20">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="2"/>
@@ -3900,7 +3294,7 @@
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
     </row>
-    <row r="130" spans="1:20">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="2"/>
@@ -3922,7 +3316,7 @@
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
     </row>
-    <row r="131" spans="1:20">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="2"/>
@@ -3944,7 +3338,7 @@
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
     </row>
-    <row r="132" spans="1:20">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="2"/>
@@ -3966,7 +3360,7 @@
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
     </row>
-    <row r="133" spans="1:20">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="2"/>
@@ -3988,7 +3382,7 @@
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
     </row>
-    <row r="134" spans="1:20">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="2"/>
@@ -4010,7 +3404,7 @@
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
     </row>
-    <row r="135" spans="1:20">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="2"/>
@@ -4032,7 +3426,7 @@
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
     </row>
-    <row r="136" spans="1:20">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="2"/>
@@ -4054,7 +3448,7 @@
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="2"/>
@@ -4076,7 +3470,7 @@
       <c r="S137" s="2"/>
       <c r="T137" s="2"/>
     </row>
-    <row r="138" spans="1:20">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="2"/>
@@ -4098,7 +3492,7 @@
       <c r="S138" s="2"/>
       <c r="T138" s="2"/>
     </row>
-    <row r="139" spans="1:20">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="2"/>
@@ -4120,7 +3514,7 @@
       <c r="S139" s="2"/>
       <c r="T139" s="2"/>
     </row>
-    <row r="140" spans="1:20">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="2"/>
@@ -4142,7 +3536,7 @@
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
     </row>
-    <row r="141" spans="1:20">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="2"/>
@@ -4164,7 +3558,7 @@
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
     </row>
-    <row r="142" spans="1:20">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="2"/>
@@ -4186,7 +3580,7 @@
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
     </row>
-    <row r="143" spans="1:20">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="2"/>
@@ -4208,7 +3602,7 @@
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
     </row>
-    <row r="144" spans="1:20">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="2"/>
@@ -4230,7 +3624,7 @@
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
     </row>
-    <row r="145" spans="1:20">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="2"/>
@@ -4252,7 +3646,7 @@
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
     </row>
-    <row r="146" spans="1:20">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="2"/>
@@ -4274,7 +3668,7 @@
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
     </row>
-    <row r="147" spans="1:20">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="2"/>
@@ -4296,7 +3690,7 @@
       <c r="S147" s="2"/>
       <c r="T147" s="2"/>
     </row>
-    <row r="148" spans="1:20">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="2"/>
@@ -4318,7 +3712,7 @@
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
     </row>
-    <row r="149" spans="1:20">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="2"/>
@@ -4340,7 +3734,7 @@
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
     </row>
-    <row r="150" spans="1:20">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="2"/>
@@ -4362,7 +3756,7 @@
       <c r="S150" s="2"/>
       <c r="T150" s="2"/>
     </row>
-    <row r="151" spans="1:20">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="2"/>
@@ -4384,7 +3778,7 @@
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
     </row>
-    <row r="152" spans="1:20">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="2"/>
@@ -4406,7 +3800,7 @@
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
     </row>
-    <row r="153" spans="1:20">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="2"/>
@@ -4428,7 +3822,7 @@
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
     </row>
-    <row r="154" spans="1:20">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="2"/>
@@ -4450,7 +3844,7 @@
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
     </row>
-    <row r="155" spans="1:20">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="2"/>
@@ -4472,7 +3866,7 @@
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
     </row>
-    <row r="156" spans="1:20">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="2"/>
@@ -4494,7 +3888,7 @@
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
     </row>
-    <row r="157" spans="1:20">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="2"/>
@@ -4516,7 +3910,7 @@
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
     </row>
-    <row r="158" spans="1:20">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="2"/>
@@ -4538,7 +3932,7 @@
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
     </row>
-    <row r="159" spans="1:20">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="2"/>
@@ -4560,7 +3954,7 @@
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
     </row>
-    <row r="160" spans="1:20">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="2"/>
@@ -4582,7 +3976,7 @@
       <c r="S160" s="2"/>
       <c r="T160" s="2"/>
     </row>
-    <row r="161" spans="1:20">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="2"/>
@@ -4604,7 +3998,7 @@
       <c r="S161" s="2"/>
       <c r="T161" s="2"/>
     </row>
-    <row r="162" spans="1:20">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="2"/>
@@ -4626,7 +4020,7 @@
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
     </row>
-    <row r="163" spans="1:20">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="2"/>
@@ -4648,7 +4042,7 @@
       <c r="S163" s="2"/>
       <c r="T163" s="2"/>
     </row>
-    <row r="164" spans="1:20">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="2"/>
@@ -4670,7 +4064,7 @@
       <c r="S164" s="2"/>
       <c r="T164" s="2"/>
     </row>
-    <row r="165" spans="1:20">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="2"/>
@@ -4692,7 +4086,7 @@
       <c r="S165" s="2"/>
       <c r="T165" s="2"/>
     </row>
-    <row r="166" spans="1:20">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="2"/>
@@ -4714,7 +4108,7 @@
       <c r="S166" s="2"/>
       <c r="T166" s="2"/>
     </row>
-    <row r="167" spans="1:20">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="2"/>
@@ -4736,7 +4130,7 @@
       <c r="S167" s="2"/>
       <c r="T167" s="2"/>
     </row>
-    <row r="168" spans="1:20">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="2"/>
@@ -4758,7 +4152,7 @@
       <c r="S168" s="2"/>
       <c r="T168" s="2"/>
     </row>
-    <row r="169" spans="1:20">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="2"/>
@@ -4780,7 +4174,7 @@
       <c r="S169" s="2"/>
       <c r="T169" s="2"/>
     </row>
-    <row r="170" spans="1:20">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="2"/>
@@ -4802,7 +4196,7 @@
       <c r="S170" s="2"/>
       <c r="T170" s="2"/>
     </row>
-    <row r="171" spans="1:20">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="2"/>
@@ -4824,7 +4218,7 @@
       <c r="S171" s="2"/>
       <c r="T171" s="2"/>
     </row>
-    <row r="172" spans="1:20">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="2"/>
@@ -4846,7 +4240,7 @@
       <c r="S172" s="2"/>
       <c r="T172" s="2"/>
     </row>
-    <row r="173" spans="1:20">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="2"/>
@@ -4868,7 +4262,7 @@
       <c r="S173" s="2"/>
       <c r="T173" s="2"/>
     </row>
-    <row r="174" spans="1:20">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="2"/>
@@ -4890,7 +4284,7 @@
       <c r="S174" s="2"/>
       <c r="T174" s="2"/>
     </row>
-    <row r="175" spans="1:20">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="2"/>
@@ -4912,7 +4306,7 @@
       <c r="S175" s="2"/>
       <c r="T175" s="2"/>
     </row>
-    <row r="176" spans="1:20">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="2"/>
@@ -4934,7 +4328,7 @@
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
     </row>
-    <row r="177" spans="1:20">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="2"/>
@@ -4956,7 +4350,7 @@
       <c r="S177" s="2"/>
       <c r="T177" s="2"/>
     </row>
-    <row r="178" spans="1:20">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="2"/>
@@ -4978,7 +4372,7 @@
       <c r="S178" s="2"/>
       <c r="T178" s="2"/>
     </row>
-    <row r="179" spans="1:20">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="2"/>
@@ -5000,7 +4394,7 @@
       <c r="S179" s="2"/>
       <c r="T179" s="2"/>
     </row>
-    <row r="180" spans="1:20">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="2"/>
@@ -5022,7 +4416,7 @@
       <c r="S180" s="2"/>
       <c r="T180" s="2"/>
     </row>
-    <row r="181" spans="1:20">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="2"/>
@@ -5044,7 +4438,7 @@
       <c r="S181" s="2"/>
       <c r="T181" s="2"/>
     </row>
-    <row r="182" spans="1:20">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="2"/>
@@ -5066,7 +4460,7 @@
       <c r="S182" s="2"/>
       <c r="T182" s="2"/>
     </row>
-    <row r="183" spans="1:20">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="2"/>
@@ -5088,7 +4482,7 @@
       <c r="S183" s="2"/>
       <c r="T183" s="2"/>
     </row>
-    <row r="184" spans="1:20">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="2"/>
@@ -5110,7 +4504,7 @@
       <c r="S184" s="2"/>
       <c r="T184" s="2"/>
     </row>
-    <row r="185" spans="1:20">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="2"/>
@@ -5132,7 +4526,7 @@
       <c r="S185" s="2"/>
       <c r="T185" s="2"/>
     </row>
-    <row r="186" spans="1:20">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="2"/>
@@ -5154,7 +4548,7 @@
       <c r="S186" s="2"/>
       <c r="T186" s="2"/>
     </row>
-    <row r="187" spans="1:20">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="2"/>
@@ -5176,7 +4570,7 @@
       <c r="S187" s="2"/>
       <c r="T187" s="2"/>
     </row>
-    <row r="188" spans="1:20">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="2"/>
@@ -5198,7 +4592,7 @@
       <c r="S188" s="2"/>
       <c r="T188" s="2"/>
     </row>
-    <row r="189" spans="1:20">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="2"/>
@@ -5220,7 +4614,7 @@
       <c r="S189" s="2"/>
       <c r="T189" s="2"/>
     </row>
-    <row r="190" spans="1:20">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="2"/>
@@ -5242,7 +4636,7 @@
       <c r="S190" s="2"/>
       <c r="T190" s="2"/>
     </row>
-    <row r="191" spans="1:20">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="2"/>
@@ -5264,7 +4658,7 @@
       <c r="S191" s="2"/>
       <c r="T191" s="2"/>
     </row>
-    <row r="192" spans="1:20">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="2"/>
@@ -5286,7 +4680,7 @@
       <c r="S192" s="2"/>
       <c r="T192" s="2"/>
     </row>
-    <row r="193" spans="1:20">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="2"/>
@@ -5308,7 +4702,7 @@
       <c r="S193" s="2"/>
       <c r="T193" s="2"/>
     </row>
-    <row r="194" spans="1:20">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="2"/>
@@ -5330,7 +4724,7 @@
       <c r="S194" s="2"/>
       <c r="T194" s="2"/>
     </row>
-    <row r="195" spans="1:20">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="2"/>
@@ -5352,7 +4746,7 @@
       <c r="S195" s="2"/>
       <c r="T195" s="2"/>
     </row>
-    <row r="196" spans="1:20">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="2"/>
@@ -5374,7 +4768,7 @@
       <c r="S196" s="2"/>
       <c r="T196" s="2"/>
     </row>
-    <row r="197" spans="1:20">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="2"/>
@@ -5396,7 +4790,7 @@
       <c r="S197" s="2"/>
       <c r="T197" s="2"/>
     </row>
-    <row r="198" spans="1:20">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="2"/>
@@ -5418,7 +4812,7 @@
       <c r="S198" s="2"/>
       <c r="T198" s="2"/>
     </row>
-    <row r="199" spans="1:20">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="2"/>
@@ -5440,7 +4834,7 @@
       <c r="S199" s="2"/>
       <c r="T199" s="2"/>
     </row>
-    <row r="200" spans="1:20">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="2"/>
@@ -5463,7 +4857,8 @@
       <c r="T200" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/许愿墙.xlsx
+++ b/src/main/resources/许愿墙.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16800" windowHeight="8664"/>
+    <workbookView windowWidth="30720" windowHeight="12900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>你想找什么样的工作？</t>
   </si>
@@ -49,6 +49,33 @@
   <si>
     <t>AI agent开发</t>
   </si>
+  <si>
+    <t>Java实习</t>
+  </si>
+  <si>
+    <t>还没开始找</t>
+  </si>
+  <si>
+    <t>系统架构师</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>前端攻城狮</t>
+  </si>
+  <si>
+    <t>AI+游戏开发</t>
+  </si>
+  <si>
+    <t>C++实习</t>
+  </si>
+  <si>
+    <t>后端开发</t>
+  </si>
+  <si>
+    <t>正确的路上</t>
+  </si>
 </sst>
 </file>
 
@@ -60,13 +87,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9.75"/>
@@ -551,31 +584,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,129 +614,135 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1033,7 +1069,7 @@
   <dimension ref="A1:T200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2"/>
@@ -1148,10 +1184,10 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1173,8 +1209,12 @@
       <c r="T5" s="2"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1195,8 +1235,12 @@
       <c r="T6" s="2"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1217,8 +1261,12 @@
       <c r="T7" s="2"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1239,8 +1287,12 @@
       <c r="T8" s="2"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1261,8 +1313,12 @@
       <c r="T9" s="2"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1283,8 +1339,12 @@
       <c r="T10" s="2"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1305,8 +1365,8 @@
       <c r="T11" s="2"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1327,8 +1387,8 @@
       <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1349,8 +1409,8 @@
       <c r="T13" s="2"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1371,8 +1431,8 @@
       <c r="T14" s="2"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1393,8 +1453,8 @@
       <c r="T15" s="2"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1415,8 +1475,8 @@
       <c r="T16" s="2"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1437,8 +1497,8 @@
       <c r="T17" s="2"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1459,8 +1519,8 @@
       <c r="T18" s="2"/>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1481,8 +1541,8 @@
       <c r="T19" s="2"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1503,8 +1563,8 @@
       <c r="T20" s="2"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1525,8 +1585,8 @@
       <c r="T21" s="2"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1547,8 +1607,8 @@
       <c r="T22" s="2"/>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1569,8 +1629,8 @@
       <c r="T23" s="2"/>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1591,8 +1651,8 @@
       <c r="T24" s="2"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1613,8 +1673,8 @@
       <c r="T25" s="2"/>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1635,8 +1695,8 @@
       <c r="T26" s="2"/>
     </row>
     <row r="27" spans="1:20">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1657,8 +1717,8 @@
       <c r="T27" s="2"/>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1679,8 +1739,8 @@
       <c r="T28" s="2"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1701,8 +1761,8 @@
       <c r="T29" s="2"/>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1723,8 +1783,8 @@
       <c r="T30" s="2"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1745,8 +1805,8 @@
       <c r="T31" s="2"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1767,8 +1827,8 @@
       <c r="T32" s="2"/>
     </row>
     <row r="33" spans="1:20">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1789,8 +1849,8 @@
       <c r="T33" s="2"/>
     </row>
     <row r="34" spans="1:20">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1811,8 +1871,8 @@
       <c r="T34" s="2"/>
     </row>
     <row r="35" spans="1:20">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1833,8 +1893,8 @@
       <c r="T35" s="2"/>
     </row>
     <row r="36" spans="1:20">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1855,8 +1915,8 @@
       <c r="T36" s="2"/>
     </row>
     <row r="37" spans="1:20">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1877,8 +1937,8 @@
       <c r="T37" s="2"/>
     </row>
     <row r="38" spans="1:20">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1899,8 +1959,8 @@
       <c r="T38" s="2"/>
     </row>
     <row r="39" spans="1:20">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -1921,8 +1981,8 @@
       <c r="T39" s="2"/>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -1943,8 +2003,8 @@
       <c r="T40" s="2"/>
     </row>
     <row r="41" spans="1:20">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1965,8 +2025,8 @@
       <c r="T41" s="2"/>
     </row>
     <row r="42" spans="1:20">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -1987,8 +2047,8 @@
       <c r="T42" s="2"/>
     </row>
     <row r="43" spans="1:20">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -2009,8 +2069,8 @@
       <c r="T43" s="2"/>
     </row>
     <row r="44" spans="1:20">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -2031,8 +2091,8 @@
       <c r="T44" s="2"/>
     </row>
     <row r="45" spans="1:20">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -2053,8 +2113,8 @@
       <c r="T45" s="2"/>
     </row>
     <row r="46" spans="1:20">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -2075,8 +2135,8 @@
       <c r="T46" s="2"/>
     </row>
     <row r="47" spans="1:20">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -2097,8 +2157,8 @@
       <c r="T47" s="2"/>
     </row>
     <row r="48" spans="1:20">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -2119,8 +2179,8 @@
       <c r="T48" s="2"/>
     </row>
     <row r="49" spans="1:20">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -2141,8 +2201,8 @@
       <c r="T49" s="2"/>
     </row>
     <row r="50" spans="1:20">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -2163,8 +2223,8 @@
       <c r="T50" s="2"/>
     </row>
     <row r="51" spans="1:20">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -2185,8 +2245,8 @@
       <c r="T51" s="2"/>
     </row>
     <row r="52" spans="1:20">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -2207,8 +2267,8 @@
       <c r="T52" s="2"/>
     </row>
     <row r="53" spans="1:20">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -2229,8 +2289,8 @@
       <c r="T53" s="2"/>
     </row>
     <row r="54" spans="1:20">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -2251,8 +2311,8 @@
       <c r="T54" s="2"/>
     </row>
     <row r="55" spans="1:20">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -2273,8 +2333,8 @@
       <c r="T55" s="2"/>
     </row>
     <row r="56" spans="1:20">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -2295,8 +2355,8 @@
       <c r="T56" s="2"/>
     </row>
     <row r="57" spans="1:20">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -2317,8 +2377,8 @@
       <c r="T57" s="2"/>
     </row>
     <row r="58" spans="1:20">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -2339,8 +2399,8 @@
       <c r="T58" s="2"/>
     </row>
     <row r="59" spans="1:20">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -2361,8 +2421,8 @@
       <c r="T59" s="2"/>
     </row>
     <row r="60" spans="1:20">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -2383,8 +2443,8 @@
       <c r="T60" s="2"/>
     </row>
     <row r="61" spans="1:20">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -2405,8 +2465,8 @@
       <c r="T61" s="2"/>
     </row>
     <row r="62" spans="1:20">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -2427,8 +2487,8 @@
       <c r="T62" s="2"/>
     </row>
     <row r="63" spans="1:20">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -2449,8 +2509,8 @@
       <c r="T63" s="2"/>
     </row>
     <row r="64" spans="1:20">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -2471,8 +2531,8 @@
       <c r="T64" s="2"/>
     </row>
     <row r="65" spans="1:20">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -2493,8 +2553,8 @@
       <c r="T65" s="2"/>
     </row>
     <row r="66" spans="1:20">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -2515,8 +2575,8 @@
       <c r="T66" s="2"/>
     </row>
     <row r="67" spans="1:20">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -2537,8 +2597,8 @@
       <c r="T67" s="2"/>
     </row>
     <row r="68" spans="1:20">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -2559,8 +2619,8 @@
       <c r="T68" s="2"/>
     </row>
     <row r="69" spans="1:20">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -2581,8 +2641,8 @@
       <c r="T69" s="2"/>
     </row>
     <row r="70" spans="1:20">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -2603,8 +2663,8 @@
       <c r="T70" s="2"/>
     </row>
     <row r="71" spans="1:20">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -2625,8 +2685,8 @@
       <c r="T71" s="2"/>
     </row>
     <row r="72" spans="1:20">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -2647,8 +2707,8 @@
       <c r="T72" s="2"/>
     </row>
     <row r="73" spans="1:20">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -2669,8 +2729,8 @@
       <c r="T73" s="2"/>
     </row>
     <row r="74" spans="1:20">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -2691,8 +2751,8 @@
       <c r="T74" s="2"/>
     </row>
     <row r="75" spans="1:20">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -2713,8 +2773,8 @@
       <c r="T75" s="2"/>
     </row>
     <row r="76" spans="1:20">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -2735,8 +2795,8 @@
       <c r="T76" s="2"/>
     </row>
     <row r="77" spans="1:20">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -2757,8 +2817,8 @@
       <c r="T77" s="2"/>
     </row>
     <row r="78" spans="1:20">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -2779,8 +2839,8 @@
       <c r="T78" s="2"/>
     </row>
     <row r="79" spans="1:20">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -2801,8 +2861,8 @@
       <c r="T79" s="2"/>
     </row>
     <row r="80" spans="1:20">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -2823,8 +2883,8 @@
       <c r="T80" s="2"/>
     </row>
     <row r="81" spans="1:20">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -2845,8 +2905,8 @@
       <c r="T81" s="2"/>
     </row>
     <row r="82" spans="1:20">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -2867,8 +2927,8 @@
       <c r="T82" s="2"/>
     </row>
     <row r="83" spans="1:20">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -2889,8 +2949,8 @@
       <c r="T83" s="2"/>
     </row>
     <row r="84" spans="1:20">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -2911,8 +2971,8 @@
       <c r="T84" s="2"/>
     </row>
     <row r="85" spans="1:20">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -2933,8 +2993,8 @@
       <c r="T85" s="2"/>
     </row>
     <row r="86" spans="1:20">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -2955,8 +3015,8 @@
       <c r="T86" s="2"/>
     </row>
     <row r="87" spans="1:20">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -2977,8 +3037,8 @@
       <c r="T87" s="2"/>
     </row>
     <row r="88" spans="1:20">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -2999,8 +3059,8 @@
       <c r="T88" s="2"/>
     </row>
     <row r="89" spans="1:20">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -3021,8 +3081,8 @@
       <c r="T89" s="2"/>
     </row>
     <row r="90" spans="1:20">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -3043,8 +3103,8 @@
       <c r="T90" s="2"/>
     </row>
     <row r="91" spans="1:20">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -3065,8 +3125,8 @@
       <c r="T91" s="2"/>
     </row>
     <row r="92" spans="1:20">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -3087,8 +3147,8 @@
       <c r="T92" s="2"/>
     </row>
     <row r="93" spans="1:20">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -3109,8 +3169,8 @@
       <c r="T93" s="2"/>
     </row>
     <row r="94" spans="1:20">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -3131,8 +3191,8 @@
       <c r="T94" s="2"/>
     </row>
     <row r="95" spans="1:20">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -3153,8 +3213,8 @@
       <c r="T95" s="2"/>
     </row>
     <row r="96" spans="1:20">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -3175,8 +3235,8 @@
       <c r="T96" s="2"/>
     </row>
     <row r="97" spans="1:20">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -3197,8 +3257,8 @@
       <c r="T97" s="2"/>
     </row>
     <row r="98" spans="1:20">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -3219,8 +3279,8 @@
       <c r="T98" s="2"/>
     </row>
     <row r="99" spans="1:20">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -3241,8 +3301,8 @@
       <c r="T99" s="2"/>
     </row>
     <row r="100" spans="1:20">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -3263,8 +3323,8 @@
       <c r="T100" s="2"/>
     </row>
     <row r="101" spans="1:20">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -3285,8 +3345,8 @@
       <c r="T101" s="2"/>
     </row>
     <row r="102" spans="1:20">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -3307,8 +3367,8 @@
       <c r="T102" s="2"/>
     </row>
     <row r="103" spans="1:20">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -3329,8 +3389,8 @@
       <c r="T103" s="2"/>
     </row>
     <row r="104" spans="1:20">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -3351,8 +3411,8 @@
       <c r="T104" s="2"/>
     </row>
     <row r="105" spans="1:20">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -3373,8 +3433,8 @@
       <c r="T105" s="2"/>
     </row>
     <row r="106" spans="1:20">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -3395,8 +3455,8 @@
       <c r="T106" s="2"/>
     </row>
     <row r="107" spans="1:20">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -3417,8 +3477,8 @@
       <c r="T107" s="2"/>
     </row>
     <row r="108" spans="1:20">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -3439,8 +3499,8 @@
       <c r="T108" s="2"/>
     </row>
     <row r="109" spans="1:20">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -3461,8 +3521,8 @@
       <c r="T109" s="2"/>
     </row>
     <row r="110" spans="1:20">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -3483,8 +3543,8 @@
       <c r="T110" s="2"/>
     </row>
     <row r="111" spans="1:20">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -3505,8 +3565,8 @@
       <c r="T111" s="2"/>
     </row>
     <row r="112" spans="1:20">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -3527,8 +3587,8 @@
       <c r="T112" s="2"/>
     </row>
     <row r="113" spans="1:20">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -3549,8 +3609,8 @@
       <c r="T113" s="2"/>
     </row>
     <row r="114" spans="1:20">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -3571,8 +3631,8 @@
       <c r="T114" s="2"/>
     </row>
     <row r="115" spans="1:20">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -3593,8 +3653,8 @@
       <c r="T115" s="2"/>
     </row>
     <row r="116" spans="1:20">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -3615,8 +3675,8 @@
       <c r="T116" s="2"/>
     </row>
     <row r="117" spans="1:20">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -3637,8 +3697,8 @@
       <c r="T117" s="2"/>
     </row>
     <row r="118" spans="1:20">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -3659,8 +3719,8 @@
       <c r="T118" s="2"/>
     </row>
     <row r="119" spans="1:20">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -3681,8 +3741,8 @@
       <c r="T119" s="2"/>
     </row>
     <row r="120" spans="1:20">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -3703,8 +3763,8 @@
       <c r="T120" s="2"/>
     </row>
     <row r="121" spans="1:20">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -3725,8 +3785,8 @@
       <c r="T121" s="2"/>
     </row>
     <row r="122" spans="1:20">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -3747,8 +3807,8 @@
       <c r="T122" s="2"/>
     </row>
     <row r="123" spans="1:20">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -3769,8 +3829,8 @@
       <c r="T123" s="2"/>
     </row>
     <row r="124" spans="1:20">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -3791,8 +3851,8 @@
       <c r="T124" s="2"/>
     </row>
     <row r="125" spans="1:20">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -3813,8 +3873,8 @@
       <c r="T125" s="2"/>
     </row>
     <row r="126" spans="1:20">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -3835,8 +3895,8 @@
       <c r="T126" s="2"/>
     </row>
     <row r="127" spans="1:20">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -3857,8 +3917,8 @@
       <c r="T127" s="2"/>
     </row>
     <row r="128" spans="1:20">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -3879,8 +3939,8 @@
       <c r="T128" s="2"/>
     </row>
     <row r="129" spans="1:20">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -3901,8 +3961,8 @@
       <c r="T129" s="2"/>
     </row>
     <row r="130" spans="1:20">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -3923,8 +3983,8 @@
       <c r="T130" s="2"/>
     </row>
     <row r="131" spans="1:20">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -3945,8 +4005,8 @@
       <c r="T131" s="2"/>
     </row>
     <row r="132" spans="1:20">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -3967,8 +4027,8 @@
       <c r="T132" s="2"/>
     </row>
     <row r="133" spans="1:20">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -3989,8 +4049,8 @@
       <c r="T133" s="2"/>
     </row>
     <row r="134" spans="1:20">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -4011,8 +4071,8 @@
       <c r="T134" s="2"/>
     </row>
     <row r="135" spans="1:20">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -4033,8 +4093,8 @@
       <c r="T135" s="2"/>
     </row>
     <row r="136" spans="1:20">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -4055,8 +4115,8 @@
       <c r="T136" s="2"/>
     </row>
     <row r="137" spans="1:20">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -4077,8 +4137,8 @@
       <c r="T137" s="2"/>
     </row>
     <row r="138" spans="1:20">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -4099,8 +4159,8 @@
       <c r="T138" s="2"/>
     </row>
     <row r="139" spans="1:20">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -4121,8 +4181,8 @@
       <c r="T139" s="2"/>
     </row>
     <row r="140" spans="1:20">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -4143,8 +4203,8 @@
       <c r="T140" s="2"/>
     </row>
     <row r="141" spans="1:20">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -4165,8 +4225,8 @@
       <c r="T141" s="2"/>
     </row>
     <row r="142" spans="1:20">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -4187,8 +4247,8 @@
       <c r="T142" s="2"/>
     </row>
     <row r="143" spans="1:20">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -4209,8 +4269,8 @@
       <c r="T143" s="2"/>
     </row>
     <row r="144" spans="1:20">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -4231,8 +4291,8 @@
       <c r="T144" s="2"/>
     </row>
     <row r="145" spans="1:20">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -4253,8 +4313,8 @@
       <c r="T145" s="2"/>
     </row>
     <row r="146" spans="1:20">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -4275,8 +4335,8 @@
       <c r="T146" s="2"/>
     </row>
     <row r="147" spans="1:20">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -4297,8 +4357,8 @@
       <c r="T147" s="2"/>
     </row>
     <row r="148" spans="1:20">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -4319,8 +4379,8 @@
       <c r="T148" s="2"/>
     </row>
     <row r="149" spans="1:20">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -4341,8 +4401,8 @@
       <c r="T149" s="2"/>
     </row>
     <row r="150" spans="1:20">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -4363,8 +4423,8 @@
       <c r="T150" s="2"/>
     </row>
     <row r="151" spans="1:20">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -4385,8 +4445,8 @@
       <c r="T151" s="2"/>
     </row>
     <row r="152" spans="1:20">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -4407,8 +4467,8 @@
       <c r="T152" s="2"/>
     </row>
     <row r="153" spans="1:20">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -4429,8 +4489,8 @@
       <c r="T153" s="2"/>
     </row>
     <row r="154" spans="1:20">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -4451,8 +4511,8 @@
       <c r="T154" s="2"/>
     </row>
     <row r="155" spans="1:20">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -4473,8 +4533,8 @@
       <c r="T155" s="2"/>
     </row>
     <row r="156" spans="1:20">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
+      <c r="A156" s="4"/>
+      <c r="B156" s="4"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -4495,8 +4555,8 @@
       <c r="T156" s="2"/>
     </row>
     <row r="157" spans="1:20">
-      <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -4517,8 +4577,8 @@
       <c r="T157" s="2"/>
     </row>
     <row r="158" spans="1:20">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -4539,8 +4599,8 @@
       <c r="T158" s="2"/>
     </row>
     <row r="159" spans="1:20">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
+      <c r="A159" s="4"/>
+      <c r="B159" s="4"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -4561,8 +4621,8 @@
       <c r="T159" s="2"/>
     </row>
     <row r="160" spans="1:20">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
+      <c r="A160" s="4"/>
+      <c r="B160" s="4"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -4583,8 +4643,8 @@
       <c r="T160" s="2"/>
     </row>
     <row r="161" spans="1:20">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
+      <c r="A161" s="4"/>
+      <c r="B161" s="4"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -4605,8 +4665,8 @@
       <c r="T161" s="2"/>
     </row>
     <row r="162" spans="1:20">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -4627,8 +4687,8 @@
       <c r="T162" s="2"/>
     </row>
     <row r="163" spans="1:20">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
+      <c r="A163" s="4"/>
+      <c r="B163" s="4"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -4649,8 +4709,8 @@
       <c r="T163" s="2"/>
     </row>
     <row r="164" spans="1:20">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
+      <c r="A164" s="4"/>
+      <c r="B164" s="4"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -4671,8 +4731,8 @@
       <c r="T164" s="2"/>
     </row>
     <row r="165" spans="1:20">
-      <c r="A165" s="3"/>
-      <c r="B165" s="3"/>
+      <c r="A165" s="4"/>
+      <c r="B165" s="4"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -4693,8 +4753,8 @@
       <c r="T165" s="2"/>
     </row>
     <row r="166" spans="1:20">
-      <c r="A166" s="3"/>
-      <c r="B166" s="3"/>
+      <c r="A166" s="4"/>
+      <c r="B166" s="4"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -4715,8 +4775,8 @@
       <c r="T166" s="2"/>
     </row>
     <row r="167" spans="1:20">
-      <c r="A167" s="3"/>
-      <c r="B167" s="3"/>
+      <c r="A167" s="4"/>
+      <c r="B167" s="4"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -4737,8 +4797,8 @@
       <c r="T167" s="2"/>
     </row>
     <row r="168" spans="1:20">
-      <c r="A168" s="3"/>
-      <c r="B168" s="3"/>
+      <c r="A168" s="4"/>
+      <c r="B168" s="4"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -4759,8 +4819,8 @@
       <c r="T168" s="2"/>
     </row>
     <row r="169" spans="1:20">
-      <c r="A169" s="3"/>
-      <c r="B169" s="3"/>
+      <c r="A169" s="4"/>
+      <c r="B169" s="4"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -4781,8 +4841,8 @@
       <c r="T169" s="2"/>
     </row>
     <row r="170" spans="1:20">
-      <c r="A170" s="3"/>
-      <c r="B170" s="3"/>
+      <c r="A170" s="4"/>
+      <c r="B170" s="4"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -4803,8 +4863,8 @@
       <c r="T170" s="2"/>
     </row>
     <row r="171" spans="1:20">
-      <c r="A171" s="3"/>
-      <c r="B171" s="3"/>
+      <c r="A171" s="4"/>
+      <c r="B171" s="4"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -4825,8 +4885,8 @@
       <c r="T171" s="2"/>
     </row>
     <row r="172" spans="1:20">
-      <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
+      <c r="A172" s="4"/>
+      <c r="B172" s="4"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -4847,8 +4907,8 @@
       <c r="T172" s="2"/>
     </row>
     <row r="173" spans="1:20">
-      <c r="A173" s="3"/>
-      <c r="B173" s="3"/>
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -4869,8 +4929,8 @@
       <c r="T173" s="2"/>
     </row>
     <row r="174" spans="1:20">
-      <c r="A174" s="3"/>
-      <c r="B174" s="3"/>
+      <c r="A174" s="4"/>
+      <c r="B174" s="4"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -4891,8 +4951,8 @@
       <c r="T174" s="2"/>
     </row>
     <row r="175" spans="1:20">
-      <c r="A175" s="3"/>
-      <c r="B175" s="3"/>
+      <c r="A175" s="4"/>
+      <c r="B175" s="4"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -4913,8 +4973,8 @@
       <c r="T175" s="2"/>
     </row>
     <row r="176" spans="1:20">
-      <c r="A176" s="3"/>
-      <c r="B176" s="3"/>
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -4935,8 +4995,8 @@
       <c r="T176" s="2"/>
     </row>
     <row r="177" spans="1:20">
-      <c r="A177" s="3"/>
-      <c r="B177" s="3"/>
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -4957,8 +5017,8 @@
       <c r="T177" s="2"/>
     </row>
     <row r="178" spans="1:20">
-      <c r="A178" s="3"/>
-      <c r="B178" s="3"/>
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -4979,8 +5039,8 @@
       <c r="T178" s="2"/>
     </row>
     <row r="179" spans="1:20">
-      <c r="A179" s="3"/>
-      <c r="B179" s="3"/>
+      <c r="A179" s="4"/>
+      <c r="B179" s="4"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -5001,8 +5061,8 @@
       <c r="T179" s="2"/>
     </row>
     <row r="180" spans="1:20">
-      <c r="A180" s="3"/>
-      <c r="B180" s="3"/>
+      <c r="A180" s="4"/>
+      <c r="B180" s="4"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -5023,8 +5083,8 @@
       <c r="T180" s="2"/>
     </row>
     <row r="181" spans="1:20">
-      <c r="A181" s="3"/>
-      <c r="B181" s="3"/>
+      <c r="A181" s="4"/>
+      <c r="B181" s="4"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -5045,8 +5105,8 @@
       <c r="T181" s="2"/>
     </row>
     <row r="182" spans="1:20">
-      <c r="A182" s="3"/>
-      <c r="B182" s="3"/>
+      <c r="A182" s="4"/>
+      <c r="B182" s="4"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -5067,8 +5127,8 @@
       <c r="T182" s="2"/>
     </row>
     <row r="183" spans="1:20">
-      <c r="A183" s="3"/>
-      <c r="B183" s="3"/>
+      <c r="A183" s="4"/>
+      <c r="B183" s="4"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -5089,8 +5149,8 @@
       <c r="T183" s="2"/>
     </row>
     <row r="184" spans="1:20">
-      <c r="A184" s="3"/>
-      <c r="B184" s="3"/>
+      <c r="A184" s="4"/>
+      <c r="B184" s="4"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -5111,8 +5171,8 @@
       <c r="T184" s="2"/>
     </row>
     <row r="185" spans="1:20">
-      <c r="A185" s="3"/>
-      <c r="B185" s="3"/>
+      <c r="A185" s="4"/>
+      <c r="B185" s="4"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -5133,8 +5193,8 @@
       <c r="T185" s="2"/>
     </row>
     <row r="186" spans="1:20">
-      <c r="A186" s="3"/>
-      <c r="B186" s="3"/>
+      <c r="A186" s="4"/>
+      <c r="B186" s="4"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -5155,8 +5215,8 @@
       <c r="T186" s="2"/>
     </row>
     <row r="187" spans="1:20">
-      <c r="A187" s="3"/>
-      <c r="B187" s="3"/>
+      <c r="A187" s="4"/>
+      <c r="B187" s="4"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -5177,8 +5237,8 @@
       <c r="T187" s="2"/>
     </row>
     <row r="188" spans="1:20">
-      <c r="A188" s="3"/>
-      <c r="B188" s="3"/>
+      <c r="A188" s="4"/>
+      <c r="B188" s="4"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -5199,8 +5259,8 @@
       <c r="T188" s="2"/>
     </row>
     <row r="189" spans="1:20">
-      <c r="A189" s="3"/>
-      <c r="B189" s="3"/>
+      <c r="A189" s="4"/>
+      <c r="B189" s="4"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -5221,8 +5281,8 @@
       <c r="T189" s="2"/>
     </row>
     <row r="190" spans="1:20">
-      <c r="A190" s="3"/>
-      <c r="B190" s="3"/>
+      <c r="A190" s="4"/>
+      <c r="B190" s="4"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -5243,8 +5303,8 @@
       <c r="T190" s="2"/>
     </row>
     <row r="191" spans="1:20">
-      <c r="A191" s="3"/>
-      <c r="B191" s="3"/>
+      <c r="A191" s="4"/>
+      <c r="B191" s="4"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -5265,8 +5325,8 @@
       <c r="T191" s="2"/>
     </row>
     <row r="192" spans="1:20">
-      <c r="A192" s="3"/>
-      <c r="B192" s="3"/>
+      <c r="A192" s="4"/>
+      <c r="B192" s="4"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -5287,8 +5347,8 @@
       <c r="T192" s="2"/>
     </row>
     <row r="193" spans="1:20">
-      <c r="A193" s="3"/>
-      <c r="B193" s="3"/>
+      <c r="A193" s="4"/>
+      <c r="B193" s="4"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -5309,8 +5369,8 @@
       <c r="T193" s="2"/>
     </row>
     <row r="194" spans="1:20">
-      <c r="A194" s="3"/>
-      <c r="B194" s="3"/>
+      <c r="A194" s="4"/>
+      <c r="B194" s="4"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -5331,8 +5391,8 @@
       <c r="T194" s="2"/>
     </row>
     <row r="195" spans="1:20">
-      <c r="A195" s="3"/>
-      <c r="B195" s="3"/>
+      <c r="A195" s="4"/>
+      <c r="B195" s="4"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -5353,8 +5413,8 @@
       <c r="T195" s="2"/>
     </row>
     <row r="196" spans="1:20">
-      <c r="A196" s="3"/>
-      <c r="B196" s="3"/>
+      <c r="A196" s="4"/>
+      <c r="B196" s="4"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -5375,8 +5435,8 @@
       <c r="T196" s="2"/>
     </row>
     <row r="197" spans="1:20">
-      <c r="A197" s="3"/>
-      <c r="B197" s="3"/>
+      <c r="A197" s="4"/>
+      <c r="B197" s="4"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -5397,8 +5457,8 @@
       <c r="T197" s="2"/>
     </row>
     <row r="198" spans="1:20">
-      <c r="A198" s="3"/>
-      <c r="B198" s="3"/>
+      <c r="A198" s="4"/>
+      <c r="B198" s="4"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -5419,8 +5479,8 @@
       <c r="T198" s="2"/>
     </row>
     <row r="199" spans="1:20">
-      <c r="A199" s="3"/>
-      <c r="B199" s="3"/>
+      <c r="A199" s="4"/>
+      <c r="B199" s="4"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -5441,8 +5501,8 @@
       <c r="T199" s="2"/>
     </row>
     <row r="200" spans="1:20">
-      <c r="A200" s="3"/>
-      <c r="B200" s="3"/>
+      <c r="A200" s="4"/>
+      <c r="B200" s="4"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>

--- a/src/main/resources/许愿墙.xlsx
+++ b/src/main/resources/许愿墙.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>你想找什么样的工作？</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>正确的路上</t>
+  </si>
+  <si>
+    <t>游戏前端</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1072,7 @@
   <dimension ref="A1:T200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2"/>
@@ -1365,8 +1368,12 @@
       <c r="T11" s="2"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>

--- a/src/main/resources/许愿墙.xlsx
+++ b/src/main/resources/许愿墙.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\下载\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E969CC-46E0-48F4-B9F1-A2F8DFAA3083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="16800" windowHeight="8664"/>
+    <workbookView xWindow="-25320" yWindow="330" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>你想找什么样的工作？</t>
   </si>
@@ -49,18 +53,16 @@
   <si>
     <t>AI agent开发</t>
   </si>
+  <si>
+    <t>在职犹豫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -76,158 +78,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,194 +105,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -450,253 +129,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -709,62 +146,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1022,27 +418,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:T200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1068,7 +465,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1094,7 +491,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1120,7 +517,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1146,7 +543,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1172,9 +569,13 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1194,7 +595,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
@@ -1216,7 +617,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
@@ -1238,7 +639,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
@@ -1260,7 +661,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
@@ -1282,7 +683,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
@@ -1304,7 +705,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
@@ -1326,7 +727,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
@@ -1348,7 +749,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
@@ -1370,7 +771,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
@@ -1392,7 +793,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
@@ -1414,7 +815,7 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2"/>
@@ -1436,7 +837,7 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
@@ -1458,7 +859,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
@@ -1480,7 +881,7 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="2"/>
@@ -1502,7 +903,7 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="2"/>
@@ -1524,7 +925,7 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="2"/>
@@ -1546,7 +947,7 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="2"/>
@@ -1568,7 +969,7 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="2"/>
@@ -1590,7 +991,7 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="2"/>
@@ -1612,7 +1013,7 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="2"/>
@@ -1634,7 +1035,7 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="2"/>
@@ -1656,7 +1057,7 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="2"/>
@@ -1678,7 +1079,7 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="2"/>
@@ -1700,7 +1101,7 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="2"/>
@@ -1722,7 +1123,7 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="2"/>
@@ -1744,7 +1145,7 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="2"/>
@@ -1766,7 +1167,7 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="2"/>
@@ -1788,7 +1189,7 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="2"/>
@@ -1810,7 +1211,7 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="2"/>
@@ -1832,7 +1233,7 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="2"/>
@@ -1854,7 +1255,7 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="2"/>
@@ -1876,7 +1277,7 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="2"/>
@@ -1898,7 +1299,7 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="2"/>
@@ -1920,7 +1321,7 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="2"/>
@@ -1942,7 +1343,7 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="2"/>
@@ -1964,7 +1365,7 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="2"/>
@@ -1986,7 +1387,7 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="2"/>
@@ -2008,7 +1409,7 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="2"/>
@@ -2030,7 +1431,7 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="2"/>
@@ -2052,7 +1453,7 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="2"/>
@@ -2074,7 +1475,7 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="2"/>
@@ -2096,7 +1497,7 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="2"/>
@@ -2118,7 +1519,7 @@
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="2"/>
@@ -2140,7 +1541,7 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="2"/>
@@ -2162,7 +1563,7 @@
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="2"/>
@@ -2184,7 +1585,7 @@
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="2"/>
@@ -2206,7 +1607,7 @@
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="2"/>
@@ -2228,7 +1629,7 @@
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="2"/>
@@ -2250,7 +1651,7 @@
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="2"/>
@@ -2272,7 +1673,7 @@
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="2"/>
@@ -2294,7 +1695,7 @@
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="2"/>
@@ -2316,7 +1717,7 @@
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="2"/>
@@ -2338,7 +1739,7 @@
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="2"/>
@@ -2360,7 +1761,7 @@
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="2"/>
@@ -2382,7 +1783,7 @@
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="2"/>
@@ -2404,7 +1805,7 @@
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="2"/>
@@ -2426,7 +1827,7 @@
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="2"/>
@@ -2448,7 +1849,7 @@
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="2"/>
@@ -2470,7 +1871,7 @@
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="2"/>
@@ -2492,7 +1893,7 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="2"/>
@@ -2514,7 +1915,7 @@
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="2"/>
@@ -2536,7 +1937,7 @@
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="2"/>
@@ -2558,7 +1959,7 @@
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="2"/>
@@ -2580,7 +1981,7 @@
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="2"/>
@@ -2602,7 +2003,7 @@
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="2"/>
@@ -2624,7 +2025,7 @@
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="2"/>
@@ -2646,7 +2047,7 @@
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="2"/>
@@ -2668,7 +2069,7 @@
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="2"/>
@@ -2690,7 +2091,7 @@
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="2"/>
@@ -2712,7 +2113,7 @@
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="2"/>
@@ -2734,7 +2135,7 @@
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="2"/>
@@ -2756,7 +2157,7 @@
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="2"/>
@@ -2778,7 +2179,7 @@
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="2"/>
@@ -2800,7 +2201,7 @@
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="2"/>
@@ -2822,7 +2223,7 @@
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="2"/>
@@ -2844,7 +2245,7 @@
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="2"/>
@@ -2866,7 +2267,7 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="2"/>
@@ -2888,7 +2289,7 @@
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="2"/>
@@ -2910,7 +2311,7 @@
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="2"/>
@@ -2932,7 +2333,7 @@
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="2"/>
@@ -2954,7 +2355,7 @@
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="2"/>
@@ -2976,7 +2377,7 @@
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="2"/>
@@ -2998,7 +2399,7 @@
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="2"/>
@@ -3020,7 +2421,7 @@
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="2"/>
@@ -3042,7 +2443,7 @@
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="2"/>
@@ -3064,7 +2465,7 @@
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="2"/>
@@ -3086,7 +2487,7 @@
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="2"/>
@@ -3108,7 +2509,7 @@
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="2"/>
@@ -3130,7 +2531,7 @@
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="2"/>
@@ -3152,7 +2553,7 @@
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
@@ -3174,7 +2575,7 @@
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="2"/>
@@ -3196,7 +2597,7 @@
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="2"/>
@@ -3218,7 +2619,7 @@
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="2"/>
@@ -3240,7 +2641,7 @@
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="2"/>
@@ -3262,7 +2663,7 @@
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="2"/>
@@ -3284,7 +2685,7 @@
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="2"/>
@@ -3306,7 +2707,7 @@
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="2"/>
@@ -3328,7 +2729,7 @@
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="2"/>
@@ -3350,7 +2751,7 @@
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="2"/>
@@ -3372,7 +2773,7 @@
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="2"/>
@@ -3394,7 +2795,7 @@
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="2"/>
@@ -3416,7 +2817,7 @@
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="2"/>
@@ -3438,7 +2839,7 @@
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="2"/>
@@ -3460,7 +2861,7 @@
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="2"/>
@@ -3482,7 +2883,7 @@
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="2"/>
@@ -3504,7 +2905,7 @@
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="2"/>
@@ -3526,7 +2927,7 @@
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
     </row>
-    <row r="113" spans="1:20">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="2"/>
@@ -3548,7 +2949,7 @@
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
     </row>
-    <row r="114" spans="1:20">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="2"/>
@@ -3570,7 +2971,7 @@
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
     </row>
-    <row r="115" spans="1:20">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="2"/>
@@ -3592,7 +2993,7 @@
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
     </row>
-    <row r="116" spans="1:20">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="2"/>
@@ -3614,7 +3015,7 @@
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
     </row>
-    <row r="117" spans="1:20">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="2"/>
@@ -3636,7 +3037,7 @@
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="2"/>
@@ -3658,7 +3059,7 @@
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
     </row>
-    <row r="119" spans="1:20">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="2"/>
@@ -3680,7 +3081,7 @@
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
     </row>
-    <row r="120" spans="1:20">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="2"/>
@@ -3702,7 +3103,7 @@
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
     </row>
-    <row r="121" spans="1:20">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="2"/>
@@ -3724,7 +3125,7 @@
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
     </row>
-    <row r="122" spans="1:20">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="2"/>
@@ -3746,7 +3147,7 @@
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
     </row>
-    <row r="123" spans="1:20">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="2"/>
@@ -3768,7 +3169,7 @@
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
     </row>
-    <row r="124" spans="1:20">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="2"/>
@@ -3790,7 +3191,7 @@
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
     </row>
-    <row r="125" spans="1:20">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="2"/>
@@ -3812,7 +3213,7 @@
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
     </row>
-    <row r="126" spans="1:20">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="2"/>
@@ -3834,7 +3235,7 @@
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
     </row>
-    <row r="127" spans="1:20">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="2"/>
@@ -3856,7 +3257,7 @@
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
     </row>
-    <row r="128" spans="1:20">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="2"/>
@@ -3878,7 +3279,7 @@
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
     </row>
-    <row r="129" spans="1:20">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="2"/>
@@ -3900,7 +3301,7 @@
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
     </row>
-    <row r="130" spans="1:20">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="2"/>
@@ -3922,7 +3323,7 @@
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
     </row>
-    <row r="131" spans="1:20">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="2"/>
@@ -3944,7 +3345,7 @@
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
     </row>
-    <row r="132" spans="1:20">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="2"/>
@@ -3966,7 +3367,7 @@
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
     </row>
-    <row r="133" spans="1:20">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="2"/>
@@ -3988,7 +3389,7 @@
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
     </row>
-    <row r="134" spans="1:20">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="2"/>
@@ -4010,7 +3411,7 @@
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
     </row>
-    <row r="135" spans="1:20">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="2"/>
@@ -4032,7 +3433,7 @@
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
     </row>
-    <row r="136" spans="1:20">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="2"/>
@@ -4054,7 +3455,7 @@
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="2"/>
@@ -4076,7 +3477,7 @@
       <c r="S137" s="2"/>
       <c r="T137" s="2"/>
     </row>
-    <row r="138" spans="1:20">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="2"/>
@@ -4098,7 +3499,7 @@
       <c r="S138" s="2"/>
       <c r="T138" s="2"/>
     </row>
-    <row r="139" spans="1:20">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="2"/>
@@ -4120,7 +3521,7 @@
       <c r="S139" s="2"/>
       <c r="T139" s="2"/>
     </row>
-    <row r="140" spans="1:20">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="2"/>
@@ -4142,7 +3543,7 @@
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
     </row>
-    <row r="141" spans="1:20">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="2"/>
@@ -4164,7 +3565,7 @@
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
     </row>
-    <row r="142" spans="1:20">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="2"/>
@@ -4186,7 +3587,7 @@
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
     </row>
-    <row r="143" spans="1:20">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="2"/>
@@ -4208,7 +3609,7 @@
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
     </row>
-    <row r="144" spans="1:20">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="2"/>
@@ -4230,7 +3631,7 @@
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
     </row>
-    <row r="145" spans="1:20">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="2"/>
@@ -4252,7 +3653,7 @@
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
     </row>
-    <row r="146" spans="1:20">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="2"/>
@@ -4274,7 +3675,7 @@
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
     </row>
-    <row r="147" spans="1:20">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="2"/>
@@ -4296,7 +3697,7 @@
       <c r="S147" s="2"/>
       <c r="T147" s="2"/>
     </row>
-    <row r="148" spans="1:20">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="2"/>
@@ -4318,7 +3719,7 @@
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
     </row>
-    <row r="149" spans="1:20">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="2"/>
@@ -4340,7 +3741,7 @@
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
     </row>
-    <row r="150" spans="1:20">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="2"/>
@@ -4362,7 +3763,7 @@
       <c r="S150" s="2"/>
       <c r="T150" s="2"/>
     </row>
-    <row r="151" spans="1:20">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="2"/>
@@ -4384,7 +3785,7 @@
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
     </row>
-    <row r="152" spans="1:20">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="2"/>
@@ -4406,7 +3807,7 @@
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
     </row>
-    <row r="153" spans="1:20">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="2"/>
@@ -4428,7 +3829,7 @@
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
     </row>
-    <row r="154" spans="1:20">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="2"/>
@@ -4450,7 +3851,7 @@
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
     </row>
-    <row r="155" spans="1:20">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="2"/>
@@ -4472,7 +3873,7 @@
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
     </row>
-    <row r="156" spans="1:20">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="2"/>
@@ -4494,7 +3895,7 @@
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
     </row>
-    <row r="157" spans="1:20">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="2"/>
@@ -4516,7 +3917,7 @@
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
     </row>
-    <row r="158" spans="1:20">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="2"/>
@@ -4538,7 +3939,7 @@
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
     </row>
-    <row r="159" spans="1:20">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="2"/>
@@ -4560,7 +3961,7 @@
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
     </row>
-    <row r="160" spans="1:20">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="2"/>
@@ -4582,7 +3983,7 @@
       <c r="S160" s="2"/>
       <c r="T160" s="2"/>
     </row>
-    <row r="161" spans="1:20">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="2"/>
@@ -4604,7 +4005,7 @@
       <c r="S161" s="2"/>
       <c r="T161" s="2"/>
     </row>
-    <row r="162" spans="1:20">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="2"/>
@@ -4626,7 +4027,7 @@
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
     </row>
-    <row r="163" spans="1:20">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="2"/>
@@ -4648,7 +4049,7 @@
       <c r="S163" s="2"/>
       <c r="T163" s="2"/>
     </row>
-    <row r="164" spans="1:20">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="2"/>
@@ -4670,7 +4071,7 @@
       <c r="S164" s="2"/>
       <c r="T164" s="2"/>
     </row>
-    <row r="165" spans="1:20">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="2"/>
@@ -4692,7 +4093,7 @@
       <c r="S165" s="2"/>
       <c r="T165" s="2"/>
     </row>
-    <row r="166" spans="1:20">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="2"/>
@@ -4714,7 +4115,7 @@
       <c r="S166" s="2"/>
       <c r="T166" s="2"/>
     </row>
-    <row r="167" spans="1:20">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="2"/>
@@ -4736,7 +4137,7 @@
       <c r="S167" s="2"/>
       <c r="T167" s="2"/>
     </row>
-    <row r="168" spans="1:20">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="2"/>
@@ -4758,7 +4159,7 @@
       <c r="S168" s="2"/>
       <c r="T168" s="2"/>
     </row>
-    <row r="169" spans="1:20">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="2"/>
@@ -4780,7 +4181,7 @@
       <c r="S169" s="2"/>
       <c r="T169" s="2"/>
     </row>
-    <row r="170" spans="1:20">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="2"/>
@@ -4802,7 +4203,7 @@
       <c r="S170" s="2"/>
       <c r="T170" s="2"/>
     </row>
-    <row r="171" spans="1:20">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="2"/>
@@ -4824,7 +4225,7 @@
       <c r="S171" s="2"/>
       <c r="T171" s="2"/>
     </row>
-    <row r="172" spans="1:20">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="2"/>
@@ -4846,7 +4247,7 @@
       <c r="S172" s="2"/>
       <c r="T172" s="2"/>
     </row>
-    <row r="173" spans="1:20">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="2"/>
@@ -4868,7 +4269,7 @@
       <c r="S173" s="2"/>
       <c r="T173" s="2"/>
     </row>
-    <row r="174" spans="1:20">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="2"/>
@@ -4890,7 +4291,7 @@
       <c r="S174" s="2"/>
       <c r="T174" s="2"/>
     </row>
-    <row r="175" spans="1:20">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="2"/>
@@ -4912,7 +4313,7 @@
       <c r="S175" s="2"/>
       <c r="T175" s="2"/>
     </row>
-    <row r="176" spans="1:20">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="2"/>
@@ -4934,7 +4335,7 @@
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
     </row>
-    <row r="177" spans="1:20">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="2"/>
@@ -4956,7 +4357,7 @@
       <c r="S177" s="2"/>
       <c r="T177" s="2"/>
     </row>
-    <row r="178" spans="1:20">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="2"/>
@@ -4978,7 +4379,7 @@
       <c r="S178" s="2"/>
       <c r="T178" s="2"/>
     </row>
-    <row r="179" spans="1:20">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="2"/>
@@ -5000,7 +4401,7 @@
       <c r="S179" s="2"/>
       <c r="T179" s="2"/>
     </row>
-    <row r="180" spans="1:20">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="2"/>
@@ -5022,7 +4423,7 @@
       <c r="S180" s="2"/>
       <c r="T180" s="2"/>
     </row>
-    <row r="181" spans="1:20">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="2"/>
@@ -5044,7 +4445,7 @@
       <c r="S181" s="2"/>
       <c r="T181" s="2"/>
     </row>
-    <row r="182" spans="1:20">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="2"/>
@@ -5066,7 +4467,7 @@
       <c r="S182" s="2"/>
       <c r="T182" s="2"/>
     </row>
-    <row r="183" spans="1:20">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="2"/>
@@ -5088,7 +4489,7 @@
       <c r="S183" s="2"/>
       <c r="T183" s="2"/>
     </row>
-    <row r="184" spans="1:20">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="2"/>
@@ -5110,7 +4511,7 @@
       <c r="S184" s="2"/>
       <c r="T184" s="2"/>
     </row>
-    <row r="185" spans="1:20">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="2"/>
@@ -5132,7 +4533,7 @@
       <c r="S185" s="2"/>
       <c r="T185" s="2"/>
     </row>
-    <row r="186" spans="1:20">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="2"/>
@@ -5154,7 +4555,7 @@
       <c r="S186" s="2"/>
       <c r="T186" s="2"/>
     </row>
-    <row r="187" spans="1:20">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="2"/>
@@ -5176,7 +4577,7 @@
       <c r="S187" s="2"/>
       <c r="T187" s="2"/>
     </row>
-    <row r="188" spans="1:20">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="2"/>
@@ -5198,7 +4599,7 @@
       <c r="S188" s="2"/>
       <c r="T188" s="2"/>
     </row>
-    <row r="189" spans="1:20">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="2"/>
@@ -5220,7 +4621,7 @@
       <c r="S189" s="2"/>
       <c r="T189" s="2"/>
     </row>
-    <row r="190" spans="1:20">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="2"/>
@@ -5242,7 +4643,7 @@
       <c r="S190" s="2"/>
       <c r="T190" s="2"/>
     </row>
-    <row r="191" spans="1:20">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="2"/>
@@ -5264,7 +4665,7 @@
       <c r="S191" s="2"/>
       <c r="T191" s="2"/>
     </row>
-    <row r="192" spans="1:20">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="2"/>
@@ -5286,7 +4687,7 @@
       <c r="S192" s="2"/>
       <c r="T192" s="2"/>
     </row>
-    <row r="193" spans="1:20">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="2"/>
@@ -5308,7 +4709,7 @@
       <c r="S193" s="2"/>
       <c r="T193" s="2"/>
     </row>
-    <row r="194" spans="1:20">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="2"/>
@@ -5330,7 +4731,7 @@
       <c r="S194" s="2"/>
       <c r="T194" s="2"/>
     </row>
-    <row r="195" spans="1:20">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="2"/>
@@ -5352,7 +4753,7 @@
       <c r="S195" s="2"/>
       <c r="T195" s="2"/>
     </row>
-    <row r="196" spans="1:20">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="2"/>
@@ -5374,7 +4775,7 @@
       <c r="S196" s="2"/>
       <c r="T196" s="2"/>
     </row>
-    <row r="197" spans="1:20">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="2"/>
@@ -5396,7 +4797,7 @@
       <c r="S197" s="2"/>
       <c r="T197" s="2"/>
     </row>
-    <row r="198" spans="1:20">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="2"/>
@@ -5418,7 +4819,7 @@
       <c r="S198" s="2"/>
       <c r="T198" s="2"/>
     </row>
-    <row r="199" spans="1:20">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="2"/>
@@ -5440,7 +4841,7 @@
       <c r="S199" s="2"/>
       <c r="T199" s="2"/>
     </row>
-    <row r="200" spans="1:20">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="2"/>
@@ -5463,7 +4864,8 @@
       <c r="T200" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/许愿墙.xlsx
+++ b/src/main/resources/许愿墙.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javil\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39794FD-7201-41CF-9F4F-EE183338D2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="16800" windowHeight="8664"/>
+    <workbookView xWindow="4740" yWindow="2865" windowWidth="20115" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>你想找什么样的工作？</t>
   </si>
@@ -49,18 +55,20 @@
   <si>
     <t>AI agent开发</t>
   </si>
+  <si>
+    <t>go/ai</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在找</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -76,158 +84,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,194 +112,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -450,253 +136,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -709,62 +153,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1022,27 +425,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:T200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1068,7 +472,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1094,7 +498,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1120,7 +524,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1146,7 +550,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1172,9 +576,13 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1194,7 +602,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
@@ -1216,7 +624,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
@@ -1238,7 +646,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
@@ -1260,7 +668,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
@@ -1282,7 +690,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
@@ -1304,7 +712,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
@@ -1326,7 +734,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
@@ -1348,7 +756,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
@@ -1370,7 +778,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
@@ -1392,7 +800,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
@@ -1414,7 +822,7 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2"/>
@@ -1436,7 +844,7 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
@@ -1458,7 +866,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
@@ -1480,7 +888,7 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="2"/>
@@ -1502,7 +910,7 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="2"/>
@@ -1524,7 +932,7 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="2"/>
@@ -1546,7 +954,7 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="2"/>
@@ -1568,7 +976,7 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="2"/>
@@ -1590,7 +998,7 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="2"/>
@@ -1612,7 +1020,7 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="2"/>
@@ -1634,7 +1042,7 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="2"/>
@@ -1656,7 +1064,7 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="2"/>
@@ -1678,7 +1086,7 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="2"/>
@@ -1700,7 +1108,7 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="2"/>
@@ -1722,7 +1130,7 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="2"/>
@@ -1744,7 +1152,7 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="2"/>
@@ -1766,7 +1174,7 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="2"/>
@@ -1788,7 +1196,7 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="2"/>
@@ -1810,7 +1218,7 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="2"/>
@@ -1832,7 +1240,7 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="2"/>
@@ -1854,7 +1262,7 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="2"/>
@@ -1876,7 +1284,7 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="2"/>
@@ -1898,7 +1306,7 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="2"/>
@@ -1920,7 +1328,7 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="2"/>
@@ -1942,7 +1350,7 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="2"/>
@@ -1964,7 +1372,7 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="2"/>
@@ -1986,7 +1394,7 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="2"/>
@@ -2008,7 +1416,7 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="2"/>
@@ -2030,7 +1438,7 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="2"/>
@@ -2052,7 +1460,7 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="2"/>
@@ -2074,7 +1482,7 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="2"/>
@@ -2096,7 +1504,7 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="2"/>
@@ -2118,7 +1526,7 @@
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="2"/>
@@ -2140,7 +1548,7 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="2"/>
@@ -2162,7 +1570,7 @@
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="2"/>
@@ -2184,7 +1592,7 @@
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="2"/>
@@ -2206,7 +1614,7 @@
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="2"/>
@@ -2228,7 +1636,7 @@
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="2"/>
@@ -2250,7 +1658,7 @@
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="2"/>
@@ -2272,7 +1680,7 @@
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="2"/>
@@ -2294,7 +1702,7 @@
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="2"/>
@@ -2316,7 +1724,7 @@
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="2"/>
@@ -2338,7 +1746,7 @@
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="2"/>
@@ -2360,7 +1768,7 @@
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="2"/>
@@ -2382,7 +1790,7 @@
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="2"/>
@@ -2404,7 +1812,7 @@
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="2"/>
@@ -2426,7 +1834,7 @@
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="2"/>
@@ -2448,7 +1856,7 @@
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="2"/>
@@ -2470,7 +1878,7 @@
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="2"/>
@@ -2492,7 +1900,7 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="2"/>
@@ -2514,7 +1922,7 @@
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="2"/>
@@ -2536,7 +1944,7 @@
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="2"/>
@@ -2558,7 +1966,7 @@
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="2"/>
@@ -2580,7 +1988,7 @@
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="2"/>
@@ -2602,7 +2010,7 @@
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="2"/>
@@ -2624,7 +2032,7 @@
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="2"/>
@@ -2646,7 +2054,7 @@
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="2"/>
@@ -2668,7 +2076,7 @@
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="2"/>
@@ -2690,7 +2098,7 @@
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="2"/>
@@ -2712,7 +2120,7 @@
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="2"/>
@@ -2734,7 +2142,7 @@
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="2"/>
@@ -2756,7 +2164,7 @@
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="2"/>
@@ -2778,7 +2186,7 @@
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="2"/>
@@ -2800,7 +2208,7 @@
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="2"/>
@@ -2822,7 +2230,7 @@
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="2"/>
@@ -2844,7 +2252,7 @@
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="2"/>
@@ -2866,7 +2274,7 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="2"/>
@@ -2888,7 +2296,7 @@
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="2"/>
@@ -2910,7 +2318,7 @@
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="2"/>
@@ -2932,7 +2340,7 @@
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="2"/>
@@ -2954,7 +2362,7 @@
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="2"/>
@@ -2976,7 +2384,7 @@
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="2"/>
@@ -2998,7 +2406,7 @@
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="2"/>
@@ -3020,7 +2428,7 @@
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="2"/>
@@ -3042,7 +2450,7 @@
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="2"/>
@@ -3064,7 +2472,7 @@
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="2"/>
@@ -3086,7 +2494,7 @@
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="2"/>
@@ -3108,7 +2516,7 @@
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="2"/>
@@ -3130,7 +2538,7 @@
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="2"/>
@@ -3152,7 +2560,7 @@
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
@@ -3174,7 +2582,7 @@
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="2"/>
@@ -3196,7 +2604,7 @@
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="2"/>
@@ -3218,7 +2626,7 @@
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="2"/>
@@ -3240,7 +2648,7 @@
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="2"/>
@@ -3262,7 +2670,7 @@
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="2"/>
@@ -3284,7 +2692,7 @@
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="2"/>
@@ -3306,7 +2714,7 @@
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="2"/>
@@ -3328,7 +2736,7 @@
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="2"/>
@@ -3350,7 +2758,7 @@
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="2"/>
@@ -3372,7 +2780,7 @@
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="2"/>
@@ -3394,7 +2802,7 @@
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="2"/>
@@ -3416,7 +2824,7 @@
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="2"/>
@@ -3438,7 +2846,7 @@
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="2"/>
@@ -3460,7 +2868,7 @@
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="2"/>
@@ -3482,7 +2890,7 @@
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="2"/>
@@ -3504,7 +2912,7 @@
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="2"/>
@@ -3526,7 +2934,7 @@
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
     </row>
-    <row r="113" spans="1:20">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="2"/>
@@ -3548,7 +2956,7 @@
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
     </row>
-    <row r="114" spans="1:20">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="2"/>
@@ -3570,7 +2978,7 @@
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
     </row>
-    <row r="115" spans="1:20">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="2"/>
@@ -3592,7 +3000,7 @@
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
     </row>
-    <row r="116" spans="1:20">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="2"/>
@@ -3614,7 +3022,7 @@
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
     </row>
-    <row r="117" spans="1:20">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="2"/>
@@ -3636,7 +3044,7 @@
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="2"/>
@@ -3658,7 +3066,7 @@
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
     </row>
-    <row r="119" spans="1:20">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="2"/>
@@ -3680,7 +3088,7 @@
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
     </row>
-    <row r="120" spans="1:20">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="2"/>
@@ -3702,7 +3110,7 @@
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
     </row>
-    <row r="121" spans="1:20">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="2"/>
@@ -3724,7 +3132,7 @@
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
     </row>
-    <row r="122" spans="1:20">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="2"/>
@@ -3746,7 +3154,7 @@
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
     </row>
-    <row r="123" spans="1:20">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="2"/>
@@ -3768,7 +3176,7 @@
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
     </row>
-    <row r="124" spans="1:20">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="2"/>
@@ -3790,7 +3198,7 @@
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
     </row>
-    <row r="125" spans="1:20">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="2"/>
@@ -3812,7 +3220,7 @@
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
     </row>
-    <row r="126" spans="1:20">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="2"/>
@@ -3834,7 +3242,7 @@
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
     </row>
-    <row r="127" spans="1:20">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="2"/>
@@ -3856,7 +3264,7 @@
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
     </row>
-    <row r="128" spans="1:20">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="2"/>
@@ -3878,7 +3286,7 @@
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
     </row>
-    <row r="129" spans="1:20">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="2"/>
@@ -3900,7 +3308,7 @@
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
     </row>
-    <row r="130" spans="1:20">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="2"/>
@@ -3922,7 +3330,7 @@
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
     </row>
-    <row r="131" spans="1:20">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="2"/>
@@ -3944,7 +3352,7 @@
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
     </row>
-    <row r="132" spans="1:20">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="2"/>
@@ -3966,7 +3374,7 @@
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
     </row>
-    <row r="133" spans="1:20">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="2"/>
@@ -3988,7 +3396,7 @@
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
     </row>
-    <row r="134" spans="1:20">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="2"/>
@@ -4010,7 +3418,7 @@
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
     </row>
-    <row r="135" spans="1:20">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="2"/>
@@ -4032,7 +3440,7 @@
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
     </row>
-    <row r="136" spans="1:20">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="2"/>
@@ -4054,7 +3462,7 @@
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="2"/>
@@ -4076,7 +3484,7 @@
       <c r="S137" s="2"/>
       <c r="T137" s="2"/>
     </row>
-    <row r="138" spans="1:20">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="2"/>
@@ -4098,7 +3506,7 @@
       <c r="S138" s="2"/>
       <c r="T138" s="2"/>
     </row>
-    <row r="139" spans="1:20">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="2"/>
@@ -4120,7 +3528,7 @@
       <c r="S139" s="2"/>
       <c r="T139" s="2"/>
     </row>
-    <row r="140" spans="1:20">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="2"/>
@@ -4142,7 +3550,7 @@
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
     </row>
-    <row r="141" spans="1:20">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="2"/>
@@ -4164,7 +3572,7 @@
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
     </row>
-    <row r="142" spans="1:20">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="2"/>
@@ -4186,7 +3594,7 @@
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
     </row>
-    <row r="143" spans="1:20">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="2"/>
@@ -4208,7 +3616,7 @@
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
     </row>
-    <row r="144" spans="1:20">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="2"/>
@@ -4230,7 +3638,7 @@
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
     </row>
-    <row r="145" spans="1:20">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="2"/>
@@ -4252,7 +3660,7 @@
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
     </row>
-    <row r="146" spans="1:20">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="2"/>
@@ -4274,7 +3682,7 @@
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
     </row>
-    <row r="147" spans="1:20">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="2"/>
@@ -4296,7 +3704,7 @@
       <c r="S147" s="2"/>
       <c r="T147" s="2"/>
     </row>
-    <row r="148" spans="1:20">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="2"/>
@@ -4318,7 +3726,7 @@
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
     </row>
-    <row r="149" spans="1:20">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="2"/>
@@ -4340,7 +3748,7 @@
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
     </row>
-    <row r="150" spans="1:20">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="2"/>
@@ -4362,7 +3770,7 @@
       <c r="S150" s="2"/>
       <c r="T150" s="2"/>
     </row>
-    <row r="151" spans="1:20">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="2"/>
@@ -4384,7 +3792,7 @@
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
     </row>
-    <row r="152" spans="1:20">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="2"/>
@@ -4406,7 +3814,7 @@
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
     </row>
-    <row r="153" spans="1:20">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="2"/>
@@ -4428,7 +3836,7 @@
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
     </row>
-    <row r="154" spans="1:20">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="2"/>
@@ -4450,7 +3858,7 @@
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
     </row>
-    <row r="155" spans="1:20">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="2"/>
@@ -4472,7 +3880,7 @@
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
     </row>
-    <row r="156" spans="1:20">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="2"/>
@@ -4494,7 +3902,7 @@
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
     </row>
-    <row r="157" spans="1:20">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="2"/>
@@ -4516,7 +3924,7 @@
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
     </row>
-    <row r="158" spans="1:20">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="2"/>
@@ -4538,7 +3946,7 @@
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
     </row>
-    <row r="159" spans="1:20">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="2"/>
@@ -4560,7 +3968,7 @@
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
     </row>
-    <row r="160" spans="1:20">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="2"/>
@@ -4582,7 +3990,7 @@
       <c r="S160" s="2"/>
       <c r="T160" s="2"/>
     </row>
-    <row r="161" spans="1:20">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="2"/>
@@ -4604,7 +4012,7 @@
       <c r="S161" s="2"/>
       <c r="T161" s="2"/>
     </row>
-    <row r="162" spans="1:20">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="2"/>
@@ -4626,7 +4034,7 @@
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
     </row>
-    <row r="163" spans="1:20">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="2"/>
@@ -4648,7 +4056,7 @@
       <c r="S163" s="2"/>
       <c r="T163" s="2"/>
     </row>
-    <row r="164" spans="1:20">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="2"/>
@@ -4670,7 +4078,7 @@
       <c r="S164" s="2"/>
       <c r="T164" s="2"/>
     </row>
-    <row r="165" spans="1:20">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="2"/>
@@ -4692,7 +4100,7 @@
       <c r="S165" s="2"/>
       <c r="T165" s="2"/>
     </row>
-    <row r="166" spans="1:20">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="2"/>
@@ -4714,7 +4122,7 @@
       <c r="S166" s="2"/>
       <c r="T166" s="2"/>
     </row>
-    <row r="167" spans="1:20">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="2"/>
@@ -4736,7 +4144,7 @@
       <c r="S167" s="2"/>
       <c r="T167" s="2"/>
     </row>
-    <row r="168" spans="1:20">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="2"/>
@@ -4758,7 +4166,7 @@
       <c r="S168" s="2"/>
       <c r="T168" s="2"/>
     </row>
-    <row r="169" spans="1:20">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="2"/>
@@ -4780,7 +4188,7 @@
       <c r="S169" s="2"/>
       <c r="T169" s="2"/>
     </row>
-    <row r="170" spans="1:20">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="2"/>
@@ -4802,7 +4210,7 @@
       <c r="S170" s="2"/>
       <c r="T170" s="2"/>
     </row>
-    <row r="171" spans="1:20">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="2"/>
@@ -4824,7 +4232,7 @@
       <c r="S171" s="2"/>
       <c r="T171" s="2"/>
     </row>
-    <row r="172" spans="1:20">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="2"/>
@@ -4846,7 +4254,7 @@
       <c r="S172" s="2"/>
       <c r="T172" s="2"/>
     </row>
-    <row r="173" spans="1:20">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="2"/>
@@ -4868,7 +4276,7 @@
       <c r="S173" s="2"/>
       <c r="T173" s="2"/>
     </row>
-    <row r="174" spans="1:20">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="2"/>
@@ -4890,7 +4298,7 @@
       <c r="S174" s="2"/>
       <c r="T174" s="2"/>
     </row>
-    <row r="175" spans="1:20">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="2"/>
@@ -4912,7 +4320,7 @@
       <c r="S175" s="2"/>
       <c r="T175" s="2"/>
     </row>
-    <row r="176" spans="1:20">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="2"/>
@@ -4934,7 +4342,7 @@
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
     </row>
-    <row r="177" spans="1:20">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="2"/>
@@ -4956,7 +4364,7 @@
       <c r="S177" s="2"/>
       <c r="T177" s="2"/>
     </row>
-    <row r="178" spans="1:20">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="2"/>
@@ -4978,7 +4386,7 @@
       <c r="S178" s="2"/>
       <c r="T178" s="2"/>
     </row>
-    <row r="179" spans="1:20">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="2"/>
@@ -5000,7 +4408,7 @@
       <c r="S179" s="2"/>
       <c r="T179" s="2"/>
     </row>
-    <row r="180" spans="1:20">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="2"/>
@@ -5022,7 +4430,7 @@
       <c r="S180" s="2"/>
       <c r="T180" s="2"/>
     </row>
-    <row r="181" spans="1:20">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="2"/>
@@ -5044,7 +4452,7 @@
       <c r="S181" s="2"/>
       <c r="T181" s="2"/>
     </row>
-    <row r="182" spans="1:20">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="2"/>
@@ -5066,7 +4474,7 @@
       <c r="S182" s="2"/>
       <c r="T182" s="2"/>
     </row>
-    <row r="183" spans="1:20">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="2"/>
@@ -5088,7 +4496,7 @@
       <c r="S183" s="2"/>
       <c r="T183" s="2"/>
     </row>
-    <row r="184" spans="1:20">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="2"/>
@@ -5110,7 +4518,7 @@
       <c r="S184" s="2"/>
       <c r="T184" s="2"/>
     </row>
-    <row r="185" spans="1:20">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="2"/>
@@ -5132,7 +4540,7 @@
       <c r="S185" s="2"/>
       <c r="T185" s="2"/>
     </row>
-    <row r="186" spans="1:20">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="2"/>
@@ -5154,7 +4562,7 @@
       <c r="S186" s="2"/>
       <c r="T186" s="2"/>
     </row>
-    <row r="187" spans="1:20">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="2"/>
@@ -5176,7 +4584,7 @@
       <c r="S187" s="2"/>
       <c r="T187" s="2"/>
     </row>
-    <row r="188" spans="1:20">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="2"/>
@@ -5198,7 +4606,7 @@
       <c r="S188" s="2"/>
       <c r="T188" s="2"/>
     </row>
-    <row r="189" spans="1:20">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="2"/>
@@ -5220,7 +4628,7 @@
       <c r="S189" s="2"/>
       <c r="T189" s="2"/>
     </row>
-    <row r="190" spans="1:20">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="2"/>
@@ -5242,7 +4650,7 @@
       <c r="S190" s="2"/>
       <c r="T190" s="2"/>
     </row>
-    <row r="191" spans="1:20">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="2"/>
@@ -5264,7 +4672,7 @@
       <c r="S191" s="2"/>
       <c r="T191" s="2"/>
     </row>
-    <row r="192" spans="1:20">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="2"/>
@@ -5286,7 +4694,7 @@
       <c r="S192" s="2"/>
       <c r="T192" s="2"/>
     </row>
-    <row r="193" spans="1:20">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="2"/>
@@ -5308,7 +4716,7 @@
       <c r="S193" s="2"/>
       <c r="T193" s="2"/>
     </row>
-    <row r="194" spans="1:20">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="2"/>
@@ -5330,7 +4738,7 @@
       <c r="S194" s="2"/>
       <c r="T194" s="2"/>
     </row>
-    <row r="195" spans="1:20">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="2"/>
@@ -5352,7 +4760,7 @@
       <c r="S195" s="2"/>
       <c r="T195" s="2"/>
     </row>
-    <row r="196" spans="1:20">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="2"/>
@@ -5374,7 +4782,7 @@
       <c r="S196" s="2"/>
       <c r="T196" s="2"/>
     </row>
-    <row r="197" spans="1:20">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="2"/>
@@ -5396,7 +4804,7 @@
       <c r="S197" s="2"/>
       <c r="T197" s="2"/>
     </row>
-    <row r="198" spans="1:20">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="2"/>
@@ -5418,7 +4826,7 @@
       <c r="S198" s="2"/>
       <c r="T198" s="2"/>
     </row>
-    <row r="199" spans="1:20">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="2"/>
@@ -5440,7 +4848,7 @@
       <c r="S199" s="2"/>
       <c r="T199" s="2"/>
     </row>
-    <row r="200" spans="1:20">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="2"/>
@@ -5463,7 +4871,7 @@
       <c r="T200" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/许愿墙.xlsx
+++ b/src/main/resources/许愿墙.xlsx
@@ -1,79 +1,171 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\get_jobs\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EA2EBE-CD68-4309-839A-BD51EAFF0AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
-    <t xml:space="preserve">  </t>
+    <t>你想找什么样的工作？</t>
+  </si>
+  <si>
+    <t>现在的状态是怎样的？</t>
+  </si>
+  <si>
+    <t>AI攻城狮</t>
+  </si>
+  <si>
+    <t>已找到！</t>
+  </si>
+  <si>
+    <t>Java+AI</t>
+  </si>
+  <si>
+    <t>在找</t>
+  </si>
+  <si>
+    <t>AI agent开发</t>
+  </si>
+  <si>
+    <t>Java实习</t>
+  </si>
+  <si>
+    <t>还没开始找</t>
+  </si>
+  <si>
+    <t>系统架构师</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>前端攻城狮</t>
+  </si>
+  <si>
+    <t>AI+游戏开发</t>
+  </si>
+  <si>
+    <t>C++实习</t>
+  </si>
+  <si>
+    <t>后端开发</t>
+  </si>
+  <si>
+    <t>正确的路上</t>
+  </si>
+  <si>
+    <t>Java后端开发</t>
+  </si>
+  <si>
+    <t>在找实习的路上</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>找到了，但是通勤太远想跳槽</t>
+  </si>
+  <si>
+    <t>Frontend leader</t>
+  </si>
+  <si>
+    <t>找到了，但是没有work life balance</t>
+  </si>
+  <si>
+    <t>找到了，不满意</t>
+  </si>
+  <si>
+    <t>Java开发</t>
+  </si>
+  <si>
+    <t>再找</t>
+  </si>
+  <si>
+    <t>前端工程师</t>
+  </si>
+  <si>
+    <t>java开发</t>
+  </si>
+  <si>
+    <t>AI+前端工程师</t>
+  </si>
+  <si>
+    <t>C++开发</t>
+  </si>
+  <si>
+    <t>Java/Ai/其他行业</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油吧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF34C724"/>
-        <bgColor/>
       </patternFill>
     </fill>
   </fills>
@@ -139,30 +231,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -175,7 +267,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -470,28 +562,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="32"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="str">
-        <v>你想找什么样的工作？</v>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
-        <v>现在的状态是怎样的？</v>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -512,12 +604,12 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="str">
-        <v>AI攻城狮</v>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
       </c>
-      <c r="B2" s="2" t="str">
-        <v>已找到！</v>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -538,12 +630,12 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="str">
-        <v>Java+AI</v>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
       </c>
-      <c r="B3" s="2" t="str">
-        <v>在找</v>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -564,12 +656,12 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="str">
-        <v>AI agent开发</v>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
       </c>
-      <c r="B4" s="2" t="str">
-        <v>在找</v>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -590,12 +682,12 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="str">
-        <v>Java实习</v>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
       </c>
-      <c r="B5" s="2" t="str">
-        <v>还没开始找</v>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -616,12 +708,12 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="str">
-        <v>系统架构师</v>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
       </c>
-      <c r="B6" s="2" t="str">
-        <v>在找</v>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -642,12 +734,12 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="str">
-        <v>Go</v>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
       </c>
-      <c r="B7" s="2" t="str">
-        <v>在找</v>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -668,12 +760,12 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="str">
-        <v>前端攻城狮</v>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
       </c>
-      <c r="B8" s="2" t="str">
-        <v>在找</v>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -694,12 +786,12 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="str">
-        <v>AI+游戏开发</v>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
       </c>
-      <c r="B9" s="2" t="str">
-        <v>在找</v>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -720,12 +812,12 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="str">
-        <v>C++实习</v>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
       </c>
-      <c r="B10" s="2" t="str">
-        <v>在找</v>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -746,12 +838,12 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="str">
-        <v>后端开发</v>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
       </c>
-      <c r="B11" s="2" t="str">
-        <v>正确的路上</v>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -772,12 +864,12 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="str">
-        <v>Java后端开发</v>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
       </c>
-      <c r="B12" s="2" t="str">
-        <v>在找实习的路上</v>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -798,12 +890,12 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="str">
-        <v>Java</v>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
       </c>
-      <c r="B13" s="2" t="str">
-        <v>找到了，但是通勤太远想跳槽</v>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -824,12 +916,12 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="str">
-        <v>Frontend leader</v>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
       </c>
-      <c r="B14" s="2" t="str">
-        <v>找到了，但是没有work life balance</v>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -850,12 +942,12 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15">
-      <c r="A15" s="3" t="str">
-        <v>Java</v>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
       </c>
-      <c r="B15" s="2" t="str">
-        <v>找到了，不满意</v>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -876,12 +968,12 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="str">
-        <v>Java开发</v>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
       </c>
-      <c r="B16" s="2" t="str">
-        <v>再找</v>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -902,12 +994,12 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="str">
-        <v>前端工程师</v>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
       </c>
-      <c r="B17" s="2" t="str">
-        <v>在找</v>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -928,12 +1020,12 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="str">
-        <v>java开发</v>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
       </c>
-      <c r="B18" s="2" t="str">
-        <v>在找</v>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -954,12 +1046,12 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="str">
-        <v>AI+前端工程师</v>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
       </c>
-      <c r="B19" s="2" t="str">
-        <v>还没开始找</v>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -980,12 +1072,12 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="str">
-        <v>C++开发</v>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
       </c>
-      <c r="B20" s="2" t="str">
-        <v>在找</v>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1006,12 +1098,12 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="str">
-        <v>Go</v>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
       </c>
-      <c r="B21" s="2" t="str">
-        <v>在找</v>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1032,9 +1124,13 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1054,7 +1150,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
@@ -1076,7 +1172,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
@@ -1098,7 +1194,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
@@ -1120,7 +1216,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
@@ -1142,7 +1238,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
@@ -1164,7 +1260,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
@@ -1186,7 +1282,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
@@ -1208,7 +1304,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
@@ -1230,7 +1326,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -1252,7 +1348,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
@@ -1274,7 +1370,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
@@ -1296,7 +1392,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
@@ -1318,7 +1414,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
@@ -1340,7 +1436,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
@@ -1362,7 +1458,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
@@ -1384,7 +1480,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
@@ -1406,7 +1502,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
@@ -1428,7 +1524,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
@@ -1450,7 +1546,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
@@ -1472,7 +1568,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
@@ -1494,7 +1590,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -1516,7 +1612,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -1538,7 +1634,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
@@ -1560,7 +1656,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
@@ -1582,7 +1678,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
@@ -1604,7 +1700,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
@@ -1626,7 +1722,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
@@ -1648,7 +1744,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
@@ -1670,7 +1766,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
@@ -1692,7 +1788,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
@@ -1714,7 +1810,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
@@ -1736,7 +1832,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
@@ -1758,7 +1854,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
@@ -1780,7 +1876,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
@@ -1802,7 +1898,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
@@ -1824,7 +1920,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
@@ -1846,7 +1942,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
@@ -1868,7 +1964,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
@@ -1890,7 +1986,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
@@ -1912,7 +2008,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
@@ -1934,7 +2030,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
@@ -1956,7 +2052,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
@@ -1978,7 +2074,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
@@ -2000,7 +2096,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
@@ -2022,7 +2118,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
@@ -2044,7 +2140,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
@@ -2066,7 +2162,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
@@ -2088,7 +2184,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
@@ -2110,7 +2206,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
@@ -2132,7 +2228,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
@@ -2154,7 +2250,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
@@ -2176,7 +2272,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -2198,7 +2294,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -2220,7 +2316,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -2242,7 +2338,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -2264,7 +2360,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -2286,7 +2382,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -2308,7 +2404,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -2330,7 +2426,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -2352,7 +2448,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -2374,7 +2470,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -2396,7 +2492,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -2418,7 +2514,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -2440,7 +2536,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -2462,7 +2558,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
@@ -2484,7 +2580,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -2506,7 +2602,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -2528,7 +2624,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -2550,7 +2646,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -2572,7 +2668,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -2594,7 +2690,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -2616,7 +2712,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -2638,7 +2734,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -2660,7 +2756,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -2682,7 +2778,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -2704,7 +2800,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -2726,7 +2822,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -2748,7 +2844,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -2770,7 +2866,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -2792,7 +2888,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -2814,7 +2910,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -2836,7 +2932,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -2858,7 +2954,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -2880,7 +2976,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -2902,7 +2998,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -2924,7 +3020,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -2946,7 +3042,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
@@ -2968,7 +3064,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
@@ -2990,7 +3086,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
@@ -3012,7 +3108,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
@@ -3034,7 +3130,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -3056,7 +3152,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -3078,7 +3174,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
@@ -3100,7 +3196,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
@@ -3122,7 +3218,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
@@ -3144,7 +3240,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
@@ -3166,7 +3262,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
@@ -3188,7 +3284,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
@@ -3210,7 +3306,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
@@ -3232,7 +3328,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
@@ -3254,7 +3350,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
@@ -3276,7 +3372,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
@@ -3298,7 +3394,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
@@ -3320,7 +3416,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
@@ -3342,7 +3438,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
@@ -3364,7 +3460,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
@@ -3386,7 +3482,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
@@ -3408,7 +3504,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
@@ -3430,7 +3526,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
@@ -3452,7 +3548,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
@@ -3474,7 +3570,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
@@ -3496,7 +3592,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
@@ -3518,7 +3614,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
@@ -3540,7 +3636,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
@@ -3562,7 +3658,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
@@ -3584,7 +3680,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
@@ -3606,7 +3702,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
@@ -3628,7 +3724,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
@@ -3650,7 +3746,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
@@ -3672,7 +3768,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
@@ -3694,7 +3790,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
@@ -3716,7 +3812,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
@@ -3738,7 +3834,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
@@ -3760,7 +3856,7 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
@@ -3782,7 +3878,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
@@ -3804,7 +3900,7 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
@@ -3826,7 +3922,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
@@ -3848,7 +3944,7 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
@@ -3870,7 +3966,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
@@ -3892,7 +3988,7 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
@@ -3914,7 +4010,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
@@ -3936,7 +4032,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
@@ -3958,7 +4054,7 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
@@ -3980,7 +4076,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
@@ -4002,7 +4098,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
@@ -4024,7 +4120,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
@@ -4046,7 +4142,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
@@ -4068,7 +4164,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
@@ -4090,7 +4186,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
@@ -4112,7 +4208,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
@@ -4134,7 +4230,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
@@ -4156,7 +4252,7 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
@@ -4178,7 +4274,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
@@ -4200,7 +4296,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
@@ -4222,7 +4318,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
@@ -4244,7 +4340,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
@@ -4266,7 +4362,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
@@ -4288,7 +4384,7 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
@@ -4310,7 +4406,7 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
@@ -4332,7 +4428,7 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
@@ -4354,7 +4450,7 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
@@ -4376,7 +4472,7 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
@@ -4398,7 +4494,7 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
@@ -4420,7 +4516,7 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
@@ -4442,7 +4538,7 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
@@ -4464,7 +4560,7 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
@@ -4486,7 +4582,7 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
@@ -4508,7 +4604,7 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
@@ -4530,7 +4626,7 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
@@ -4552,7 +4648,7 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
@@ -4574,7 +4670,7 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
@@ -4596,7 +4692,7 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
@@ -4618,7 +4714,7 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
@@ -4640,7 +4736,7 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
@@ -4662,7 +4758,7 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
@@ -4684,7 +4780,7 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
@@ -4706,7 +4802,7 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
@@ -4728,7 +4824,7 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
@@ -4750,7 +4846,7 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
@@ -4772,7 +4868,7 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
@@ -4794,7 +4890,7 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
@@ -4816,7 +4912,7 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
@@ -4838,7 +4934,7 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
@@ -4860,7 +4956,7 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
@@ -4882,7 +4978,7 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
@@ -4904,7 +5000,7 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
@@ -4926,7 +5022,7 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
@@ -4948,7 +5044,7 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
@@ -4971,6 +5067,8 @@
       <c r="T200" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/许愿墙.xlsx
+++ b/src/main/resources/许愿墙.xlsx
@@ -1,79 +1,171 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\get_jobs\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ABB65E-F868-4E79-B240-3DD0AF089AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
-    <t xml:space="preserve">  </t>
+    <t>你想找什么样的工作？</t>
+  </si>
+  <si>
+    <t>现在的状态是怎样的？</t>
+  </si>
+  <si>
+    <t>AI攻城狮</t>
+  </si>
+  <si>
+    <t>已找到！</t>
+  </si>
+  <si>
+    <t>Java+AI</t>
+  </si>
+  <si>
+    <t>在找</t>
+  </si>
+  <si>
+    <t>AI agent开发</t>
+  </si>
+  <si>
+    <t>Java实习</t>
+  </si>
+  <si>
+    <t>还没开始找</t>
+  </si>
+  <si>
+    <t>系统架构师</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>前端攻城狮</t>
+  </si>
+  <si>
+    <t>AI+游戏开发</t>
+  </si>
+  <si>
+    <t>C++实习</t>
+  </si>
+  <si>
+    <t>后端开发</t>
+  </si>
+  <si>
+    <t>正确的路上</t>
+  </si>
+  <si>
+    <t>Java后端开发</t>
+  </si>
+  <si>
+    <t>在找实习的路上</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>找到了，但是通勤太远想跳槽</t>
+  </si>
+  <si>
+    <t>Frontend leader</t>
+  </si>
+  <si>
+    <t>找到了，但是没有work life balance</t>
+  </si>
+  <si>
+    <t>找到了，不满意</t>
+  </si>
+  <si>
+    <t>Java开发</t>
+  </si>
+  <si>
+    <t>再找</t>
+  </si>
+  <si>
+    <t>前端工程师</t>
+  </si>
+  <si>
+    <t>java开发</t>
+  </si>
+  <si>
+    <t>AI+前端工程师</t>
+  </si>
+  <si>
+    <t>C++开发</t>
+  </si>
+  <si>
+    <t>AI+Python</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在找</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF34C724"/>
-        <bgColor/>
       </patternFill>
     </fill>
   </fills>
@@ -139,30 +231,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -175,7 +267,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -470,28 +562,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="32"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="str">
-        <v>你想找什么样的工作？</v>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
-        <v>现在的状态是怎样的？</v>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -512,12 +604,12 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="str">
-        <v>AI攻城狮</v>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
       </c>
-      <c r="B2" s="2" t="str">
-        <v>已找到！</v>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -538,12 +630,12 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="str">
-        <v>Java+AI</v>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
       </c>
-      <c r="B3" s="2" t="str">
-        <v>在找</v>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -564,12 +656,12 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="str">
-        <v>AI agent开发</v>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
       </c>
-      <c r="B4" s="2" t="str">
-        <v>在找</v>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -590,12 +682,12 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="str">
-        <v>Java实习</v>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
       </c>
-      <c r="B5" s="2" t="str">
-        <v>还没开始找</v>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -616,12 +708,12 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="str">
-        <v>系统架构师</v>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
       </c>
-      <c r="B6" s="2" t="str">
-        <v>在找</v>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -642,12 +734,12 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="str">
-        <v>Go</v>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
       </c>
-      <c r="B7" s="2" t="str">
-        <v>在找</v>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -668,12 +760,12 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="str">
-        <v>前端攻城狮</v>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
       </c>
-      <c r="B8" s="2" t="str">
-        <v>在找</v>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -694,12 +786,12 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="str">
-        <v>AI+游戏开发</v>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
       </c>
-      <c r="B9" s="2" t="str">
-        <v>在找</v>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -720,12 +812,12 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="str">
-        <v>C++实习</v>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
       </c>
-      <c r="B10" s="2" t="str">
-        <v>在找</v>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -746,12 +838,12 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="str">
-        <v>后端开发</v>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
       </c>
-      <c r="B11" s="2" t="str">
-        <v>正确的路上</v>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -772,12 +864,12 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="str">
-        <v>Java后端开发</v>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
       </c>
-      <c r="B12" s="2" t="str">
-        <v>在找实习的路上</v>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -798,12 +890,12 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="str">
-        <v>Java</v>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
       </c>
-      <c r="B13" s="2" t="str">
-        <v>找到了，但是通勤太远想跳槽</v>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -824,12 +916,12 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="str">
-        <v>Frontend leader</v>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
       </c>
-      <c r="B14" s="2" t="str">
-        <v>找到了，但是没有work life balance</v>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -850,12 +942,12 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15">
-      <c r="A15" s="3" t="str">
-        <v>Java</v>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
       </c>
-      <c r="B15" s="2" t="str">
-        <v>找到了，不满意</v>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -876,12 +968,12 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="str">
-        <v>Java开发</v>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
       </c>
-      <c r="B16" s="2" t="str">
-        <v>再找</v>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -902,12 +994,12 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="str">
-        <v>前端工程师</v>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
       </c>
-      <c r="B17" s="2" t="str">
-        <v>在找</v>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -928,12 +1020,12 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="str">
-        <v>java开发</v>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
       </c>
-      <c r="B18" s="2" t="str">
-        <v>在找</v>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -954,12 +1046,12 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="str">
-        <v>AI+前端工程师</v>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
       </c>
-      <c r="B19" s="2" t="str">
-        <v>还没开始找</v>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -980,12 +1072,12 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="str">
-        <v>C++开发</v>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
       </c>
-      <c r="B20" s="2" t="str">
-        <v>在找</v>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1006,12 +1098,12 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="str">
-        <v>Go</v>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
       </c>
-      <c r="B21" s="2" t="str">
-        <v>在找</v>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1032,9 +1124,13 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1054,7 +1150,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
@@ -1076,7 +1172,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
@@ -1098,7 +1194,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
@@ -1120,7 +1216,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
@@ -1142,7 +1238,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
@@ -1164,7 +1260,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
@@ -1186,7 +1282,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
@@ -1208,7 +1304,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
@@ -1230,7 +1326,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -1252,7 +1348,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
@@ -1274,7 +1370,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
@@ -1296,7 +1392,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
@@ -1318,7 +1414,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
@@ -1340,7 +1436,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
@@ -1362,7 +1458,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
@@ -1384,7 +1480,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
@@ -1406,7 +1502,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
@@ -1428,7 +1524,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
@@ -1450,7 +1546,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
@@ -1472,7 +1568,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
@@ -1494,7 +1590,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -1516,7 +1612,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -1538,7 +1634,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
@@ -1560,7 +1656,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
@@ -1582,7 +1678,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
@@ -1604,7 +1700,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
@@ -1626,7 +1722,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
@@ -1648,7 +1744,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
@@ -1670,7 +1766,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
@@ -1692,7 +1788,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
@@ -1714,7 +1810,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
@@ -1736,7 +1832,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
@@ -1758,7 +1854,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
@@ -1780,7 +1876,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
@@ -1802,7 +1898,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
@@ -1824,7 +1920,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
@@ -1846,7 +1942,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
@@ -1868,7 +1964,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
@@ -1890,7 +1986,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
@@ -1912,7 +2008,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
@@ -1934,7 +2030,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
@@ -1956,7 +2052,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
@@ -1978,7 +2074,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
@@ -2000,7 +2096,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
@@ -2022,7 +2118,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
@@ -2044,7 +2140,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
@@ -2066,7 +2162,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
@@ -2088,7 +2184,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
@@ -2110,7 +2206,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
@@ -2132,7 +2228,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
@@ -2154,7 +2250,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
@@ -2176,7 +2272,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -2198,7 +2294,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -2220,7 +2316,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -2242,7 +2338,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -2264,7 +2360,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -2286,7 +2382,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -2308,7 +2404,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -2330,7 +2426,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -2352,7 +2448,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -2374,7 +2470,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -2396,7 +2492,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -2418,7 +2514,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -2440,7 +2536,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -2462,7 +2558,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
@@ -2484,7 +2580,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -2506,7 +2602,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -2528,7 +2624,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -2550,7 +2646,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -2572,7 +2668,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -2594,7 +2690,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -2616,7 +2712,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -2638,7 +2734,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -2660,7 +2756,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -2682,7 +2778,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -2704,7 +2800,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -2726,7 +2822,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -2748,7 +2844,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -2770,7 +2866,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -2792,7 +2888,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -2814,7 +2910,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -2836,7 +2932,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -2858,7 +2954,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -2880,7 +2976,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -2902,7 +2998,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -2924,7 +3020,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -2946,7 +3042,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
@@ -2968,7 +3064,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
@@ -2990,7 +3086,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
@@ -3012,7 +3108,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
@@ -3034,7 +3130,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -3056,7 +3152,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -3078,7 +3174,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
@@ -3100,7 +3196,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
@@ -3122,7 +3218,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
@@ -3144,7 +3240,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
@@ -3166,7 +3262,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
@@ -3188,7 +3284,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
@@ -3210,7 +3306,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
@@ -3232,7 +3328,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
@@ -3254,7 +3350,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
@@ -3276,7 +3372,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
@@ -3298,7 +3394,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
@@ -3320,7 +3416,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
@@ -3342,7 +3438,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
@@ -3364,7 +3460,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
@@ -3386,7 +3482,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
@@ -3408,7 +3504,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
@@ -3430,7 +3526,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
@@ -3452,7 +3548,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
@@ -3474,7 +3570,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
@@ -3496,7 +3592,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
@@ -3518,7 +3614,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
@@ -3540,7 +3636,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
@@ -3562,7 +3658,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
@@ -3584,7 +3680,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
@@ -3606,7 +3702,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
@@ -3628,7 +3724,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
@@ -3650,7 +3746,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
@@ -3672,7 +3768,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
@@ -3694,7 +3790,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
@@ -3716,7 +3812,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
@@ -3738,7 +3834,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
@@ -3760,7 +3856,7 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
@@ -3782,7 +3878,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
@@ -3804,7 +3900,7 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
@@ -3826,7 +3922,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
@@ -3848,7 +3944,7 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
@@ -3870,7 +3966,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
@@ -3892,7 +3988,7 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
@@ -3914,7 +4010,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
@@ -3936,7 +4032,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
@@ -3958,7 +4054,7 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
@@ -3980,7 +4076,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
@@ -4002,7 +4098,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
@@ -4024,7 +4120,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
@@ -4046,7 +4142,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
@@ -4068,7 +4164,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
@@ -4090,7 +4186,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
@@ -4112,7 +4208,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
@@ -4134,7 +4230,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
@@ -4156,7 +4252,7 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
@@ -4178,7 +4274,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
@@ -4200,7 +4296,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
@@ -4222,7 +4318,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
@@ -4244,7 +4340,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
@@ -4266,7 +4362,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
@@ -4288,7 +4384,7 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
@@ -4310,7 +4406,7 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
@@ -4332,7 +4428,7 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
@@ -4354,7 +4450,7 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
@@ -4376,7 +4472,7 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
@@ -4398,7 +4494,7 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
@@ -4420,7 +4516,7 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
@@ -4442,7 +4538,7 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
@@ -4464,7 +4560,7 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
@@ -4486,7 +4582,7 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
@@ -4508,7 +4604,7 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
@@ -4530,7 +4626,7 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
@@ -4552,7 +4648,7 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
@@ -4574,7 +4670,7 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
@@ -4596,7 +4692,7 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
@@ -4618,7 +4714,7 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
@@ -4640,7 +4736,7 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
@@ -4662,7 +4758,7 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
@@ -4684,7 +4780,7 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
@@ -4706,7 +4802,7 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
@@ -4728,7 +4824,7 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
@@ -4750,7 +4846,7 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
@@ -4772,7 +4868,7 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
@@ -4794,7 +4890,7 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
@@ -4816,7 +4912,7 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
@@ -4838,7 +4934,7 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
@@ -4860,7 +4956,7 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
@@ -4882,7 +4978,7 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
@@ -4904,7 +5000,7 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
@@ -4926,7 +5022,7 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
@@ -4948,7 +5044,7 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
@@ -4971,6 +5067,7 @@
       <c r="T200" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/许愿墙.xlsx
+++ b/src/main/resources/许愿墙.xlsx
@@ -1,171 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\get_jobs\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ABB65E-F868-4E79-B240-3DD0AF089AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcMode="auto"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>你想找什么样的工作？</t>
-  </si>
-  <si>
-    <t>现在的状态是怎样的？</t>
-  </si>
-  <si>
-    <t>AI攻城狮</t>
-  </si>
-  <si>
-    <t>已找到！</t>
-  </si>
-  <si>
-    <t>Java+AI</t>
-  </si>
-  <si>
-    <t>在找</t>
-  </si>
-  <si>
-    <t>AI agent开发</t>
-  </si>
-  <si>
-    <t>Java实习</t>
-  </si>
-  <si>
-    <t>还没开始找</t>
-  </si>
-  <si>
-    <t>系统架构师</t>
-  </si>
-  <si>
-    <t>Go</t>
-  </si>
-  <si>
-    <t>前端攻城狮</t>
-  </si>
-  <si>
-    <t>AI+游戏开发</t>
-  </si>
-  <si>
-    <t>C++实习</t>
-  </si>
-  <si>
-    <t>后端开发</t>
-  </si>
-  <si>
-    <t>正确的路上</t>
-  </si>
-  <si>
-    <t>Java后端开发</t>
-  </si>
-  <si>
-    <t>在找实习的路上</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>找到了，但是通勤太远想跳槽</t>
-  </si>
-  <si>
-    <t>Frontend leader</t>
-  </si>
-  <si>
-    <t>找到了，但是没有work life balance</t>
-  </si>
-  <si>
-    <t>找到了，不满意</t>
-  </si>
-  <si>
-    <t>Java开发</t>
-  </si>
-  <si>
-    <t>再找</t>
-  </si>
-  <si>
-    <t>前端工程师</t>
-  </si>
-  <si>
-    <t>java开发</t>
-  </si>
-  <si>
-    <t>AI+前端工程师</t>
-  </si>
-  <si>
-    <t>C++开发</t>
-  </si>
-  <si>
-    <t>AI+Python</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在找</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF34C724"/>
+        <bgColor/>
       </patternFill>
     </fill>
   </fills>
@@ -231,30 +139,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -267,7 +175,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -562,28 +470,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="false" summaryRight="false"/>
   </sheetPr>
-  <dimension ref="A1:T200"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="32" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="4" t="str">
+        <v>你想找什么样的工作？</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
+      <c r="B1" s="4" t="str">
+        <v>现在的状态是怎样的？</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -604,12 +512,12 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
+    <row r="2">
+      <c r="A2" s="2" t="str">
+        <v>AI攻城狮</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+      <c r="B2" s="2" t="str">
+        <v>已找到！</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -630,12 +538,12 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
+    <row r="3">
+      <c r="A3" s="2" t="str">
+        <v>Java+AI</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
+      <c r="B3" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -656,12 +564,12 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
+    <row r="4">
+      <c r="A4" s="2" t="str">
+        <v>AI agent开发</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
+      <c r="B4" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -682,12 +590,12 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
+    <row r="5">
+      <c r="A5" s="2" t="str">
+        <v>Java实习</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
+      <c r="B5" s="2" t="str">
+        <v>还没开始找</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -708,12 +616,12 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
+    <row r="6">
+      <c r="A6" s="2" t="str">
+        <v>系统架构师</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
+      <c r="B6" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -734,12 +642,12 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
+    <row r="7">
+      <c r="A7" s="2" t="str">
+        <v>Go</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
+      <c r="B7" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -760,12 +668,12 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
+    <row r="8">
+      <c r="A8" s="2" t="str">
+        <v>前端攻城狮</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
+      <c r="B8" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -786,12 +694,12 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
+    <row r="9">
+      <c r="A9" s="2" t="str">
+        <v>AI+游戏开发</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
+      <c r="B9" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -812,12 +720,12 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
+    <row r="10">
+      <c r="A10" s="2" t="str">
+        <v>C++实习</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
+      <c r="B10" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -838,12 +746,12 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
+    <row r="11">
+      <c r="A11" s="2" t="str">
+        <v>后端开发</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
+      <c r="B11" s="2" t="str">
+        <v>正确的路上</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -864,12 +772,12 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
+    <row r="12">
+      <c r="A12" s="2" t="str">
+        <v>Java后端开发</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
+      <c r="B12" s="2" t="str">
+        <v>在找实习的路上</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -890,12 +798,12 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
+    <row r="13">
+      <c r="A13" s="2" t="str">
+        <v>Java</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
+      <c r="B13" s="2" t="str">
+        <v>找到了，但是通勤太远想跳槽</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -916,12 +824,12 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
+    <row r="14">
+      <c r="A14" s="2" t="str">
+        <v>Frontend leader</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
+      <c r="B14" s="2" t="str">
+        <v>找到了，但是没有work life balance</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -942,12 +850,12 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>18</v>
+    <row r="15">
+      <c r="A15" s="3" t="str">
+        <v>Java</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
+      <c r="B15" s="2" t="str">
+        <v>找到了，不满意</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -968,12 +876,12 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
+    <row r="16">
+      <c r="A16" s="2" t="str">
+        <v>Java开发</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
+      <c r="B16" s="2" t="str">
+        <v>再找</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -994,12 +902,12 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
+    <row r="17">
+      <c r="A17" s="2" t="str">
+        <v>前端工程师</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
+      <c r="B17" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1020,12 +928,12 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>26</v>
+    <row r="18">
+      <c r="A18" s="2" t="str">
+        <v>java开发</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
+      <c r="B18" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1046,12 +954,12 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>27</v>
+    <row r="19">
+      <c r="A19" s="2" t="str">
+        <v>AI+前端工程师</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>8</v>
+      <c r="B19" s="2" t="str">
+        <v>还没开始找</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1072,12 +980,12 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>28</v>
+    <row r="20">
+      <c r="A20" s="2" t="str">
+        <v>C++开发</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>5</v>
+      <c r="B20" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1098,12 +1006,12 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>10</v>
+    <row r="21">
+      <c r="A21" s="2" t="str">
+        <v>Go</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>5</v>
+      <c r="B21" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1124,12 +1032,12 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>29</v>
+    <row r="22">
+      <c r="A22" s="2" t="str">
+        <v>Go后端开发</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>30</v>
+      <c r="B22" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1150,9 +1058,13 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+    <row r="23">
+      <c r="A23" s="2" t="str">
+        <v>AI+后端工程师</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <v>还没开始找</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1172,9 +1084,13 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+    <row r="24">
+      <c r="A24" s="2" t="str">
+        <v>linux运维</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1194,9 +1110,13 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+    <row r="25">
+      <c r="A25" s="2" t="str">
+        <v>前端工程师</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1216,7 +1136,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
@@ -1238,7 +1158,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
@@ -1260,7 +1180,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
@@ -1282,7 +1202,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
@@ -1304,7 +1224,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
@@ -1326,7 +1246,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -1348,7 +1268,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
@@ -1370,7 +1290,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
@@ -1392,7 +1312,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
@@ -1414,7 +1334,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
@@ -1436,7 +1356,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
@@ -1458,7 +1378,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
@@ -1480,7 +1400,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
@@ -1502,7 +1422,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
@@ -1524,7 +1444,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
@@ -1546,7 +1466,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
@@ -1568,7 +1488,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
@@ -1590,7 +1510,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -1612,7 +1532,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -1634,7 +1554,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
@@ -1656,7 +1576,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
@@ -1678,7 +1598,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
@@ -1700,7 +1620,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
@@ -1722,7 +1642,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
@@ -1744,7 +1664,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
@@ -1766,7 +1686,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
@@ -1788,7 +1708,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
@@ -1810,7 +1730,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
@@ -1832,7 +1752,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
@@ -1854,7 +1774,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
@@ -1876,7 +1796,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
@@ -1898,7 +1818,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
@@ -1920,7 +1840,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
@@ -1942,7 +1862,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
@@ -1964,7 +1884,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
@@ -1986,7 +1906,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
@@ -2008,7 +1928,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
@@ -2030,7 +1950,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
@@ -2052,7 +1972,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
@@ -2074,7 +1994,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
@@ -2096,7 +2016,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
@@ -2118,7 +2038,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
@@ -2140,7 +2060,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
@@ -2162,7 +2082,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
@@ -2184,7 +2104,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
@@ -2206,7 +2126,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
@@ -2228,7 +2148,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
@@ -2250,7 +2170,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
@@ -2272,7 +2192,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -2294,7 +2214,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -2316,7 +2236,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -2338,7 +2258,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -2360,7 +2280,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -2382,7 +2302,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -2404,7 +2324,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -2426,7 +2346,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -2448,7 +2368,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -2470,7 +2390,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -2492,7 +2412,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -2514,7 +2434,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -2536,7 +2456,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -2558,7 +2478,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
@@ -2580,7 +2500,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -2602,7 +2522,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -2624,7 +2544,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -2646,7 +2566,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -2668,7 +2588,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -2690,7 +2610,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -2712,7 +2632,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -2734,7 +2654,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -2756,7 +2676,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -2778,7 +2698,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -2800,7 +2720,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -2822,7 +2742,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -2844,7 +2764,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -2866,7 +2786,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -2888,7 +2808,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -2910,7 +2830,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -2932,7 +2852,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -2954,7 +2874,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -2976,7 +2896,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -2998,7 +2918,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -3020,7 +2940,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -3042,7 +2962,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
@@ -3064,7 +2984,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
@@ -3086,7 +3006,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
@@ -3108,7 +3028,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
@@ -3130,7 +3050,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -3152,7 +3072,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -3174,7 +3094,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
@@ -3196,7 +3116,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
@@ -3218,7 +3138,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
@@ -3240,7 +3160,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
@@ -3262,7 +3182,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
@@ -3284,7 +3204,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
@@ -3306,7 +3226,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
@@ -3328,7 +3248,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
@@ -3350,7 +3270,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
@@ -3372,7 +3292,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
@@ -3394,7 +3314,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
@@ -3416,7 +3336,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
@@ -3438,7 +3358,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
@@ -3460,7 +3380,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
@@ -3482,7 +3402,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
@@ -3504,7 +3424,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
@@ -3526,7 +3446,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
@@ -3548,7 +3468,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
@@ -3570,7 +3490,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
@@ -3592,7 +3512,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
@@ -3614,7 +3534,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
@@ -3636,7 +3556,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
@@ -3658,7 +3578,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
@@ -3680,7 +3600,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
@@ -3702,7 +3622,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
@@ -3724,7 +3644,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
@@ -3746,7 +3666,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
@@ -3768,7 +3688,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
@@ -3790,7 +3710,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
@@ -3812,7 +3732,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
@@ -3834,7 +3754,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
@@ -3856,7 +3776,7 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
@@ -3878,7 +3798,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
@@ -3900,7 +3820,7 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
@@ -3922,7 +3842,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
@@ -3944,7 +3864,7 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
@@ -3966,7 +3886,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
@@ -3988,7 +3908,7 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
@@ -4010,7 +3930,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
@@ -4032,7 +3952,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
@@ -4054,7 +3974,7 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
@@ -4076,7 +3996,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
@@ -4098,7 +4018,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
@@ -4120,7 +4040,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
@@ -4142,7 +4062,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
@@ -4164,7 +4084,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
@@ -4186,7 +4106,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
@@ -4208,7 +4128,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
@@ -4230,7 +4150,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
@@ -4252,7 +4172,7 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
@@ -4274,7 +4194,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
@@ -4296,7 +4216,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
@@ -4318,7 +4238,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
@@ -4340,7 +4260,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
@@ -4362,7 +4282,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
@@ -4384,7 +4304,7 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
@@ -4406,7 +4326,7 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
@@ -4428,7 +4348,7 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
@@ -4450,7 +4370,7 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
@@ -4472,7 +4392,7 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
@@ -4494,7 +4414,7 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
@@ -4516,7 +4436,7 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
@@ -4538,7 +4458,7 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
@@ -4560,7 +4480,7 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
@@ -4582,7 +4502,7 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="179">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
@@ -4604,7 +4524,7 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
@@ -4626,7 +4546,7 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="181">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
@@ -4648,7 +4568,7 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
@@ -4670,7 +4590,7 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
@@ -4692,7 +4612,7 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="184">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
@@ -4714,7 +4634,7 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
@@ -4736,7 +4656,7 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="186">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
@@ -4758,7 +4678,7 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
@@ -4780,7 +4700,7 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="188">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
@@ -4802,7 +4722,7 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="189">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
@@ -4824,7 +4744,7 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="190">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
@@ -4846,7 +4766,7 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="191">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
@@ -4868,7 +4788,7 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
@@ -4890,7 +4810,7 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="193">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
@@ -4912,7 +4832,7 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
@@ -4934,7 +4854,7 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="195">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
@@ -4956,7 +4876,7 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="196">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
@@ -4978,7 +4898,7 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="197">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
@@ -5000,7 +4920,7 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="198">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
@@ -5022,7 +4942,7 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="199">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
@@ -5044,7 +4964,7 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="200">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
@@ -5067,7 +4987,7 @@
       <c r="T200" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <picture r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/许愿墙.xlsx
+++ b/src/main/resources/许愿墙.xlsx
@@ -1,79 +1,172 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FUQUANZN\Desktop\get_jobs2\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D38C95F-896E-4C1F-A8A4-5A1437D5DD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
-    <t xml:space="preserve">  </t>
+    <t>你想找什么样的工作？</t>
+  </si>
+  <si>
+    <t>现在的状态是怎样的？</t>
+  </si>
+  <si>
+    <t>AI攻城狮</t>
+  </si>
+  <si>
+    <t>已找到！</t>
+  </si>
+  <si>
+    <t>Java+AI</t>
+  </si>
+  <si>
+    <t>在找</t>
+  </si>
+  <si>
+    <t>AI agent开发</t>
+  </si>
+  <si>
+    <t>Java实习</t>
+  </si>
+  <si>
+    <t>还没开始找</t>
+  </si>
+  <si>
+    <t>系统架构师</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>前端攻城狮</t>
+  </si>
+  <si>
+    <t>AI+游戏开发</t>
+  </si>
+  <si>
+    <t>C++实习</t>
+  </si>
+  <si>
+    <t>后端开发</t>
+  </si>
+  <si>
+    <t>正确的路上</t>
+  </si>
+  <si>
+    <t>Java后端开发</t>
+  </si>
+  <si>
+    <t>在找实习的路上</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>找到了，但是通勤太远想跳槽</t>
+  </si>
+  <si>
+    <t>Frontend leader</t>
+  </si>
+  <si>
+    <t>找到了，但是没有work life balance</t>
+  </si>
+  <si>
+    <t>找到了，不满意</t>
+  </si>
+  <si>
+    <t>Java开发</t>
+  </si>
+  <si>
+    <t>再找</t>
+  </si>
+  <si>
+    <t>前端工程师</t>
+  </si>
+  <si>
+    <t>java开发</t>
+  </si>
+  <si>
+    <t>AI+前端工程师</t>
+  </si>
+  <si>
+    <t>C++开发</t>
+  </si>
+  <si>
+    <t>Go后端开发</t>
+  </si>
+  <si>
+    <t>AI+后端工程师</t>
+  </si>
+  <si>
+    <t>linux运维</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF34C724"/>
-        <bgColor/>
       </patternFill>
     </fill>
   </fills>
@@ -139,30 +232,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -175,7 +268,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -470,28 +563,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="32"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="str">
-        <v>你想找什么样的工作？</v>
-      </c>
-      <c r="B1" s="4" t="str">
-        <v>现在的状态是怎样的？</v>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -512,12 +605,12 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="str">
-        <v>AI攻城狮</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <v>已找到！</v>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -538,12 +631,12 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="str">
-        <v>Java+AI</v>
-      </c>
-      <c r="B3" s="2" t="str">
-        <v>在找</v>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -564,12 +657,12 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="str">
-        <v>AI agent开发</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <v>在找</v>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -590,12 +683,12 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="str">
-        <v>Java实习</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <v>还没开始找</v>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -616,12 +709,12 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="str">
-        <v>系统架构师</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <v>在找</v>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -642,12 +735,12 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="str">
-        <v>Go</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <v>在找</v>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -668,12 +761,12 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="str">
-        <v>前端攻城狮</v>
-      </c>
-      <c r="B8" s="2" t="str">
-        <v>在找</v>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -694,12 +787,12 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="str">
-        <v>AI+游戏开发</v>
-      </c>
-      <c r="B9" s="2" t="str">
-        <v>在找</v>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -720,12 +813,12 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="str">
-        <v>C++实习</v>
-      </c>
-      <c r="B10" s="2" t="str">
-        <v>在找</v>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -746,12 +839,12 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="str">
-        <v>后端开发</v>
-      </c>
-      <c r="B11" s="2" t="str">
-        <v>正确的路上</v>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -772,12 +865,12 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="str">
-        <v>Java后端开发</v>
-      </c>
-      <c r="B12" s="2" t="str">
-        <v>在找实习的路上</v>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -798,12 +891,12 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="str">
-        <v>Java</v>
-      </c>
-      <c r="B13" s="2" t="str">
-        <v>找到了，但是通勤太远想跳槽</v>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -824,12 +917,12 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="str">
-        <v>Frontend leader</v>
-      </c>
-      <c r="B14" s="2" t="str">
-        <v>找到了，但是没有work life balance</v>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -850,12 +943,12 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15">
-      <c r="A15" s="3" t="str">
-        <v>Java</v>
-      </c>
-      <c r="B15" s="2" t="str">
-        <v>找到了，不满意</v>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -876,12 +969,12 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="str">
-        <v>Java开发</v>
-      </c>
-      <c r="B16" s="2" t="str">
-        <v>再找</v>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -902,12 +995,12 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B17" s="2" t="str">
-        <v>在找</v>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -928,12 +1021,12 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="str">
-        <v>java开发</v>
-      </c>
-      <c r="B18" s="2" t="str">
-        <v>在找</v>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -954,12 +1047,12 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="str">
-        <v>AI+前端工程师</v>
-      </c>
-      <c r="B19" s="2" t="str">
-        <v>还没开始找</v>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -980,12 +1073,12 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="str">
-        <v>C++开发</v>
-      </c>
-      <c r="B20" s="2" t="str">
-        <v>在找</v>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1006,12 +1099,12 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="str">
-        <v>Go</v>
-      </c>
-      <c r="B21" s="2" t="str">
-        <v>在找</v>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1032,12 +1125,12 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="str">
-        <v>Go后端开发</v>
-      </c>
-      <c r="B22" s="2" t="str">
-        <v>在找</v>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1058,12 +1151,12 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="str">
-        <v>AI+后端工程师</v>
-      </c>
-      <c r="B23" s="2" t="str">
-        <v>还没开始找</v>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1084,12 +1177,12 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="str">
-        <v>linux运维</v>
-      </c>
-      <c r="B24" s="2" t="str">
-        <v>在找</v>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1110,12 +1203,12 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B25" s="2" t="str">
-        <v>在找</v>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1136,9 +1229,13 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1158,7 +1255,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
@@ -1180,7 +1277,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
@@ -1202,7 +1299,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
@@ -1224,7 +1321,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
@@ -1246,7 +1343,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -1268,7 +1365,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
@@ -1290,7 +1387,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
@@ -1312,7 +1409,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
@@ -1334,7 +1431,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
@@ -1356,7 +1453,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
@@ -1378,7 +1475,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
@@ -1400,7 +1497,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
@@ -1422,7 +1519,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
@@ -1444,7 +1541,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
@@ -1466,7 +1563,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
@@ -1488,7 +1585,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
@@ -1510,7 +1607,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -1532,7 +1629,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -1554,7 +1651,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
@@ -1576,7 +1673,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
@@ -1598,7 +1695,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
@@ -1620,7 +1717,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
@@ -1642,7 +1739,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
@@ -1664,7 +1761,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
@@ -1686,7 +1783,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
@@ -1708,7 +1805,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
@@ -1730,7 +1827,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
@@ -1752,7 +1849,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
@@ -1774,7 +1871,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
@@ -1796,7 +1893,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
@@ -1818,7 +1915,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
@@ -1840,7 +1937,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
@@ -1862,7 +1959,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
@@ -1884,7 +1981,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
@@ -1906,7 +2003,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
@@ -1928,7 +2025,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
@@ -1950,7 +2047,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
@@ -1972,7 +2069,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
@@ -1994,7 +2091,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
@@ -2016,7 +2113,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
@@ -2038,7 +2135,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
@@ -2060,7 +2157,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
@@ -2082,7 +2179,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
@@ -2104,7 +2201,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
@@ -2126,7 +2223,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
@@ -2148,7 +2245,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
@@ -2170,7 +2267,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
@@ -2192,7 +2289,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -2214,7 +2311,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -2236,7 +2333,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -2258,7 +2355,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -2280,7 +2377,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -2302,7 +2399,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -2324,7 +2421,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -2346,7 +2443,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -2368,7 +2465,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -2390,7 +2487,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -2412,7 +2509,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -2434,7 +2531,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -2456,7 +2553,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -2478,7 +2575,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
@@ -2500,7 +2597,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -2522,7 +2619,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -2544,7 +2641,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -2566,7 +2663,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -2588,7 +2685,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -2610,7 +2707,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -2632,7 +2729,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -2654,7 +2751,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -2676,7 +2773,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -2698,7 +2795,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -2720,7 +2817,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -2742,7 +2839,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -2764,7 +2861,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -2786,7 +2883,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -2808,7 +2905,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -2830,7 +2927,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -2852,7 +2949,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -2874,7 +2971,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -2896,7 +2993,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -2918,7 +3015,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -2940,7 +3037,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -2962,7 +3059,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
@@ -2984,7 +3081,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
@@ -3006,7 +3103,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
@@ -3028,7 +3125,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
@@ -3050,7 +3147,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -3072,7 +3169,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -3094,7 +3191,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
@@ -3116,7 +3213,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
@@ -3138,7 +3235,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
@@ -3160,7 +3257,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
@@ -3182,7 +3279,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
@@ -3204,7 +3301,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
@@ -3226,7 +3323,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
@@ -3248,7 +3345,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
@@ -3270,7 +3367,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
@@ -3292,7 +3389,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
@@ -3314,7 +3411,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
@@ -3336,7 +3433,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
@@ -3358,7 +3455,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
@@ -3380,7 +3477,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
@@ -3402,7 +3499,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
@@ -3424,7 +3521,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
@@ -3446,7 +3543,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
@@ -3468,7 +3565,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
@@ -3490,7 +3587,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
@@ -3512,7 +3609,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
@@ -3534,7 +3631,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
@@ -3556,7 +3653,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
@@ -3578,7 +3675,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
@@ -3600,7 +3697,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
@@ -3622,7 +3719,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
@@ -3644,7 +3741,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
@@ -3666,7 +3763,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
@@ -3688,7 +3785,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
@@ -3710,7 +3807,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
@@ -3732,7 +3829,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
@@ -3754,7 +3851,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
@@ -3776,7 +3873,7 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
@@ -3798,7 +3895,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
@@ -3820,7 +3917,7 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
@@ -3842,7 +3939,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
@@ -3864,7 +3961,7 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
@@ -3886,7 +3983,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
@@ -3908,7 +4005,7 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
@@ -3930,7 +4027,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
@@ -3952,7 +4049,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
@@ -3974,7 +4071,7 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
@@ -3996,7 +4093,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
@@ -4018,7 +4115,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
@@ -4040,7 +4137,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
@@ -4062,7 +4159,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
@@ -4084,7 +4181,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
@@ -4106,7 +4203,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
@@ -4128,7 +4225,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
@@ -4150,7 +4247,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
@@ -4172,7 +4269,7 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
@@ -4194,7 +4291,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
@@ -4216,7 +4313,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
@@ -4238,7 +4335,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
@@ -4260,7 +4357,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
@@ -4282,7 +4379,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
@@ -4304,7 +4401,7 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
@@ -4326,7 +4423,7 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
@@ -4348,7 +4445,7 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
@@ -4370,7 +4467,7 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
@@ -4392,7 +4489,7 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
@@ -4414,7 +4511,7 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
@@ -4436,7 +4533,7 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
@@ -4458,7 +4555,7 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
@@ -4480,7 +4577,7 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
@@ -4502,7 +4599,7 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
@@ -4524,7 +4621,7 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
@@ -4546,7 +4643,7 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
@@ -4568,7 +4665,7 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
@@ -4590,7 +4687,7 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
@@ -4612,7 +4709,7 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
@@ -4634,7 +4731,7 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
@@ -4656,7 +4753,7 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
@@ -4678,7 +4775,7 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
@@ -4700,7 +4797,7 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
@@ -4722,7 +4819,7 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
@@ -4744,7 +4841,7 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
@@ -4766,7 +4863,7 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
@@ -4788,7 +4885,7 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
@@ -4810,7 +4907,7 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
@@ -4832,7 +4929,7 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
@@ -4854,7 +4951,7 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
@@ -4876,7 +4973,7 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
@@ -4898,7 +4995,7 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
@@ -4920,7 +5017,7 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
@@ -4942,7 +5039,7 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
@@ -4964,7 +5061,7 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
@@ -4987,7 +5084,8 @@
       <c r="T200" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <picture r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/许愿墙.xlsx
+++ b/src/main/resources/许愿墙.xlsx
@@ -1,172 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FUQUANZN\Desktop\get_jobs2\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D38C95F-896E-4C1F-A8A4-5A1437D5DD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcMode="auto"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>你想找什么样的工作？</t>
-  </si>
-  <si>
-    <t>现在的状态是怎样的？</t>
-  </si>
-  <si>
-    <t>AI攻城狮</t>
-  </si>
-  <si>
-    <t>已找到！</t>
-  </si>
-  <si>
-    <t>Java+AI</t>
-  </si>
-  <si>
-    <t>在找</t>
-  </si>
-  <si>
-    <t>AI agent开发</t>
-  </si>
-  <si>
-    <t>Java实习</t>
-  </si>
-  <si>
-    <t>还没开始找</t>
-  </si>
-  <si>
-    <t>系统架构师</t>
-  </si>
-  <si>
-    <t>Go</t>
-  </si>
-  <si>
-    <t>前端攻城狮</t>
-  </si>
-  <si>
-    <t>AI+游戏开发</t>
-  </si>
-  <si>
-    <t>C++实习</t>
-  </si>
-  <si>
-    <t>后端开发</t>
-  </si>
-  <si>
-    <t>正确的路上</t>
-  </si>
-  <si>
-    <t>Java后端开发</t>
-  </si>
-  <si>
-    <t>在找实习的路上</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>找到了，但是通勤太远想跳槽</t>
-  </si>
-  <si>
-    <t>Frontend leader</t>
-  </si>
-  <si>
-    <t>找到了，但是没有work life balance</t>
-  </si>
-  <si>
-    <t>找到了，不满意</t>
-  </si>
-  <si>
-    <t>Java开发</t>
-  </si>
-  <si>
-    <t>再找</t>
-  </si>
-  <si>
-    <t>前端工程师</t>
-  </si>
-  <si>
-    <t>java开发</t>
-  </si>
-  <si>
-    <t>AI+前端工程师</t>
-  </si>
-  <si>
-    <t>C++开发</t>
-  </si>
-  <si>
-    <t>Go后端开发</t>
-  </si>
-  <si>
-    <t>AI+后端工程师</t>
-  </si>
-  <si>
-    <t>linux运维</t>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF34C724"/>
+        <bgColor/>
       </patternFill>
     </fill>
   </fills>
@@ -232,30 +139,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -268,7 +175,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -563,28 +470,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="false" summaryRight="false"/>
   </sheetPr>
-  <dimension ref="A1:T200"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="32" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="74"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" s="4" t="str">
+        <v>你想找什么样的工作？</v>
+      </c>
+      <c r="B1" s="4" t="str">
+        <v>现在的状态是怎样的？</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -605,12 +512,12 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+    <row r="2">
+      <c r="A2" s="2" t="str">
+        <v>AI攻城狮</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <v>已找到！</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -631,12 +538,12 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
+    <row r="3">
+      <c r="A3" s="2" t="str">
+        <v>Java+AI</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -657,12 +564,12 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
+    <row r="4">
+      <c r="A4" s="2" t="str">
+        <v>AI agent开发</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -683,12 +590,12 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
+    <row r="5">
+      <c r="A5" s="2" t="str">
+        <v>Java实习</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <v>还没开始找</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -709,12 +616,12 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
+    <row r="6">
+      <c r="A6" s="2" t="str">
+        <v>系统架构师</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -735,12 +642,12 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
+    <row r="7">
+      <c r="A7" s="2" t="str">
+        <v>Go</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -761,12 +668,12 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
+    <row r="8">
+      <c r="A8" s="2" t="str">
+        <v>前端攻城狮</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -787,12 +694,12 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
+    <row r="9">
+      <c r="A9" s="2" t="str">
+        <v>AI+游戏开发</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -813,12 +720,12 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
+    <row r="10">
+      <c r="A10" s="2" t="str">
+        <v>C++实习</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -839,12 +746,12 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
+    <row r="11">
+      <c r="A11" s="2" t="str">
+        <v>后端开发</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <v>正确的路上</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -865,12 +772,12 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
+    <row r="12">
+      <c r="A12" s="2" t="str">
+        <v>Java后端开发</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <v>在找实习的路上</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -891,12 +798,12 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
+    <row r="13">
+      <c r="A13" s="2" t="str">
+        <v>Java</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <v>找到了，但是通勤太远想跳槽</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -917,12 +824,12 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
+    <row r="14">
+      <c r="A14" s="2" t="str">
+        <v>Frontend leader</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <v>找到了，但是没有work life balance</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -943,12 +850,12 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
+    <row r="15">
+      <c r="A15" s="3" t="str">
+        <v>Java</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <v>找到了，不满意</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -969,12 +876,12 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
+    <row r="16">
+      <c r="A16" s="2" t="str">
+        <v>Java开发</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <v>再找</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -995,12 +902,12 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
+    <row r="17">
+      <c r="A17" s="2" t="str">
+        <v>前端工程师</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1021,12 +928,12 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
+    <row r="18">
+      <c r="A18" s="2" t="str">
+        <v>java开发</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1047,12 +954,12 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>8</v>
+    <row r="19">
+      <c r="A19" s="2" t="str">
+        <v>AI+前端工程师</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <v>还没开始找</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1073,12 +980,12 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>5</v>
+    <row r="20">
+      <c r="A20" s="2" t="str">
+        <v>C++开发</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1099,12 +1006,12 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>5</v>
+    <row r="21">
+      <c r="A21" s="2" t="str">
+        <v>Go</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1125,12 +1032,12 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>5</v>
+    <row r="22">
+      <c r="A22" s="2" t="str">
+        <v>Go后端开发</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1151,12 +1058,12 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>8</v>
+    <row r="23">
+      <c r="A23" s="2" t="str">
+        <v>AI+后端工程师</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <v>还没开始找</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1177,12 +1084,12 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>5</v>
+    <row r="24">
+      <c r="A24" s="2" t="str">
+        <v>linux运维</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1203,12 +1110,12 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>5</v>
+    <row r="25">
+      <c r="A25" s="2" t="str">
+        <v>前端工程师</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1229,12 +1136,12 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>5</v>
+    <row r="26">
+      <c r="A26" s="2" t="str">
+        <v>前端工程师</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <v>还没开始找</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1255,9 +1162,13 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+    <row r="27">
+      <c r="A27" s="2" t="str">
+        <v>java开发</v>
+      </c>
+      <c r="B27" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1277,9 +1188,13 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+    <row r="28">
+      <c r="A28" s="2" t="str">
+        <v>AI+嵌入式</v>
+      </c>
+      <c r="B28" s="2" t="str">
+        <v>再找</v>
+      </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1299,9 +1214,13 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+    <row r="29">
+      <c r="A29" s="2" t="str">
+        <v>财务主管</v>
+      </c>
+      <c r="B29" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1321,9 +1240,13 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+    <row r="30">
+      <c r="A30" s="2" t="str">
+        <v>后端开发</v>
+      </c>
+      <c r="B30" s="2" t="str">
+        <v>在学习的路上</v>
+      </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1343,9 +1266,13 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+    <row r="31">
+      <c r="A31" s="2" t="str">
+        <v>去年7月用这个项目找到了第一份工作，现在再次回来，希望跳槽找一份AI售前的工作</v>
+      </c>
+      <c r="B31" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1365,9 +1292,13 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+    <row r="32">
+      <c r="A32" s="2" t="str">
+        <v>前端工程师</v>
+      </c>
+      <c r="B32" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1387,9 +1318,13 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+    <row r="33">
+      <c r="A33" s="2" t="str">
+        <v>Java开发</v>
+      </c>
+      <c r="B33" s="2" t="str">
+        <v>准备跳槽</v>
+      </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1409,9 +1344,13 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+    <row r="34">
+      <c r="A34" s="2" t="str">
+        <v>Java开发，有完善的晋升制度</v>
+      </c>
+      <c r="B34" s="2" t="str">
+        <v>准备跳槽</v>
+      </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1431,7 +1370,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
@@ -1453,7 +1392,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
@@ -1475,7 +1414,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
@@ -1497,7 +1436,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
@@ -1519,7 +1458,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
@@ -1541,7 +1480,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
@@ -1563,7 +1502,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
@@ -1585,7 +1524,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
@@ -1607,7 +1546,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -1629,7 +1568,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -1651,7 +1590,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
@@ -1673,7 +1612,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
@@ -1695,7 +1634,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
@@ -1717,7 +1656,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
@@ -1739,7 +1678,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
@@ -1761,7 +1700,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
@@ -1783,7 +1722,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
@@ -1805,7 +1744,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
@@ -1827,7 +1766,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
@@ -1849,7 +1788,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
@@ -1871,7 +1810,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
@@ -1893,7 +1832,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
@@ -1915,7 +1854,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
@@ -1937,7 +1876,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
@@ -1959,7 +1898,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
@@ -1981,7 +1920,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
@@ -2003,7 +1942,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
@@ -2025,7 +1964,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
@@ -2047,7 +1986,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
@@ -2069,7 +2008,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
@@ -2091,7 +2030,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
@@ -2113,7 +2052,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
@@ -2135,7 +2074,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
@@ -2157,7 +2096,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
@@ -2179,7 +2118,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
@@ -2201,7 +2140,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
@@ -2223,7 +2162,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
@@ -2245,7 +2184,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
@@ -2267,7 +2206,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
@@ -2289,7 +2228,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -2311,7 +2250,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -2333,7 +2272,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -2355,7 +2294,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -2377,7 +2316,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -2399,7 +2338,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -2421,7 +2360,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -2443,7 +2382,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -2465,7 +2404,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -2487,7 +2426,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -2509,7 +2448,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -2531,7 +2470,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -2553,7 +2492,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -2575,7 +2514,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
@@ -2597,7 +2536,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -2619,7 +2558,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -2641,7 +2580,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -2663,7 +2602,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -2685,7 +2624,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -2707,7 +2646,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -2729,7 +2668,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -2751,7 +2690,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -2773,7 +2712,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -2795,7 +2734,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -2817,7 +2756,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -2839,7 +2778,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -2861,7 +2800,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -2883,7 +2822,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -2905,7 +2844,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="102">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -2927,7 +2866,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="103">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -2949,7 +2888,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="104">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -2971,7 +2910,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="105">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -2993,7 +2932,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="106">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -3015,7 +2954,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="107">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -3037,7 +2976,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="108">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -3059,7 +2998,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="109">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
@@ -3081,7 +3020,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="110">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
@@ -3103,7 +3042,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="111">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
@@ -3125,7 +3064,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="112">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
@@ -3147,7 +3086,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="113">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -3169,7 +3108,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="114">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -3191,7 +3130,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="115">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
@@ -3213,7 +3152,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="116">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
@@ -3235,7 +3174,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="117">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
@@ -3257,7 +3196,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="118">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
@@ -3279,7 +3218,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="119">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
@@ -3301,7 +3240,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="120">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
@@ -3323,7 +3262,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="121">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
@@ -3345,7 +3284,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="122">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
@@ -3367,7 +3306,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="123">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
@@ -3389,7 +3328,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="124">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
@@ -3411,7 +3350,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="125">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
@@ -3433,7 +3372,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="126">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
@@ -3455,7 +3394,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="127">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
@@ -3477,7 +3416,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="128">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
@@ -3499,7 +3438,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="129">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
@@ -3521,7 +3460,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="130">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
@@ -3543,7 +3482,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="131">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
@@ -3565,7 +3504,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="132">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
@@ -3587,7 +3526,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="133">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
@@ -3609,7 +3548,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="134">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
@@ -3631,7 +3570,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="135">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
@@ -3653,7 +3592,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="136">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
@@ -3675,7 +3614,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="137">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
@@ -3697,7 +3636,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="138">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
@@ -3719,7 +3658,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="139">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
@@ -3741,7 +3680,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="140">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
@@ -3763,7 +3702,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="141">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
@@ -3785,7 +3724,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="142">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
@@ -3807,7 +3746,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="143">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
@@ -3829,7 +3768,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="144">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
@@ -3851,7 +3790,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="145">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
@@ -3873,7 +3812,7 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="146">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
@@ -3895,7 +3834,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="147">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
@@ -3917,7 +3856,7 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="148">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
@@ -3939,7 +3878,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="149">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
@@ -3961,7 +3900,7 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="150">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
@@ -3983,7 +3922,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="151">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
@@ -4005,7 +3944,7 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="152">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
@@ -4027,7 +3966,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="153">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
@@ -4049,7 +3988,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="154">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
@@ -4071,7 +4010,7 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="155">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
@@ -4093,7 +4032,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="156">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
@@ -4115,7 +4054,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="157">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
@@ -4137,7 +4076,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="158">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
@@ -4159,7 +4098,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="159">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
@@ -4181,7 +4120,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="160">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
@@ -4203,7 +4142,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="161">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
@@ -4225,7 +4164,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="162">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
@@ -4247,7 +4186,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="163">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
@@ -4269,7 +4208,7 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="164">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
@@ -4291,7 +4230,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="165">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
@@ -4313,7 +4252,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="166">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
@@ -4335,7 +4274,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="167">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
@@ -4357,7 +4296,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="168">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
@@ -4379,7 +4318,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="169">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
@@ -4401,7 +4340,7 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="170">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
@@ -4423,7 +4362,7 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="171">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
@@ -4445,7 +4384,7 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="172">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
@@ -4467,7 +4406,7 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="173">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
@@ -4489,7 +4428,7 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="174">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
@@ -4511,7 +4450,7 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="175">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
@@ -4533,7 +4472,7 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="176">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
@@ -4555,7 +4494,7 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="177">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
@@ -4577,7 +4516,7 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="178">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
@@ -4599,7 +4538,7 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="179">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
@@ -4621,7 +4560,7 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="180">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
@@ -4643,7 +4582,7 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="181">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
@@ -4665,7 +4604,7 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="182">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
@@ -4687,7 +4626,7 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="183">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
@@ -4709,7 +4648,7 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="184">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
@@ -4731,7 +4670,7 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="185">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
@@ -4753,7 +4692,7 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="186">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
@@ -4775,7 +4714,7 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="187">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
@@ -4797,7 +4736,7 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="188">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
@@ -4819,7 +4758,7 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="189">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
@@ -4841,7 +4780,7 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="190">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
@@ -4863,7 +4802,7 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="191">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
@@ -4885,7 +4824,7 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="192">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
@@ -4907,7 +4846,7 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="193">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
@@ -4929,7 +4868,7 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="194">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
@@ -4951,7 +4890,7 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="195">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
@@ -4973,7 +4912,7 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="196">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
@@ -4995,7 +4934,7 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="197">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
@@ -5017,7 +4956,7 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="198">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
@@ -5039,7 +4978,7 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="199">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
@@ -5061,7 +5000,7 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="200">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
@@ -5084,8 +5023,6 @@
       <c r="T200" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <picture r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/许愿墙.xlsx
+++ b/src/main/resources/许愿墙.xlsx
@@ -111,13 +111,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF1F2329"/>
       </left>
@@ -145,6 +138,13 @@
       <bottom style="thin">
         <color rgb="FF1F2329"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -176,13 +176,13 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="6" fillId="0" fontId="1" numFmtId="164" xfId="0">
@@ -518,10 +518,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="str">
+      <c r="A1" s="3" t="str">
         <v>你想找什么样的工作？</v>
       </c>
-      <c r="B1" s="5" t="str">
+      <c r="B1" s="3" t="str">
         <v>现在的状态是怎样的？</v>
       </c>
       <c r="C1" s="1"/>
@@ -1513,24 +1513,24 @@
       <c r="B39" s="2" t="str">
         <v>在找</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="str">
@@ -1923,8 +1923,12 @@
       <c r="T54" s="1"/>
     </row>
     <row r="55">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
+      <c r="A55" s="2" t="str">
+        <v>ai产品</v>
+      </c>
+      <c r="B55" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1945,8 +1949,12 @@
       <c r="T55" s="1"/>
     </row>
     <row r="56">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
+      <c r="A56" s="2" t="str">
+        <v>ai产品</v>
+      </c>
+      <c r="B56" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -1967,8 +1975,12 @@
       <c r="T56" s="1"/>
     </row>
     <row r="57">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
+      <c r="A57" s="2" t="str">
+        <v>数据开发+ai</v>
+      </c>
+      <c r="B57" s="2" t="str">
+        <v>失业了在找</v>
+      </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -1989,8 +2001,12 @@
       <c r="T57" s="1"/>
     </row>
     <row r="58">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
+      <c r="A58" s="2" t="str">
+        <v>AI+JAVA</v>
+      </c>
+      <c r="B58" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -2011,8 +2027,12 @@
       <c r="T58" s="1"/>
     </row>
     <row r="59">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
+      <c r="A59" s="2" t="str">
+        <v>Java实习</v>
+      </c>
+      <c r="B59" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -2033,8 +2053,13 @@
       <c r="T59" s="1"/>
     </row>
     <row r="60">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
+      <c r="A60" s="2" t="str">
+        <v>前端工程师</v>
+      </c>
+      <c r="B60" s="2" t="str">
+        <v>大专，前端工程师，空窗创业，gap一年半😁，找了内推看看机会
+保持学习，看下金九银十有没机会了</v>
+      </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -2055,8 +2080,12 @@
       <c r="T60" s="1"/>
     </row>
     <row r="61">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
+      <c r="A61" s="2" t="str">
+        <v>AI产品</v>
+      </c>
+      <c r="B61" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -2077,8 +2106,12 @@
       <c r="T61" s="1"/>
     </row>
     <row r="62">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
+      <c r="A62" s="2" t="str">
+        <v>Java秋招</v>
+      </c>
+      <c r="B62" s="2" t="str">
+        <v>目前实习，在改简历背八股准备秋招！！！</v>
+      </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -2099,8 +2132,12 @@
       <c r="T62" s="1"/>
     </row>
     <row r="63">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
+      <c r="A63" s="2" t="str">
+        <v>大厂的产品岗_26届秋招</v>
+      </c>
+      <c r="B63" s="2" t="str">
+        <v>应届生正在进行中</v>
+      </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -2121,8 +2158,12 @@
       <c r="T63" s="1"/>
     </row>
     <row r="64">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
+      <c r="A64" s="2" t="str">
+        <v>双休、Java</v>
+      </c>
+      <c r="B64" s="2" t="str">
+        <v>25应届摆烂仔正在行动</v>
+      </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -2165,8 +2206,12 @@
       <c r="T65" s="1"/>
     </row>
     <row r="66">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
+      <c r="A66" s="2" t="str">
+        <v>嵌入式Ai</v>
+      </c>
+      <c r="B66" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -2187,8 +2232,12 @@
       <c r="T66" s="1"/>
     </row>
     <row r="67">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
+      <c r="A67" s="2" t="str">
+        <v>全栈架构师 研发经理</v>
+      </c>
+      <c r="B67" s="2" t="str">
+        <v>被裁再找,改好了简历</v>
+      </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -2209,8 +2258,12 @@
       <c r="T67" s="1"/>
     </row>
     <row r="68">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
+      <c r="A68" s="2" t="str">
+        <v>AI产品</v>
+      </c>
+      <c r="B68" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -2231,8 +2284,12 @@
       <c r="T68" s="1"/>
     </row>
     <row r="69">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
+      <c r="A69" s="2" t="str">
+        <v>AI应用开发</v>
+      </c>
+      <c r="B69" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -2253,8 +2310,12 @@
       <c r="T69" s="1"/>
     </row>
     <row r="70">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
+      <c r="A70" s="2" t="str">
+        <v>网络安全</v>
+      </c>
+      <c r="B70" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -2275,8 +2336,12 @@
       <c r="T70" s="1"/>
     </row>
     <row r="71">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
+      <c r="A71" s="2" t="str">
+        <v>java开发</v>
+      </c>
+      <c r="B71" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -2297,8 +2362,12 @@
       <c r="T71" s="1"/>
     </row>
     <row r="72">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
+      <c r="A72" s="2" t="str">
+        <v>嵌入式/硬件测试</v>
+      </c>
+      <c r="B72" s="2" t="str">
+        <v>25届毕业生在狂卷</v>
+      </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -2319,8 +2388,12 @@
       <c r="T72" s="1"/>
     </row>
     <row r="73">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
+      <c r="A73" s="2" t="str">
+        <v>Java 中厂</v>
+      </c>
+      <c r="B73" s="2" t="str">
+        <v>刚找到实习，现在边实习边秋招</v>
+      </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>

--- a/src/main/resources/许愿墙.xlsx
+++ b/src/main/resources/许愿墙.xlsx
@@ -111,13 +111,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF1F2329"/>
       </left>
@@ -162,6 +155,13 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -176,16 +176,16 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="6" fillId="0" fontId="1" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -518,10 +518,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="str">
+      <c r="A1" s="3" t="str">
         <v>你想找什么样的工作？</v>
       </c>
-      <c r="B1" s="5" t="str">
+      <c r="B1" s="3" t="str">
         <v>现在的状态是怎样的？</v>
       </c>
       <c r="C1" s="1"/>
@@ -882,7 +882,7 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="str">
+      <c r="A15" s="5" t="str">
         <v>Java</v>
       </c>
       <c r="B15" s="2" t="str">
@@ -1507,30 +1507,30 @@
       <c r="T38" s="1"/>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="str">
+      <c r="A39" s="5" t="str">
         <v>AI+后端工程师</v>
       </c>
       <c r="B39" s="2" t="str">
         <v>在找</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="str">
@@ -1715,7 +1715,7 @@
       <c r="T46" s="1"/>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="str">
+      <c r="A47" s="4" t="str">
         <v>运维开发</v>
       </c>
       <c r="B47" s="2" t="str">
@@ -1923,8 +1923,12 @@
       <c r="T54" s="1"/>
     </row>
     <row r="55">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
+      <c r="A55" s="2" t="str">
+        <v>ai产品</v>
+      </c>
+      <c r="B55" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1945,8 +1949,12 @@
       <c r="T55" s="1"/>
     </row>
     <row r="56">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
+      <c r="A56" s="2" t="str">
+        <v>ai产品</v>
+      </c>
+      <c r="B56" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -1967,8 +1975,12 @@
       <c r="T56" s="1"/>
     </row>
     <row r="57">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
+      <c r="A57" s="2" t="str">
+        <v>数据开发+ai</v>
+      </c>
+      <c r="B57" s="2" t="str">
+        <v>失业了在找</v>
+      </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -1989,8 +2001,12 @@
       <c r="T57" s="1"/>
     </row>
     <row r="58">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
+      <c r="A58" s="2" t="str">
+        <v>AI+JAVA</v>
+      </c>
+      <c r="B58" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -2011,8 +2027,12 @@
       <c r="T58" s="1"/>
     </row>
     <row r="59">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
+      <c r="A59" s="2" t="str">
+        <v>Java实习</v>
+      </c>
+      <c r="B59" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -2033,8 +2053,13 @@
       <c r="T59" s="1"/>
     </row>
     <row r="60">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
+      <c r="A60" s="2" t="str">
+        <v>前端工程师</v>
+      </c>
+      <c r="B60" s="2" t="str">
+        <v>大专，前端工程师，空窗创业，gap一年半😁，找了内推看看机会
+保持学习，看下金九银十有没机会了</v>
+      </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -2055,8 +2080,12 @@
       <c r="T60" s="1"/>
     </row>
     <row r="61">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
+      <c r="A61" s="2" t="str">
+        <v>AI产品</v>
+      </c>
+      <c r="B61" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -2077,8 +2106,12 @@
       <c r="T61" s="1"/>
     </row>
     <row r="62">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
+      <c r="A62" s="2" t="str">
+        <v>Java秋招</v>
+      </c>
+      <c r="B62" s="2" t="str">
+        <v>目前实习，在改简历背八股准备秋招！！！</v>
+      </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -2099,8 +2132,12 @@
       <c r="T62" s="1"/>
     </row>
     <row r="63">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
+      <c r="A63" s="2" t="str">
+        <v>大厂的产品岗_26届秋招</v>
+      </c>
+      <c r="B63" s="2" t="str">
+        <v>应届生正在进行中</v>
+      </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -2121,8 +2158,12 @@
       <c r="T63" s="1"/>
     </row>
     <row r="64">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
+      <c r="A64" s="2" t="str">
+        <v>双休、Java</v>
+      </c>
+      <c r="B64" s="2" t="str">
+        <v>25应届摆烂仔正在行动</v>
+      </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -2143,8 +2184,12 @@
       <c r="T64" s="1"/>
     </row>
     <row r="65">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
+      <c r="A65" s="2" t="str" xml:space="preserve">
+        <v>AI + JAVA </v>
+      </c>
+      <c r="B65" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -2165,8 +2210,12 @@
       <c r="T65" s="1"/>
     </row>
     <row r="66">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
+      <c r="A66" s="2" t="str">
+        <v>嵌入式Ai</v>
+      </c>
+      <c r="B66" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -2187,8 +2236,12 @@
       <c r="T66" s="1"/>
     </row>
     <row r="67">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
+      <c r="A67" s="2" t="str">
+        <v>全栈架构师 研发经理</v>
+      </c>
+      <c r="B67" s="2" t="str">
+        <v>被裁再找,改好了简历</v>
+      </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -2209,8 +2262,12 @@
       <c r="T67" s="1"/>
     </row>
     <row r="68">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
+      <c r="A68" s="2" t="str">
+        <v>AI产品</v>
+      </c>
+      <c r="B68" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -2231,8 +2288,12 @@
       <c r="T68" s="1"/>
     </row>
     <row r="69">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
+      <c r="A69" s="2" t="str">
+        <v>AI应用开发</v>
+      </c>
+      <c r="B69" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -2253,8 +2314,12 @@
       <c r="T69" s="1"/>
     </row>
     <row r="70">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
+      <c r="A70" s="2" t="str">
+        <v>网络安全</v>
+      </c>
+      <c r="B70" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -2275,8 +2340,12 @@
       <c r="T70" s="1"/>
     </row>
     <row r="71">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
+      <c r="A71" s="2" t="str">
+        <v>java开发</v>
+      </c>
+      <c r="B71" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -2297,8 +2366,12 @@
       <c r="T71" s="1"/>
     </row>
     <row r="72">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
+      <c r="A72" s="2" t="str">
+        <v>嵌入式/硬件测试</v>
+      </c>
+      <c r="B72" s="2" t="str">
+        <v>25届毕业生在狂卷</v>
+      </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -2319,8 +2392,12 @@
       <c r="T72" s="1"/>
     </row>
     <row r="73">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
+      <c r="A73" s="2" t="str">
+        <v>Java 中厂</v>
+      </c>
+      <c r="B73" s="2" t="str">
+        <v>刚找到实习，现在边实习边秋招</v>
+      </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -2341,8 +2418,12 @@
       <c r="T73" s="1"/>
     </row>
     <row r="74">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
+      <c r="A74" s="2" t="str">
+        <v>Java+AI</v>
+      </c>
+      <c r="B74" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -2363,8 +2444,12 @@
       <c r="T74" s="1"/>
     </row>
     <row r="75">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
+      <c r="A75" s="2" t="str">
+        <v>AIGC相关后端或全栈</v>
+      </c>
+      <c r="B75" s="2" t="str">
+        <v>开始找第一天</v>
+      </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>

--- a/src/main/resources/许愿墙.xlsx
+++ b/src/main/resources/许愿墙.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView windowWidth="29868" windowHeight="15300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -25,91 +27,646 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">  </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="84">
+  <si>
+    <t>你想找什么样的工作？</t>
+  </si>
+  <si>
+    <t>现在的状态是怎样的？</t>
+  </si>
+  <si>
+    <t>AI攻城狮</t>
+  </si>
+  <si>
+    <t>已找到！</t>
+  </si>
+  <si>
+    <t>Java+AI</t>
+  </si>
+  <si>
+    <t>在找</t>
+  </si>
+  <si>
+    <t>AI agent开发</t>
+  </si>
+  <si>
+    <t>Java实习</t>
+  </si>
+  <si>
+    <t>还没开始找</t>
+  </si>
+  <si>
+    <t>系统架构师</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>前端攻城狮</t>
+  </si>
+  <si>
+    <t>AI+游戏开发</t>
+  </si>
+  <si>
+    <t>C++实习</t>
+  </si>
+  <si>
+    <t>后端开发</t>
+  </si>
+  <si>
+    <t>正确的路上</t>
+  </si>
+  <si>
+    <t>Java后端开发</t>
+  </si>
+  <si>
+    <t>在找实习的路上</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>找到了，但是通勤太远想跳槽</t>
+  </si>
+  <si>
+    <t>Frontend leader</t>
+  </si>
+  <si>
+    <t>找到了，但是没有work life balance</t>
+  </si>
+  <si>
+    <t>找到了，不满意</t>
+  </si>
+  <si>
+    <t>Java开发</t>
+  </si>
+  <si>
+    <t>再找</t>
+  </si>
+  <si>
+    <t>前端工程师</t>
+  </si>
+  <si>
+    <t>java开发</t>
+  </si>
+  <si>
+    <t>AI+前端工程师</t>
+  </si>
+  <si>
+    <t>C++开发</t>
+  </si>
+  <si>
+    <t>Go后端开发</t>
+  </si>
+  <si>
+    <t>AI+后端工程师</t>
+  </si>
+  <si>
+    <t>linux运维</t>
+  </si>
+  <si>
+    <t>AI+嵌入式</t>
+  </si>
+  <si>
+    <t>财务主管</t>
+  </si>
+  <si>
+    <t>在学习的路上</t>
+  </si>
+  <si>
+    <t>去年7月用这个项目找到了第一份工作，现在再次回来，希望跳槽找一份AI售前的工作</t>
+  </si>
+  <si>
+    <t>准备跳槽</t>
+  </si>
+  <si>
+    <t>Java开发，有完善的晋升制度</t>
+  </si>
+  <si>
+    <t>前端开发</t>
+  </si>
+  <si>
+    <t>找到了，兄弟们加油。对于前端这块简历一定要吹牛逼写好，
+面试前真的要背好八股和场景，或者找不想去的公司练练手，准备好了之后再冲刺</t>
+  </si>
+  <si>
+    <t>正在找</t>
+  </si>
+  <si>
+    <t>C#开发</t>
+  </si>
+  <si>
+    <t>dotnet开发，base 成都</t>
+  </si>
+  <si>
+    <t>JAVA开发，base太原</t>
+  </si>
+  <si>
+    <t>前端开发，base上海</t>
+  </si>
+  <si>
+    <t>测试开发</t>
+  </si>
+  <si>
+    <t>运维开发</t>
+  </si>
+  <si>
+    <t>找到了，要去当牛马了，后续准备做独立开发</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 渗透测试工程师</t>
+  </si>
+  <si>
+    <t>应届在找</t>
+  </si>
+  <si>
+    <t>IT审计/数据分析/财务BP</t>
+  </si>
+  <si>
+    <t>AI应用开发</t>
+  </si>
+  <si>
+    <t>设计师</t>
+  </si>
+  <si>
+    <t>Java开发/海外仓销售</t>
+  </si>
+  <si>
+    <t>ai产品</t>
+  </si>
+  <si>
+    <t>数据开发+ai</t>
+  </si>
+  <si>
+    <t>失业了在找</t>
+  </si>
+  <si>
+    <t>AI+JAVA</t>
+  </si>
+  <si>
+    <t>大专，前端工程师，空窗创业，gap一年半😁，找了内推看看机会
+保持学习，看下金九银十有没机会了</t>
+  </si>
+  <si>
+    <t>AI产品</t>
+  </si>
+  <si>
+    <t>Java秋招</t>
+  </si>
+  <si>
+    <t>目前实习，在改简历背八股准备秋招！！！</t>
+  </si>
+  <si>
+    <t>大厂的产品岗_26届秋招</t>
+  </si>
+  <si>
+    <t>应届生正在进行中</t>
+  </si>
+  <si>
+    <t>双休、Java</t>
+  </si>
+  <si>
+    <t>25应届摆烂仔正在行动</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI + JAVA </t>
+  </si>
+  <si>
+    <t>嵌入式Ai</t>
+  </si>
+  <si>
+    <t>全栈架构师 研发经理</t>
+  </si>
+  <si>
+    <t>被裁再找,改好了简历</t>
+  </si>
+  <si>
+    <t>网络安全</t>
+  </si>
+  <si>
+    <t>嵌入式/硬件测试</t>
+  </si>
+  <si>
+    <t>25届毕业生在狂卷</t>
+  </si>
+  <si>
+    <t>Java 中厂</t>
+  </si>
+  <si>
+    <t>刚找到实习，现在边实习边秋招</t>
+  </si>
+  <si>
+    <t>AIGC相关后端或全栈</t>
+  </si>
+  <si>
+    <t>开始找第一天</t>
+  </si>
+  <si>
+    <t>AIGC相关后端或全栈/量化交易员</t>
+  </si>
+  <si>
+    <t>在找，之前上过大厂班，不适应，后续我想做独立开发</t>
+  </si>
+  <si>
+    <t>Java怎么这么难呀（煎熬）</t>
+  </si>
+  <si>
+    <t>数分/AI产品</t>
+  </si>
+  <si>
+    <t>在努力了</t>
+  </si>
+  <si>
+    <t>想要去大疆做关于无人机的东西</t>
+  </si>
+  <si>
+    <t>应届但是想先去入伍</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9.8"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF34C724"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF34C724"/>
-        <bgColor/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF1F2329"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF1F2329"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF1F2329"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF1F2329"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -134,72 +691,325 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF1F2329"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF1F2329"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF1F2329"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF1F2329"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF1F2329"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF1F2329"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF1F2329"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF1F2329"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="7">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="5" fillId="0" fontId="1" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -248,7 +1058,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -281,26 +1091,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -333,23 +1126,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -491,38 +1267,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="74"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="54"/>
+    <col min="1" max="1" width="74" customWidth="1"/>
+    <col min="2" max="2" width="126.444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="str">
-        <v>你想找什么样的工作？</v>
-      </c>
-      <c r="B1" s="6" t="str">
-        <v>现在的状态是怎样的？</v>
+    <row r="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -543,12 +1313,12 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="str">
-        <v>AI攻城狮</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <v>已找到！</v>
+    <row r="2" spans="1:20">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -569,12 +1339,12 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="str">
-        <v>Java+AI</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <v>在找</v>
+    <row r="3" spans="1:20">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -595,12 +1365,12 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="str">
-        <v>AI agent开发</v>
-      </c>
-      <c r="B4" s="1" t="str">
-        <v>在找</v>
+    <row r="4" spans="1:20">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -621,12 +1391,12 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="str">
-        <v>Java实习</v>
-      </c>
-      <c r="B5" s="1" t="str">
-        <v>还没开始找</v>
+    <row r="5" spans="1:20">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -647,12 +1417,12 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="str">
-        <v>系统架构师</v>
-      </c>
-      <c r="B6" s="1" t="str">
-        <v>在找</v>
+    <row r="6" spans="1:20">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -673,12 +1443,12 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="str">
-        <v>Go</v>
-      </c>
-      <c r="B7" s="1" t="str">
-        <v>在找</v>
+    <row r="7" spans="1:20">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -699,12 +1469,12 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="str">
-        <v>前端攻城狮</v>
-      </c>
-      <c r="B8" s="1" t="str">
-        <v>在找</v>
+    <row r="8" spans="1:20">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -725,12 +1495,12 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="str">
-        <v>AI+游戏开发</v>
-      </c>
-      <c r="B9" s="1" t="str">
-        <v>在找</v>
+    <row r="9" spans="1:20">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -751,12 +1521,12 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="str">
-        <v>C++实习</v>
-      </c>
-      <c r="B10" s="1" t="str">
-        <v>在找</v>
+    <row r="10" spans="1:20">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -777,12 +1547,12 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="str">
-        <v>后端开发</v>
-      </c>
-      <c r="B11" s="1" t="str">
-        <v>正确的路上</v>
+    <row r="11" spans="1:20">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -803,12 +1573,12 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="str">
-        <v>Java后端开发</v>
-      </c>
-      <c r="B12" s="1" t="str">
-        <v>在找实习的路上</v>
+    <row r="12" spans="1:20">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -829,12 +1599,12 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="str">
-        <v>Java</v>
-      </c>
-      <c r="B13" s="1" t="str">
-        <v>找到了，但是通勤太远想跳槽</v>
+    <row r="13" spans="1:20">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -855,12 +1625,12 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="str">
-        <v>Frontend leader</v>
-      </c>
-      <c r="B14" s="1" t="str">
-        <v>找到了，但是没有work life balance</v>
+    <row r="14" spans="1:20">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -881,12 +1651,12 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15">
-      <c r="A15" s="4" t="str">
-        <v>Java</v>
-      </c>
-      <c r="B15" s="1" t="str">
-        <v>找到了，不满意</v>
+    <row r="15" spans="1:20">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -907,12 +1677,12 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="str">
-        <v>Java开发</v>
-      </c>
-      <c r="B16" s="1" t="str">
-        <v>再找</v>
+    <row r="16" spans="1:20">
+      <c r="A16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -933,12 +1703,12 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B17" s="1" t="str">
-        <v>在找</v>
+    <row r="17" spans="1:20">
+      <c r="A17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -959,12 +1729,12 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="str">
-        <v>java开发</v>
-      </c>
-      <c r="B18" s="1" t="str">
-        <v>在找</v>
+    <row r="18" spans="1:20">
+      <c r="A18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -985,12 +1755,12 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="str">
-        <v>AI+前端工程师</v>
-      </c>
-      <c r="B19" s="1" t="str">
-        <v>还没开始找</v>
+    <row r="19" spans="1:20">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1011,12 +1781,12 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="str">
-        <v>C++开发</v>
-      </c>
-      <c r="B20" s="1" t="str">
-        <v>在找</v>
+    <row r="20" spans="1:20">
+      <c r="A20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1037,12 +1807,12 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="str">
-        <v>Go</v>
-      </c>
-      <c r="B21" s="1" t="str">
-        <v>在找</v>
+    <row r="21" spans="1:20">
+      <c r="A21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1063,12 +1833,12 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="str">
-        <v>Go后端开发</v>
-      </c>
-      <c r="B22" s="1" t="str">
-        <v>在找</v>
+    <row r="22" spans="1:20">
+      <c r="A22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1089,12 +1859,12 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="str">
-        <v>AI+后端工程师</v>
-      </c>
-      <c r="B23" s="1" t="str">
-        <v>还没开始找</v>
+    <row r="23" spans="1:20">
+      <c r="A23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1115,12 +1885,12 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="str">
-        <v>linux运维</v>
-      </c>
-      <c r="B24" s="1" t="str">
-        <v>在找</v>
+    <row r="24" spans="1:20">
+      <c r="A24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1141,12 +1911,12 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B25" s="1" t="str">
-        <v>在找</v>
+    <row r="25" spans="1:20">
+      <c r="A25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1167,12 +1937,12 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B26" s="1" t="str">
-        <v>还没开始找</v>
+    <row r="26" spans="1:20">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1193,12 +1963,12 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="str">
-        <v>java开发</v>
-      </c>
-      <c r="B27" s="1" t="str">
-        <v>在找</v>
+    <row r="27" spans="1:20">
+      <c r="A27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1219,12 +1989,12 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="str">
-        <v>AI+嵌入式</v>
-      </c>
-      <c r="B28" s="1" t="str">
-        <v>再找</v>
+    <row r="28" spans="1:20">
+      <c r="A28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1245,12 +2015,12 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="str">
-        <v>财务主管</v>
-      </c>
-      <c r="B29" s="1" t="str">
-        <v>在找</v>
+    <row r="29" spans="1:20">
+      <c r="A29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1271,12 +2041,12 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="str">
-        <v>后端开发</v>
-      </c>
-      <c r="B30" s="1" t="str">
-        <v>在学习的路上</v>
+    <row r="30" spans="1:20">
+      <c r="A30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1297,12 +2067,12 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="str">
-        <v>去年7月用这个项目找到了第一份工作，现在再次回来，希望跳槽找一份AI售前的工作</v>
-      </c>
-      <c r="B31" s="1" t="str">
-        <v>在找</v>
+    <row r="31" spans="1:20">
+      <c r="A31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1323,12 +2093,12 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B32" s="1" t="str">
-        <v>在找</v>
+    <row r="32" spans="1:20">
+      <c r="A32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1349,12 +2119,12 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="str">
-        <v>Java开发</v>
-      </c>
-      <c r="B33" s="1" t="str">
-        <v>准备跳槽</v>
+    <row r="33" spans="1:20">
+      <c r="A33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1375,12 +2145,12 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="str">
-        <v>Java开发，有完善的晋升制度</v>
-      </c>
-      <c r="B34" s="1" t="str">
-        <v>准备跳槽</v>
+    <row r="34" spans="1:20">
+      <c r="A34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1401,13 +2171,12 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="str">
-        <v>前端开发</v>
-      </c>
-      <c r="B35" s="1" t="str">
-        <v>找到了，兄弟们加油。对于前端这块简历一定要吹牛逼写好，
-面试前真的要背好八股和场景，或者找不想去的公司练练手，准备好了之后再冲刺</v>
+    <row r="35" spans="1:20">
+      <c r="A35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1428,12 +2197,12 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="str">
-        <v>java开发</v>
-      </c>
-      <c r="B36" s="1" t="str">
-        <v>在找</v>
+    <row r="36" spans="1:20">
+      <c r="A36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1454,12 +2223,12 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="str">
-        <v>Java开发</v>
-      </c>
-      <c r="B37" s="1" t="str">
-        <v>正在找</v>
+    <row r="37" spans="1:20">
+      <c r="A37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1480,12 +2249,12 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="str">
-        <v>Java+AI</v>
-      </c>
-      <c r="B38" s="1" t="str">
-        <v>在找</v>
+    <row r="38" spans="1:20">
+      <c r="A38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1506,38 +2275,38 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row r="39">
-      <c r="A39" s="4" t="str">
-        <v>AI+后端工程师</v>
-      </c>
-      <c r="B39" s="1" t="str">
-        <v>在找</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="str">
-        <v>java开发</v>
-      </c>
-      <c r="B40" s="1" t="str">
-        <v>在找</v>
+    <row r="39" spans="1:20">
+      <c r="A39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1558,12 +2327,12 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="str">
-        <v>C#开发</v>
-      </c>
-      <c r="B41" s="1" t="str">
-        <v>在找</v>
+    <row r="41" spans="1:20">
+      <c r="A41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1584,12 +2353,12 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="str">
-        <v>dotnet开发，base 成都</v>
-      </c>
-      <c r="B42" s="1" t="str">
-        <v>准备跳槽</v>
+    <row r="42" spans="1:20">
+      <c r="A42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1610,12 +2379,12 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="str">
-        <v>JAVA开发，base太原</v>
-      </c>
-      <c r="B43" s="1" t="str">
-        <v>在找</v>
+    <row r="43" spans="1:20">
+      <c r="A43" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1636,12 +2405,12 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="str">
-        <v>Java开发</v>
-      </c>
-      <c r="B44" s="1" t="str">
-        <v>准备跳槽</v>
+    <row r="44" spans="1:20">
+      <c r="A44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1662,12 +2431,12 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="str">
-        <v>前端开发，base上海</v>
-      </c>
-      <c r="B45" s="1" t="str">
-        <v>在找</v>
+    <row r="45" spans="1:20">
+      <c r="A45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1688,12 +2457,12 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="str">
-        <v>测试开发</v>
-      </c>
-      <c r="B46" s="1" t="str">
-        <v>在找</v>
+    <row r="46" spans="1:20">
+      <c r="A46" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1714,12 +2483,12 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
     </row>
-    <row r="47">
-      <c r="A47" s="5" t="str">
-        <v>运维开发</v>
-      </c>
-      <c r="B47" s="1" t="str">
-        <v>找到了，要去当牛马了，后续准备做独立开发</v>
+    <row r="47" spans="1:20">
+      <c r="A47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -1740,12 +2509,12 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="str" xml:space="preserve">
-        <v> 渗透测试工程师</v>
-      </c>
-      <c r="B48" s="1" t="str">
-        <v>应届在找</v>
+    <row r="48" spans="1:20">
+      <c r="A48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1766,12 +2535,12 @@
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="str">
-        <v>IT审计/数据分析/财务BP</v>
-      </c>
-      <c r="B49" s="1" t="str">
-        <v>准备跳槽</v>
+    <row r="49" spans="1:20">
+      <c r="A49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -1792,12 +2561,12 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="str">
-        <v>AI应用开发</v>
-      </c>
-      <c r="B50" s="1" t="str">
-        <v>在找</v>
+    <row r="50" spans="1:20">
+      <c r="A50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -1818,12 +2587,12 @@
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="str">
-        <v>设计师</v>
-      </c>
-      <c r="B51" s="1" t="str">
-        <v>在找</v>
+    <row r="51" spans="1:20">
+      <c r="A51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -1844,12 +2613,12 @@
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="str">
-        <v>运维开发</v>
-      </c>
-      <c r="B52" s="1" t="str">
-        <v>在找</v>
+    <row r="52" spans="1:20">
+      <c r="A52" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -1870,12 +2639,12 @@
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="str">
-        <v>Java开发</v>
-      </c>
-      <c r="B53" s="1" t="str">
-        <v>在找</v>
+    <row r="53" spans="1:20">
+      <c r="A53" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -1896,12 +2665,12 @@
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="str">
-        <v>Java开发/海外仓销售</v>
-      </c>
-      <c r="B54" s="1" t="str">
-        <v>在找</v>
+    <row r="54" spans="1:20">
+      <c r="A54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -1922,12 +2691,12 @@
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="str">
-        <v>ai产品</v>
-      </c>
-      <c r="B55" s="1" t="str">
-        <v>在找</v>
+    <row r="55" spans="1:20">
+      <c r="A55" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -1948,12 +2717,12 @@
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="str">
-        <v>ai产品</v>
-      </c>
-      <c r="B56" s="1" t="str">
-        <v>在找</v>
+    <row r="56" spans="1:20">
+      <c r="A56" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -1974,12 +2743,12 @@
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="str">
-        <v>数据开发+ai</v>
-      </c>
-      <c r="B57" s="1" t="str">
-        <v>失业了在找</v>
+    <row r="57" spans="1:20">
+      <c r="A57" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2000,12 +2769,12 @@
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="str">
-        <v>AI+JAVA</v>
-      </c>
-      <c r="B58" s="1" t="str">
-        <v>在找</v>
+    <row r="58" spans="1:20">
+      <c r="A58" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2026,12 +2795,12 @@
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="str">
-        <v>Java实习</v>
-      </c>
-      <c r="B59" s="1" t="str">
-        <v>在找</v>
+    <row r="59" spans="1:20">
+      <c r="A59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -2052,13 +2821,12 @@
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B60" s="1" t="str">
-        <v>大专，前端工程师，空窗创业，gap一年半😁，找了内推看看机会
-保持学习，看下金九银十有没机会了</v>
+    <row r="60" spans="1:20">
+      <c r="A60" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2079,12 +2847,12 @@
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="str">
-        <v>AI产品</v>
-      </c>
-      <c r="B61" s="1" t="str">
-        <v>在找</v>
+    <row r="61" spans="1:20">
+      <c r="A61" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2105,12 +2873,12 @@
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="str">
-        <v>Java秋招</v>
-      </c>
-      <c r="B62" s="1" t="str">
-        <v>目前实习，在改简历背八股准备秋招！！！</v>
+    <row r="62" spans="1:20">
+      <c r="A62" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -2131,12 +2899,12 @@
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="str">
-        <v>大厂的产品岗_26届秋招</v>
-      </c>
-      <c r="B63" s="1" t="str">
-        <v>应届生正在进行中</v>
+    <row r="63" spans="1:20">
+      <c r="A63" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2157,12 +2925,12 @@
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="str">
-        <v>双休、Java</v>
-      </c>
-      <c r="B64" s="1" t="str">
-        <v>25应届摆烂仔正在行动</v>
+    <row r="64" spans="1:20">
+      <c r="A64" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2183,12 +2951,12 @@
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="str" xml:space="preserve">
-        <v>AI + JAVA </v>
-      </c>
-      <c r="B65" s="1" t="str">
-        <v>在找</v>
+    <row r="65" spans="1:20">
+      <c r="A65" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -2209,12 +2977,12 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="str">
-        <v>嵌入式Ai</v>
-      </c>
-      <c r="B66" s="1" t="str">
-        <v>在找</v>
+    <row r="66" spans="1:20">
+      <c r="A66" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -2235,12 +3003,12 @@
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="str">
-        <v>全栈架构师 研发经理</v>
-      </c>
-      <c r="B67" s="1" t="str">
-        <v>被裁再找,改好了简历</v>
+    <row r="67" spans="1:20">
+      <c r="A67" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -2261,12 +3029,12 @@
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="str">
-        <v>AI产品</v>
-      </c>
-      <c r="B68" s="1" t="str">
-        <v>在找</v>
+    <row r="68" spans="1:20">
+      <c r="A68" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -2287,12 +3055,12 @@
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="str">
-        <v>AI应用开发</v>
-      </c>
-      <c r="B69" s="1" t="str">
-        <v>在找</v>
+    <row r="69" spans="1:20">
+      <c r="A69" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2313,12 +3081,12 @@
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="str">
-        <v>网络安全</v>
-      </c>
-      <c r="B70" s="1" t="str">
-        <v>在找</v>
+    <row r="70" spans="1:20">
+      <c r="A70" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -2339,12 +3107,12 @@
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="str">
-        <v>java开发</v>
-      </c>
-      <c r="B71" s="1" t="str">
-        <v>在找</v>
+    <row r="71" spans="1:20">
+      <c r="A71" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -2365,12 +3133,12 @@
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="str">
-        <v>嵌入式/硬件测试</v>
-      </c>
-      <c r="B72" s="1" t="str">
-        <v>25届毕业生在狂卷</v>
+    <row r="72" spans="1:20">
+      <c r="A72" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -2391,12 +3159,12 @@
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="str">
-        <v>Java 中厂</v>
-      </c>
-      <c r="B73" s="1" t="str">
-        <v>刚找到实习，现在边实习边秋招</v>
+    <row r="73" spans="1:20">
+      <c r="A73" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -2417,12 +3185,12 @@
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="str">
-        <v>Java+AI</v>
-      </c>
-      <c r="B74" s="1" t="str">
-        <v>在找</v>
+    <row r="74" spans="1:20">
+      <c r="A74" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -2443,12 +3211,12 @@
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="str">
-        <v>AIGC相关后端或全栈</v>
-      </c>
-      <c r="B75" s="1" t="str">
-        <v>开始找第一天</v>
+    <row r="75" spans="1:20">
+      <c r="A75" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -2469,12 +3237,12 @@
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
     </row>
-    <row r="76">
-      <c r="A76" s="3" t="str">
-        <v>AIGC相关后端或全栈/量化交易员</v>
-      </c>
-      <c r="B76" s="1" t="str">
-        <v>在找，之前上过大厂班，不适应，后续我想做独立开发</v>
+    <row r="76" spans="1:20">
+      <c r="A76" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -2495,12 +3263,12 @@
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="str">
-        <v>Java开发</v>
-      </c>
-      <c r="B77" s="1" t="str">
-        <v>Java怎么这么难呀（煎熬）</v>
+    <row r="77" spans="1:20">
+      <c r="A77" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -2521,12 +3289,12 @@
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="str">
-        <v>数分/AI产品</v>
-      </c>
-      <c r="B78" s="1" t="str">
-        <v>在努力了</v>
+    <row r="78" spans="1:20">
+      <c r="A78" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -2547,9 +3315,13 @@
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
     </row>
-    <row r="79">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
+    <row r="79" spans="1:20">
+      <c r="A79" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -2569,9 +3341,9 @@
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
     </row>
-    <row r="80">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
+    <row r="80" spans="1:20">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -2591,9 +3363,9 @@
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
     </row>
-    <row r="81">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
+    <row r="81" spans="1:20">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -2613,9 +3385,9 @@
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
     </row>
-    <row r="82">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
+    <row r="82" spans="1:20">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -2635,9 +3407,9 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
     </row>
-    <row r="83">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
+    <row r="83" spans="1:20">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -2657,9 +3429,9 @@
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
     </row>
-    <row r="84">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
+    <row r="84" spans="1:20">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -2679,9 +3451,9 @@
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
     </row>
-    <row r="85">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
+    <row r="85" spans="1:20">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -2701,9 +3473,9 @@
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
     </row>
-    <row r="86">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
+    <row r="86" spans="1:20">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -2723,9 +3495,9 @@
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
     </row>
-    <row r="87">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
+    <row r="87" spans="1:20">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -2745,9 +3517,9 @@
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
     </row>
-    <row r="88">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
+    <row r="88" spans="1:20">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -2767,9 +3539,9 @@
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
     </row>
-    <row r="89">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
+    <row r="89" spans="1:20">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -2789,9 +3561,9 @@
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
     </row>
-    <row r="90">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
+    <row r="90" spans="1:20">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -2811,9 +3583,9 @@
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
     </row>
-    <row r="91">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
+    <row r="91" spans="1:20">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -2833,9 +3605,9 @@
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
     </row>
-    <row r="92">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
+    <row r="92" spans="1:20">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -2855,9 +3627,9 @@
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
     </row>
-    <row r="93">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
+    <row r="93" spans="1:20">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -2877,9 +3649,9 @@
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
     </row>
-    <row r="94">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
+    <row r="94" spans="1:20">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -2899,9 +3671,9 @@
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
     </row>
-    <row r="95">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
+    <row r="95" spans="1:20">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -2921,9 +3693,9 @@
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
     </row>
-    <row r="96">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
+    <row r="96" spans="1:20">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -2943,9 +3715,9 @@
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
     </row>
-    <row r="97">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
+    <row r="97" spans="1:20">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -2965,9 +3737,9 @@
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
     </row>
-    <row r="98">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
+    <row r="98" spans="1:20">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -2987,9 +3759,9 @@
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
     </row>
-    <row r="99">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
+    <row r="99" spans="1:20">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -3009,9 +3781,9 @@
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
     </row>
-    <row r="100">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
+    <row r="100" spans="1:20">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -3031,9 +3803,9 @@
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
     </row>
-    <row r="101">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
+    <row r="101" spans="1:20">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -3053,9 +3825,9 @@
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
     </row>
-    <row r="102">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
+    <row r="102" spans="1:20">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -3075,9 +3847,9 @@
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
     </row>
-    <row r="103">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
+    <row r="103" spans="1:20">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -3097,9 +3869,9 @@
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
     </row>
-    <row r="104">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
+    <row r="104" spans="1:20">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -3119,9 +3891,9 @@
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
     </row>
-    <row r="105">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
+    <row r="105" spans="1:20">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -3141,9 +3913,9 @@
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
     </row>
-    <row r="106">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
+    <row r="106" spans="1:20">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -3163,9 +3935,9 @@
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
     </row>
-    <row r="107">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
+    <row r="107" spans="1:20">
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -3185,9 +3957,9 @@
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
     </row>
-    <row r="108">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
+    <row r="108" spans="1:20">
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -3207,9 +3979,9 @@
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
     </row>
-    <row r="109">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
+    <row r="109" spans="1:20">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -3229,9 +4001,9 @@
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
     </row>
-    <row r="110">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
+    <row r="110" spans="1:20">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -3251,9 +4023,9 @@
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
     </row>
-    <row r="111">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
+    <row r="111" spans="1:20">
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -3273,9 +4045,9 @@
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
     </row>
-    <row r="112">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
+    <row r="112" spans="1:20">
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -3295,9 +4067,9 @@
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
     </row>
-    <row r="113">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
+    <row r="113" spans="1:20">
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -3317,9 +4089,9 @@
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
     </row>
-    <row r="114">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
+    <row r="114" spans="1:20">
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -3339,9 +4111,9 @@
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
     </row>
-    <row r="115">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
+    <row r="115" spans="1:20">
+      <c r="A115" s="3"/>
+      <c r="B115" s="3"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -3361,9 +4133,9 @@
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
     </row>
-    <row r="116">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
+    <row r="116" spans="1:20">
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -3383,9 +4155,9 @@
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
     </row>
-    <row r="117">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
+    <row r="117" spans="1:20">
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -3405,9 +4177,9 @@
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
     </row>
-    <row r="118">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
+    <row r="118" spans="1:20">
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -3427,9 +4199,9 @@
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
     </row>
-    <row r="119">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
+    <row r="119" spans="1:20">
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -3449,9 +4221,9 @@
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
     </row>
-    <row r="120">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
+    <row r="120" spans="1:20">
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -3471,9 +4243,9 @@
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
     </row>
-    <row r="121">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
+    <row r="121" spans="1:20">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -3493,9 +4265,9 @@
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
     </row>
-    <row r="122">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
+    <row r="122" spans="1:20">
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -3515,9 +4287,9 @@
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
     </row>
-    <row r="123">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
+    <row r="123" spans="1:20">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -3537,9 +4309,9 @@
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
     </row>
-    <row r="124">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
+    <row r="124" spans="1:20">
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -3559,9 +4331,9 @@
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
     </row>
-    <row r="125">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
+    <row r="125" spans="1:20">
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -3581,9 +4353,9 @@
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
     </row>
-    <row r="126">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
+    <row r="126" spans="1:20">
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -3603,9 +4375,9 @@
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
     </row>
-    <row r="127">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
+    <row r="127" spans="1:20">
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -3625,9 +4397,9 @@
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
     </row>
-    <row r="128">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
+    <row r="128" spans="1:20">
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -3647,9 +4419,9 @@
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
     </row>
-    <row r="129">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
+    <row r="129" spans="1:20">
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -3669,9 +4441,9 @@
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
     </row>
-    <row r="130">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
+    <row r="130" spans="1:20">
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -3691,9 +4463,9 @@
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
     </row>
-    <row r="131">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
+    <row r="131" spans="1:20">
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -3713,9 +4485,9 @@
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
     </row>
-    <row r="132">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
+    <row r="132" spans="1:20">
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -3735,9 +4507,9 @@
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
     </row>
-    <row r="133">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
+    <row r="133" spans="1:20">
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -3757,9 +4529,9 @@
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
     </row>
-    <row r="134">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
+    <row r="134" spans="1:20">
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -3779,9 +4551,9 @@
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
     </row>
-    <row r="135">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
+    <row r="135" spans="1:20">
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -3801,9 +4573,9 @@
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
     </row>
-    <row r="136">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
+    <row r="136" spans="1:20">
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -3823,9 +4595,9 @@
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
     </row>
-    <row r="137">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
+    <row r="137" spans="1:20">
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -3845,9 +4617,9 @@
       <c r="S137" s="2"/>
       <c r="T137" s="2"/>
     </row>
-    <row r="138">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
+    <row r="138" spans="1:20">
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -3867,9 +4639,9 @@
       <c r="S138" s="2"/>
       <c r="T138" s="2"/>
     </row>
-    <row r="139">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
+    <row r="139" spans="1:20">
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -3889,9 +4661,9 @@
       <c r="S139" s="2"/>
       <c r="T139" s="2"/>
     </row>
-    <row r="140">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
+    <row r="140" spans="1:20">
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -3911,9 +4683,9 @@
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
     </row>
-    <row r="141">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
+    <row r="141" spans="1:20">
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -3933,9 +4705,9 @@
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
     </row>
-    <row r="142">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
+    <row r="142" spans="1:20">
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -3955,9 +4727,9 @@
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
     </row>
-    <row r="143">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
+    <row r="143" spans="1:20">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -3977,9 +4749,9 @@
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
     </row>
-    <row r="144">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
+    <row r="144" spans="1:20">
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -3999,9 +4771,9 @@
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
     </row>
-    <row r="145">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
+    <row r="145" spans="1:20">
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -4021,9 +4793,9 @@
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
     </row>
-    <row r="146">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
+    <row r="146" spans="1:20">
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -4043,9 +4815,9 @@
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
     </row>
-    <row r="147">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
+    <row r="147" spans="1:20">
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -4065,9 +4837,9 @@
       <c r="S147" s="2"/>
       <c r="T147" s="2"/>
     </row>
-    <row r="148">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
+    <row r="148" spans="1:20">
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -4087,9 +4859,9 @@
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
     </row>
-    <row r="149">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
+    <row r="149" spans="1:20">
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -4109,9 +4881,9 @@
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
     </row>
-    <row r="150">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
+    <row r="150" spans="1:20">
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -4131,9 +4903,9 @@
       <c r="S150" s="2"/>
       <c r="T150" s="2"/>
     </row>
-    <row r="151">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
+    <row r="151" spans="1:20">
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -4153,9 +4925,9 @@
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
     </row>
-    <row r="152">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
+    <row r="152" spans="1:20">
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -4175,9 +4947,9 @@
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
     </row>
-    <row r="153">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
+    <row r="153" spans="1:20">
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -4197,9 +4969,9 @@
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
     </row>
-    <row r="154">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
+    <row r="154" spans="1:20">
+      <c r="A154" s="3"/>
+      <c r="B154" s="3"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -4219,9 +4991,9 @@
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
     </row>
-    <row r="155">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
+    <row r="155" spans="1:20">
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -4241,9 +5013,9 @@
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
     </row>
-    <row r="156">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
+    <row r="156" spans="1:20">
+      <c r="A156" s="3"/>
+      <c r="B156" s="3"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -4263,9 +5035,9 @@
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
     </row>
-    <row r="157">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
+    <row r="157" spans="1:20">
+      <c r="A157" s="3"/>
+      <c r="B157" s="3"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -4285,9 +5057,9 @@
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
     </row>
-    <row r="158">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
+    <row r="158" spans="1:20">
+      <c r="A158" s="3"/>
+      <c r="B158" s="3"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -4307,9 +5079,9 @@
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
     </row>
-    <row r="159">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
+    <row r="159" spans="1:20">
+      <c r="A159" s="3"/>
+      <c r="B159" s="3"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -4329,9 +5101,9 @@
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
     </row>
-    <row r="160">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
+    <row r="160" spans="1:20">
+      <c r="A160" s="3"/>
+      <c r="B160" s="3"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -4351,9 +5123,9 @@
       <c r="S160" s="2"/>
       <c r="T160" s="2"/>
     </row>
-    <row r="161">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
+    <row r="161" spans="1:20">
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -4373,9 +5145,9 @@
       <c r="S161" s="2"/>
       <c r="T161" s="2"/>
     </row>
-    <row r="162">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
+    <row r="162" spans="1:20">
+      <c r="A162" s="3"/>
+      <c r="B162" s="3"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -4395,9 +5167,9 @@
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
     </row>
-    <row r="163">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
+    <row r="163" spans="1:20">
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -4417,9 +5189,9 @@
       <c r="S163" s="2"/>
       <c r="T163" s="2"/>
     </row>
-    <row r="164">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
+    <row r="164" spans="1:20">
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -4439,9 +5211,9 @@
       <c r="S164" s="2"/>
       <c r="T164" s="2"/>
     </row>
-    <row r="165">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
+    <row r="165" spans="1:20">
+      <c r="A165" s="3"/>
+      <c r="B165" s="3"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -4461,9 +5233,9 @@
       <c r="S165" s="2"/>
       <c r="T165" s="2"/>
     </row>
-    <row r="166">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
+    <row r="166" spans="1:20">
+      <c r="A166" s="3"/>
+      <c r="B166" s="3"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -4483,9 +5255,9 @@
       <c r="S166" s="2"/>
       <c r="T166" s="2"/>
     </row>
-    <row r="167">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
+    <row r="167" spans="1:20">
+      <c r="A167" s="3"/>
+      <c r="B167" s="3"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -4505,9 +5277,9 @@
       <c r="S167" s="2"/>
       <c r="T167" s="2"/>
     </row>
-    <row r="168">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
+    <row r="168" spans="1:20">
+      <c r="A168" s="3"/>
+      <c r="B168" s="3"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -4527,9 +5299,9 @@
       <c r="S168" s="2"/>
       <c r="T168" s="2"/>
     </row>
-    <row r="169">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
+    <row r="169" spans="1:20">
+      <c r="A169" s="3"/>
+      <c r="B169" s="3"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -4549,9 +5321,9 @@
       <c r="S169" s="2"/>
       <c r="T169" s="2"/>
     </row>
-    <row r="170">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
+    <row r="170" spans="1:20">
+      <c r="A170" s="3"/>
+      <c r="B170" s="3"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -4571,9 +5343,9 @@
       <c r="S170" s="2"/>
       <c r="T170" s="2"/>
     </row>
-    <row r="171">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
+    <row r="171" spans="1:20">
+      <c r="A171" s="3"/>
+      <c r="B171" s="3"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -4593,9 +5365,9 @@
       <c r="S171" s="2"/>
       <c r="T171" s="2"/>
     </row>
-    <row r="172">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
+    <row r="172" spans="1:20">
+      <c r="A172" s="3"/>
+      <c r="B172" s="3"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -4615,9 +5387,9 @@
       <c r="S172" s="2"/>
       <c r="T172" s="2"/>
     </row>
-    <row r="173">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
+    <row r="173" spans="1:20">
+      <c r="A173" s="3"/>
+      <c r="B173" s="3"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -4637,9 +5409,9 @@
       <c r="S173" s="2"/>
       <c r="T173" s="2"/>
     </row>
-    <row r="174">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
+    <row r="174" spans="1:20">
+      <c r="A174" s="3"/>
+      <c r="B174" s="3"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -4659,9 +5431,9 @@
       <c r="S174" s="2"/>
       <c r="T174" s="2"/>
     </row>
-    <row r="175">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
+    <row r="175" spans="1:20">
+      <c r="A175" s="3"/>
+      <c r="B175" s="3"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -4681,9 +5453,9 @@
       <c r="S175" s="2"/>
       <c r="T175" s="2"/>
     </row>
-    <row r="176">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
+    <row r="176" spans="1:20">
+      <c r="A176" s="3"/>
+      <c r="B176" s="3"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -4703,9 +5475,9 @@
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
     </row>
-    <row r="177">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
+    <row r="177" spans="1:20">
+      <c r="A177" s="3"/>
+      <c r="B177" s="3"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -4725,9 +5497,9 @@
       <c r="S177" s="2"/>
       <c r="T177" s="2"/>
     </row>
-    <row r="178">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
+    <row r="178" spans="1:20">
+      <c r="A178" s="3"/>
+      <c r="B178" s="3"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -4747,9 +5519,9 @@
       <c r="S178" s="2"/>
       <c r="T178" s="2"/>
     </row>
-    <row r="179">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
+    <row r="179" spans="1:20">
+      <c r="A179" s="3"/>
+      <c r="B179" s="3"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -4769,9 +5541,9 @@
       <c r="S179" s="2"/>
       <c r="T179" s="2"/>
     </row>
-    <row r="180">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
+    <row r="180" spans="1:20">
+      <c r="A180" s="3"/>
+      <c r="B180" s="3"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -4791,9 +5563,9 @@
       <c r="S180" s="2"/>
       <c r="T180" s="2"/>
     </row>
-    <row r="181">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
+    <row r="181" spans="1:20">
+      <c r="A181" s="3"/>
+      <c r="B181" s="3"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -4813,9 +5585,9 @@
       <c r="S181" s="2"/>
       <c r="T181" s="2"/>
     </row>
-    <row r="182">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
+    <row r="182" spans="1:20">
+      <c r="A182" s="3"/>
+      <c r="B182" s="3"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -4835,9 +5607,9 @@
       <c r="S182" s="2"/>
       <c r="T182" s="2"/>
     </row>
-    <row r="183">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
+    <row r="183" spans="1:20">
+      <c r="A183" s="3"/>
+      <c r="B183" s="3"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -4857,9 +5629,9 @@
       <c r="S183" s="2"/>
       <c r="T183" s="2"/>
     </row>
-    <row r="184">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
+    <row r="184" spans="1:20">
+      <c r="A184" s="3"/>
+      <c r="B184" s="3"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -4879,9 +5651,9 @@
       <c r="S184" s="2"/>
       <c r="T184" s="2"/>
     </row>
-    <row r="185">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
+    <row r="185" spans="1:20">
+      <c r="A185" s="3"/>
+      <c r="B185" s="3"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -4901,9 +5673,9 @@
       <c r="S185" s="2"/>
       <c r="T185" s="2"/>
     </row>
-    <row r="186">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
+    <row r="186" spans="1:20">
+      <c r="A186" s="3"/>
+      <c r="B186" s="3"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -4923,9 +5695,9 @@
       <c r="S186" s="2"/>
       <c r="T186" s="2"/>
     </row>
-    <row r="187">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
+    <row r="187" spans="1:20">
+      <c r="A187" s="3"/>
+      <c r="B187" s="3"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -4945,9 +5717,9 @@
       <c r="S187" s="2"/>
       <c r="T187" s="2"/>
     </row>
-    <row r="188">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
+    <row r="188" spans="1:20">
+      <c r="A188" s="3"/>
+      <c r="B188" s="3"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -4967,9 +5739,9 @@
       <c r="S188" s="2"/>
       <c r="T188" s="2"/>
     </row>
-    <row r="189">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
+    <row r="189" spans="1:20">
+      <c r="A189" s="3"/>
+      <c r="B189" s="3"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -4989,9 +5761,9 @@
       <c r="S189" s="2"/>
       <c r="T189" s="2"/>
     </row>
-    <row r="190">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
+    <row r="190" spans="1:20">
+      <c r="A190" s="3"/>
+      <c r="B190" s="3"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -5011,9 +5783,9 @@
       <c r="S190" s="2"/>
       <c r="T190" s="2"/>
     </row>
-    <row r="191">
-      <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
+    <row r="191" spans="1:20">
+      <c r="A191" s="3"/>
+      <c r="B191" s="3"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -5033,9 +5805,9 @@
       <c r="S191" s="2"/>
       <c r="T191" s="2"/>
     </row>
-    <row r="192">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
+    <row r="192" spans="1:20">
+      <c r="A192" s="3"/>
+      <c r="B192" s="3"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -5055,9 +5827,9 @@
       <c r="S192" s="2"/>
       <c r="T192" s="2"/>
     </row>
-    <row r="193">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
+    <row r="193" spans="1:20">
+      <c r="A193" s="3"/>
+      <c r="B193" s="3"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -5077,9 +5849,9 @@
       <c r="S193" s="2"/>
       <c r="T193" s="2"/>
     </row>
-    <row r="194">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
+    <row r="194" spans="1:20">
+      <c r="A194" s="3"/>
+      <c r="B194" s="3"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -5099,9 +5871,9 @@
       <c r="S194" s="2"/>
       <c r="T194" s="2"/>
     </row>
-    <row r="195">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
+    <row r="195" spans="1:20">
+      <c r="A195" s="3"/>
+      <c r="B195" s="3"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -5121,9 +5893,9 @@
       <c r="S195" s="2"/>
       <c r="T195" s="2"/>
     </row>
-    <row r="196">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
+    <row r="196" spans="1:20">
+      <c r="A196" s="3"/>
+      <c r="B196" s="3"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -5143,9 +5915,9 @@
       <c r="S196" s="2"/>
       <c r="T196" s="2"/>
     </row>
-    <row r="197">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
+    <row r="197" spans="1:20">
+      <c r="A197" s="3"/>
+      <c r="B197" s="3"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -5165,9 +5937,9 @@
       <c r="S197" s="2"/>
       <c r="T197" s="2"/>
     </row>
-    <row r="198">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
+    <row r="198" spans="1:20">
+      <c r="A198" s="3"/>
+      <c r="B198" s="3"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -5187,9 +5959,9 @@
       <c r="S198" s="2"/>
       <c r="T198" s="2"/>
     </row>
-    <row r="199">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
+    <row r="199" spans="1:20">
+      <c r="A199" s="3"/>
+      <c r="B199" s="3"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -5209,9 +5981,9 @@
       <c r="S199" s="2"/>
       <c r="T199" s="2"/>
     </row>
-    <row r="200">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
+    <row r="200" spans="1:20">
+      <c r="A200" s="3"/>
+      <c r="B200" s="3"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -5232,6 +6004,7 @@
       <c r="T200" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/许愿墙.xlsx
+++ b/src/main/resources/许愿墙.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="82">
   <si>
     <t>你想找什么样的工作？</t>
   </si>
@@ -275,12 +275,6 @@
   </si>
   <si>
     <t>在努力了</t>
-  </si>
-  <si>
-    <t>想要去大疆做关于无人机的东西</t>
-  </si>
-  <si>
-    <t>应届但是想先去入伍</t>
   </si>
 </sst>
 </file>
@@ -1277,8 +1271,8 @@
   </sheetPr>
   <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B79" sqref="A79:B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2"/>
@@ -3316,12 +3310,8 @@
       <c r="T78" s="2"/>
     </row>
     <row r="79" spans="1:20">
-      <c r="A79" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>83</v>
-      </c>
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
